--- a/VA_result_TRA.xlsx
+++ b/VA_result_TRA.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
   <si>
     <t xml:space="preserve">time</t>
   </si>
@@ -392,6 +392,54 @@
     <t xml:space="preserve">2025-10-01</t>
   </si>
   <si>
+    <t xml:space="preserve">2026-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029-10-01</t>
+  </si>
+  <si>
     <t xml:space="preserve">VA_CST</t>
   </si>
   <si>
@@ -461,73 +509,73 @@
     <t xml:space="preserve">4.65661287307739e-10</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.515100536867976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.570100701414049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.626280756201595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.563241895288229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.568787689786404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.502488588448614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.450523956213146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.412825748091564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.358857931336388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.356685717124492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.345297603635117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.331139993853867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.34896926023066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.407083868980408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.593948325607926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.180772681022063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.42510880716145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.635039997287095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.981788851786405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.2114626490511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.490277920849621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.215883135329932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.169332191813737</t>
+    <t xml:space="preserve">-24.8786445343867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-25.353806254454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-36.4316213638522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-25.2947700247169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-25.3426307016052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-19.4044552701525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-24.3206184799783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-23.9948911354877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-23.5283883390948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-23.5096503875684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-23.4112229917664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-23.2888900185935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-23.4430133679416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-25.3762736553326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-18.6116780464072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-16.7675337188412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-25.0243509220891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-32.4147312301211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-43.9921438726597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-51.6581168621778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-25.1777276615612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-14.2799189882353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-11.7398043703288</t>
   </si>
   <si>
     <t xml:space="preserve">valaj_brut</t>
@@ -568,7 +616,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFA500"/>
+        <fgColor rgb="FFB8F0F6"/>
       </patternFill>
     </fill>
   </fills>
@@ -1272,10 +1320,10 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>1837792.09595262</v>
+        <v>1446031.30077748</v>
       </c>
       <c r="C16" t="n">
-        <v>183.779209595262</v>
+        <v>144.603130077748</v>
       </c>
     </row>
     <row r="17">
@@ -1415,10 +1463,10 @@
         <v>49</v>
       </c>
       <c r="B29" t="n">
-        <v>888719.729790711</v>
+        <v>1087150.34080404</v>
       </c>
       <c r="C29" t="n">
-        <v>88.8719729790711</v>
+        <v>108.715034080404</v>
       </c>
     </row>
     <row r="30">
@@ -1778,10 +1826,10 @@
         <v>17</v>
       </c>
       <c r="B62" t="n">
-        <v>450602.105582702</v>
+        <v>744987.89935673</v>
       </c>
       <c r="C62" t="n">
-        <v>45.0602105582702</v>
+        <v>74.498789935673</v>
       </c>
     </row>
     <row r="63">
@@ -1789,10 +1837,10 @@
         <v>74</v>
       </c>
       <c r="B63" t="n">
-        <v>506079.160828284</v>
+        <v>773104.052482153</v>
       </c>
       <c r="C63" t="n">
-        <v>50.6079160828284</v>
+        <v>77.3104052482153</v>
       </c>
     </row>
     <row r="64">
@@ -2185,10 +2233,10 @@
         <v>101</v>
       </c>
       <c r="B99" t="n">
-        <v>890784.805135783</v>
+        <v>1136931.87059441</v>
       </c>
       <c r="C99" t="n">
-        <v>89.0784805135783</v>
+        <v>113.693187059441</v>
       </c>
     </row>
     <row r="100">
@@ -2218,10 +2266,10 @@
         <v>104</v>
       </c>
       <c r="B102" t="n">
-        <v>1143169.47804493</v>
+        <v>1199655.59876592</v>
       </c>
       <c r="C102" t="n">
-        <v>114.316947804493</v>
+        <v>119.965559876592</v>
       </c>
     </row>
     <row r="103">
@@ -2229,10 +2277,10 @@
         <v>105</v>
       </c>
       <c r="B103" t="n">
-        <v>1109224.80786111</v>
+        <v>1185484.96996128</v>
       </c>
       <c r="C103" t="n">
-        <v>110.922480786111</v>
+        <v>118.548496996128</v>
       </c>
     </row>
     <row r="104">
@@ -2240,10 +2288,10 @@
         <v>106</v>
       </c>
       <c r="B104" t="n">
-        <v>1138057.15613988</v>
+        <v>1166572.4346717</v>
       </c>
       <c r="C104" t="n">
-        <v>113.805715613988</v>
+        <v>116.65724346717</v>
       </c>
     </row>
     <row r="105">
@@ -2251,10 +2299,10 @@
         <v>107</v>
       </c>
       <c r="B105" t="n">
-        <v>1142090.74688076</v>
+        <v>1203535.31291382</v>
       </c>
       <c r="C105" t="n">
-        <v>114.209074688076</v>
+        <v>120.353531291382</v>
       </c>
     </row>
     <row r="106">
@@ -2262,10 +2310,10 @@
         <v>108</v>
       </c>
       <c r="B106" t="n">
-        <v>1133123.99830921</v>
+        <v>1198869.02007681</v>
       </c>
       <c r="C106" t="n">
-        <v>113.312399830921</v>
+        <v>119.886902007681</v>
       </c>
     </row>
     <row r="107">
@@ -2273,10 +2321,10 @@
         <v>109</v>
       </c>
       <c r="B107" t="n">
-        <v>1133720.95279561</v>
+        <v>1195845.27752166</v>
       </c>
       <c r="C107" t="n">
-        <v>113.372095279561</v>
+        <v>119.584527752166</v>
       </c>
     </row>
     <row r="108">
@@ -2284,10 +2332,10 @@
         <v>110</v>
       </c>
       <c r="B108" t="n">
-        <v>1136149.9488916</v>
+        <v>1191809.70234929</v>
       </c>
       <c r="C108" t="n">
-        <v>113.61499488916</v>
+        <v>119.180970234929</v>
       </c>
     </row>
     <row r="109">
@@ -2295,10 +2343,10 @@
         <v>111</v>
       </c>
       <c r="B109" t="n">
-        <v>1135508.69290375</v>
+        <v>1199696.87725468</v>
       </c>
       <c r="C109" t="n">
-        <v>113.550869290375</v>
+        <v>119.969687725468</v>
       </c>
     </row>
     <row r="110">
@@ -2306,10 +2354,10 @@
         <v>112</v>
       </c>
       <c r="B110" t="n">
-        <v>1134943.85502126</v>
+        <v>1198701.17915119</v>
       </c>
       <c r="C110" t="n">
-        <v>113.494385502126</v>
+        <v>119.870117915119</v>
       </c>
     </row>
     <row r="111">
@@ -2317,10 +2365,10 @@
         <v>113</v>
       </c>
       <c r="B111" t="n">
-        <v>1135235.57569647</v>
+        <v>1198055.97002421</v>
       </c>
       <c r="C111" t="n">
-        <v>113.523557569647</v>
+        <v>119.805597002421</v>
       </c>
     </row>
     <row r="112">
@@ -2328,10 +2376,10 @@
         <v>114</v>
       </c>
       <c r="B112" t="n">
-        <v>1135339.22250077</v>
+        <v>1197194.85506937</v>
       </c>
       <c r="C112" t="n">
-        <v>113.533922250077</v>
+        <v>119.719485506937</v>
       </c>
     </row>
     <row r="113">
@@ -2339,10 +2387,10 @@
         <v>115</v>
       </c>
       <c r="B113" t="n">
-        <v>1135236.29280429</v>
+        <v>1198877.82812089</v>
       </c>
       <c r="C113" t="n">
-        <v>113.523629280429</v>
+        <v>119.887782812089</v>
       </c>
     </row>
     <row r="114">
@@ -2350,10 +2398,10 @@
         <v>116</v>
       </c>
       <c r="B114" t="n">
-        <v>1135226.86953261</v>
+        <v>1198665.36509126</v>
       </c>
       <c r="C114" t="n">
-        <v>113.522686953261</v>
+        <v>119.866536509126</v>
       </c>
     </row>
     <row r="115">
@@ -2361,10 +2409,10 @@
         <v>117</v>
       </c>
       <c r="B115" t="n">
-        <v>1135257.91361404</v>
+        <v>1198527.68974028</v>
       </c>
       <c r="C115" t="n">
-        <v>113.525791361404</v>
+        <v>119.852768974028</v>
       </c>
     </row>
     <row r="116">
@@ -2372,10 +2420,10 @@
         <v>118</v>
       </c>
       <c r="B116" t="n">
-        <v>1135254.55788734</v>
+        <v>1198343.94419379</v>
       </c>
       <c r="C116" t="n">
-        <v>113.525455788734</v>
+        <v>119.834394419379</v>
       </c>
     </row>
     <row r="117">
@@ -2383,10 +2431,10 @@
         <v>119</v>
       </c>
       <c r="B117" t="n">
-        <v>1135246.39876221</v>
+        <v>1198703.0586202</v>
       </c>
       <c r="C117" t="n">
-        <v>113.524639876221</v>
+        <v>119.87030586202</v>
       </c>
     </row>
     <row r="118">
@@ -2394,10 +2442,10 @@
         <v>120</v>
       </c>
       <c r="B118" t="n">
-        <v>1135248.93608237</v>
+        <v>1198657.72305232</v>
       </c>
       <c r="C118" t="n">
-        <v>113.524893608237</v>
+        <v>119.865772305232</v>
       </c>
     </row>
     <row r="119">
@@ -2405,10 +2453,10 @@
         <v>121</v>
       </c>
       <c r="B119" t="n">
-        <v>1135250.75894565</v>
+        <v>1198628.34575204</v>
       </c>
       <c r="C119" t="n">
-        <v>113.525075894565</v>
+        <v>119.862834575204</v>
       </c>
     </row>
     <row r="120">
@@ -2416,10 +2464,10 @@
         <v>122</v>
       </c>
       <c r="B120" t="n">
-        <v>1135249.68471285</v>
+        <v>1198589.13794864</v>
       </c>
       <c r="C120" t="n">
-        <v>113.524968471285</v>
+        <v>119.858913794864</v>
       </c>
     </row>
     <row r="121">
@@ -2427,10 +2475,186 @@
         <v>123</v>
       </c>
       <c r="B121" t="n">
-        <v>1135249.37601319</v>
+        <v>1198665.76613418</v>
       </c>
       <c r="C121" t="n">
-        <v>113.524937601319</v>
+        <v>119.866576613418</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1198656.09238662</v>
+      </c>
+      <c r="C122" t="n">
+        <v>119.865609238662</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1198649.82382972</v>
+      </c>
+      <c r="C123" t="n">
+        <v>119.864982382972</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>126</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1198641.4576305</v>
+      </c>
+      <c r="C124" t="n">
+        <v>119.86414576305</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>127</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1198657.80862725</v>
+      </c>
+      <c r="C125" t="n">
+        <v>119.865780862725</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>128</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1198655.74443359</v>
+      </c>
+      <c r="C126" t="n">
+        <v>119.865574443359</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>129</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1198654.40684282</v>
+      </c>
+      <c r="C127" t="n">
+        <v>119.865440684282</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>130</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1198652.62165509</v>
+      </c>
+      <c r="C128" t="n">
+        <v>119.865262165509</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>131</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1198656.11064668</v>
+      </c>
+      <c r="C129" t="n">
+        <v>119.865611064668</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>132</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1198655.67018703</v>
+      </c>
+      <c r="C130" t="n">
+        <v>119.865567018703</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>133</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1198655.38477061</v>
+      </c>
+      <c r="C131" t="n">
+        <v>119.865538477061</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>134</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1198655.00384552</v>
+      </c>
+      <c r="C132" t="n">
+        <v>119.865500384552</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>135</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1198655.74832994</v>
+      </c>
+      <c r="C133" t="n">
+        <v>119.865574832994</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>136</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1198655.65434423</v>
+      </c>
+      <c r="C134" t="n">
+        <v>119.865565434423</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>137</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1198655.59344179</v>
+      </c>
+      <c r="C135" t="n">
+        <v>119.865559344179</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>138</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1198655.51215963</v>
+      </c>
+      <c r="C136" t="n">
+        <v>119.865551215963</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>139</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1198655.67101844</v>
+      </c>
+      <c r="C137" t="n">
+        <v>119.865567101844</v>
       </c>
     </row>
   </sheetData>
@@ -2452,19 +2676,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2">
@@ -2498,7 +2722,7 @@
         <v>8.67252799758449</v>
       </c>
       <c r="F3" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4">
@@ -2506,19 +2730,19 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>3227558.43690707</v>
+        <v>3227534.07336307</v>
       </c>
       <c r="C4" t="n">
         <v>139.334350095562</v>
       </c>
       <c r="D4" t="n">
-        <v>12.3859517191384</v>
+        <v>12.3851033626693</v>
       </c>
       <c r="E4" t="n">
         <v>12.386077558467</v>
       </c>
       <c r="F4" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5">
@@ -2526,19 +2750,19 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>3590849.49443827</v>
+        <v>3590824.71073272</v>
       </c>
       <c r="C5" t="n">
-        <v>155.017557752415</v>
+        <v>145.223537873036</v>
       </c>
       <c r="D5" t="n">
-        <v>11.2559095251995</v>
+        <v>11.2559814741507</v>
       </c>
       <c r="E5" t="n">
-        <v>11.2558085253898</v>
+        <v>4.2266589490926</v>
       </c>
       <c r="F5" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6">
@@ -2546,19 +2770,19 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>3183153.98808139</v>
+        <v>3183118.18274078</v>
       </c>
       <c r="C6" t="n">
         <v>137.417132259008</v>
       </c>
       <c r="D6" t="n">
-        <v>-11.3537341787324</v>
+        <v>-11.3541194805006</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.3538271074538</v>
+        <v>-5.37544101208499</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7">
@@ -2566,19 +2790,19 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>3219031.47227794</v>
+        <v>3219006.74074981</v>
       </c>
       <c r="C7" t="n">
         <v>138.966039877978</v>
       </c>
       <c r="D7" t="n">
-        <v>1.1271048881357</v>
+        <v>1.12746545835531</v>
       </c>
       <c r="E7" t="n">
         <v>1.12715757744819</v>
       </c>
       <c r="F7" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8">
@@ -2586,19 +2810,19 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>2790319.06943924</v>
+        <v>2790294.29559622</v>
       </c>
       <c r="C8" t="n">
-        <v>120.458687163245</v>
+        <v>125.419452438578</v>
       </c>
       <c r="D8" t="n">
-        <v>-13.3180556490592</v>
+        <v>-13.3181592857966</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.3178960348757</v>
+        <v>-9.74812799680747</v>
       </c>
       <c r="F8" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9">
@@ -2606,19 +2830,19 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>2454238.15740779</v>
+        <v>2454219.25544111</v>
       </c>
       <c r="C9" t="n">
         <v>105.949858399292</v>
       </c>
       <c r="D9" t="n">
-        <v>-12.0445333909066</v>
+        <v>-12.0444298899053</v>
       </c>
       <c r="E9" t="n">
-        <v>-12.0446512456927</v>
+        <v>-15.5235839901476</v>
       </c>
       <c r="F9" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10">
@@ -2626,19 +2850,19 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>2210438.53679586</v>
+        <v>2210414.66670133</v>
       </c>
       <c r="C10" t="n">
         <v>95.4249471068416</v>
       </c>
       <c r="D10" t="n">
-        <v>-9.93382080203017</v>
+        <v>-9.93409974268818</v>
       </c>
       <c r="E10" t="n">
         <v>-9.93386065018147</v>
       </c>
       <c r="F10" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11">
@@ -2646,19 +2870,19 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>1861462.86045165</v>
+        <v>1861439.27838626</v>
       </c>
       <c r="C11" t="n">
         <v>80.3597881061267</v>
       </c>
       <c r="D11" t="n">
-        <v>-15.7876218015122</v>
+        <v>-15.7877792602534</v>
       </c>
       <c r="E11" t="n">
         <v>-15.7874428621348</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12">
@@ -2666,19 +2890,19 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>1847408.43686276</v>
+        <v>1847385.26733235</v>
       </c>
       <c r="C12" t="n">
         <v>79.7530152416615</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.755020359927072</v>
+        <v>-0.755007762922844</v>
       </c>
       <c r="E12" t="n">
         <v>-0.755070264326563</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13">
@@ -2686,19 +2910,19 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>1773766.09640527</v>
+        <v>1773742.9434406</v>
       </c>
       <c r="C13" t="n">
         <v>76.5738863704733</v>
       </c>
       <c r="D13" t="n">
-        <v>-3.98625117153536</v>
+        <v>-3.98630026957441</v>
       </c>
       <c r="E13" t="n">
         <v>-3.98621777691419</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14">
@@ -2706,19 +2930,19 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>1682208.01667959</v>
+        <v>1682184.9507542</v>
       </c>
       <c r="C14" t="n">
         <v>72.6213004423628</v>
       </c>
       <c r="D14" t="n">
-        <v>-5.16178992885465</v>
+        <v>-5.16185239946915</v>
       </c>
       <c r="E14" t="n">
         <v>-5.16179355059426</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
@@ -2726,19 +2950,19 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>1797497.45698495</v>
+        <v>1797474.49923493</v>
       </c>
       <c r="C15" t="n">
         <v>77.5982979403621</v>
       </c>
       <c r="D15" t="n">
-        <v>6.8534592132625</v>
+        <v>6.85355961774843</v>
       </c>
       <c r="E15" t="n">
         <v>6.85335771692681</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16">
@@ -2746,19 +2970,19 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>1873451.62082498</v>
+        <v>1873428.52678087</v>
       </c>
       <c r="C16" t="n">
         <v>79.1835235635518</v>
       </c>
       <c r="D16" t="n">
-        <v>4.22555055891036</v>
+        <v>4.22559694606366</v>
       </c>
       <c r="E16" t="n">
         <v>2.04286133235552</v>
       </c>
       <c r="F16" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17">
@@ -2766,19 +2990,19 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>1657050.83386977</v>
+        <v>1657025.86467998</v>
       </c>
       <c r="C17" t="n">
-        <v>61.7936568371475</v>
+        <v>75.8289239728449</v>
       </c>
       <c r="D17" t="n">
-        <v>-11.5509140748411</v>
+        <v>-11.5511565564092</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.9614712048617</v>
+        <v>-4.23648688481838</v>
       </c>
       <c r="F17" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18">
@@ -2786,19 +3010,19 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>1804015.21164849</v>
+        <v>1803997.19391876</v>
       </c>
       <c r="C18" t="n">
         <v>84.0601583736459</v>
       </c>
       <c r="D18" t="n">
-        <v>8.86903254714917</v>
+        <v>8.86958570602434</v>
       </c>
       <c r="E18" t="n">
-        <v>36.0336362600779</v>
+        <v>10.8550062028426</v>
       </c>
       <c r="F18" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19">
@@ -2806,19 +3030,19 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>2096398.82350249</v>
+        <v>2096382.23674145</v>
       </c>
       <c r="C19" t="n">
         <v>89.4090422814052</v>
       </c>
       <c r="D19" t="n">
-        <v>16.2073806232947</v>
+        <v>16.207621819386</v>
       </c>
       <c r="E19" t="n">
         <v>6.36316182511043</v>
       </c>
       <c r="F19" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20">
@@ -2826,19 +3050,19 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>2285544.08055047</v>
+        <v>2285519.48130836</v>
       </c>
       <c r="C20" t="n">
         <v>90.9747284407093</v>
       </c>
       <c r="D20" t="n">
-        <v>9.02238900954801</v>
+        <v>9.02207819032535</v>
       </c>
       <c r="E20" t="n">
         <v>1.75114968168015</v>
       </c>
       <c r="F20" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21">
@@ -2846,19 +3070,19 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>2729861.36496</v>
+        <v>2729829.58526877</v>
       </c>
       <c r="C21" t="n">
         <v>100</v>
       </c>
       <c r="D21" t="n">
-        <v>19.44032881232</v>
+        <v>19.4402238788209</v>
       </c>
       <c r="E21" t="n">
         <v>9.92063588864984</v>
       </c>
       <c r="F21" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22">
@@ -2866,19 +3090,19 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>3024681.01821115</v>
+        <v>3024638.00785613</v>
       </c>
       <c r="C22" t="n">
         <v>106.003410637597</v>
       </c>
       <c r="D22" t="n">
-        <v>10.799803134159</v>
+        <v>10.7995174562639</v>
       </c>
       <c r="E22" t="n">
         <v>6.00341063759702</v>
       </c>
       <c r="F22" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23">
@@ -2886,19 +3110,19 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>2603707.17574905</v>
+        <v>2603656.72909483</v>
       </c>
       <c r="C23" t="n">
         <v>111.794646038288</v>
       </c>
       <c r="D23" t="n">
-        <v>-13.91795828808</v>
+        <v>-13.918402058952</v>
       </c>
       <c r="E23" t="n">
         <v>5.46325383858652</v>
       </c>
       <c r="F23" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24">
@@ -2906,19 +3130,19 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>2615907.75563293</v>
+        <v>2615883.06818319</v>
       </c>
       <c r="C24" t="n">
         <v>122.412951834409</v>
       </c>
       <c r="D24" t="n">
-        <v>0.468584946783435</v>
+        <v>0.46958337294345</v>
       </c>
       <c r="E24" t="n">
         <v>9.49804500698872</v>
       </c>
       <c r="F24" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25">
@@ -2926,19 +3150,19 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>2762835.5018799</v>
+        <v>2762821.43784404</v>
       </c>
       <c r="C25" t="n">
         <v>131.286061895342</v>
       </c>
       <c r="D25" t="n">
-        <v>5.61670211537781</v>
+        <v>5.61716123507416</v>
       </c>
       <c r="E25" t="n">
         <v>7.24850592030157</v>
       </c>
       <c r="F25" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26">
@@ -2946,19 +3170,19 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>2707578.83407558</v>
+        <v>2707567.2636034</v>
       </c>
       <c r="C26" t="n">
-        <v>109.098744631186</v>
+        <v>115.252421267651</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.99999847137911</v>
+        <v>-1.99991839804747</v>
       </c>
       <c r="E26" t="n">
-        <v>-16.8999792848103</v>
+        <v>-12.2127516022775</v>
       </c>
       <c r="F26" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27">
@@ -2966,19 +3190,19 @@
         <v>104</v>
       </c>
       <c r="B27" t="n">
-        <v>2709920.43826016</v>
+        <v>2779983.96922205</v>
       </c>
       <c r="C27" t="n">
-        <v>113.313554723167</v>
+        <v>118.881207907818</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0864833243306551</v>
+        <v>2.67460412127583</v>
       </c>
       <c r="E27" t="n">
-        <v>3.86329843320345</v>
+        <v>3.1485556661232</v>
       </c>
       <c r="F27" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28">
@@ -2986,19 +3210,19 @@
         <v>108</v>
       </c>
       <c r="B28" t="n">
-        <v>2712973.28730598</v>
+        <v>2793002.5103265</v>
       </c>
       <c r="C28" t="n">
-        <v>113.462589822504</v>
+        <v>119.655521930061</v>
       </c>
       <c r="D28" t="n">
-        <v>0.112654563680703</v>
+        <v>0.468295545894692</v>
       </c>
       <c r="E28" t="n">
-        <v>0.131524511521652</v>
+        <v>0.651334248591739</v>
       </c>
       <c r="F28" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29">
@@ -3006,19 +3230,19 @@
         <v>112</v>
       </c>
       <c r="B29" t="n">
-        <v>2714126.21055405</v>
+        <v>2794626.96543288</v>
       </c>
       <c r="C29" t="n">
-        <v>113.51887365057</v>
+        <v>119.820745809141</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0424966678980621</v>
+        <v>0.0581616056689382</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0496056260953726</v>
+        <v>0.138082953811924</v>
       </c>
       <c r="F29" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30">
@@ -3026,19 +3250,19 @@
         <v>116</v>
       </c>
       <c r="B30" t="n">
-        <v>2714244.40059016</v>
+        <v>2794426.37352741</v>
       </c>
       <c r="C30" t="n">
-        <v>113.524643494905</v>
+        <v>119.856001441138</v>
       </c>
       <c r="D30" t="n">
-        <v>0.00435462564924993</v>
+        <v>-0.00717777034129341</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0050827180976265</v>
+        <v>0.0294236459294606</v>
       </c>
       <c r="F30" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31">
@@ -3046,19 +3270,99 @@
         <v>120</v>
       </c>
       <c r="B31" t="n">
-        <v>2714251.06609291</v>
+        <v>2794123.95993732</v>
       </c>
       <c r="C31" t="n">
-        <v>113.524968893852</v>
+        <v>119.86352432218</v>
       </c>
       <c r="D31" t="n">
-        <v>0.000245574891533096</v>
+        <v>-0.0108220274812276</v>
       </c>
       <c r="E31" t="n">
-        <v>0.000286632872392723</v>
+        <v>0.0062765993782854</v>
       </c>
       <c r="F31" t="s">
-        <v>129</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2793936.26635514</v>
+      </c>
+      <c r="C32" t="n">
+        <v>119.865129561852</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-0.00671743934318458</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.00133922282159471</v>
+      </c>
+      <c r="F32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2793837.78471894</v>
+      </c>
+      <c r="C33" t="n">
+        <v>119.865472089454</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.00352483474269638</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.000285760841078897</v>
+      </c>
+      <c r="F33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2793789.04968254</v>
+      </c>
+      <c r="C34" t="n">
+        <v>119.865545178327</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.00174437602153965</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0000609757519365317</v>
+      </c>
+      <c r="F34" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2793765.49923465</v>
+      </c>
+      <c r="C35" t="n">
+        <v>119.865560774102</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-0.000842957269575617</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.0000130110573204334</v>
+      </c>
+      <c r="F35" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3080,19 +3384,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2">
@@ -3103,16 +3407,16 @@
         <v>2871852.20887126</v>
       </c>
       <c r="C2" t="n">
-        <v>2865103.22096996</v>
+        <v>2884667.06647122</v>
       </c>
       <c r="D2" t="n">
-        <v>6748.98790130357</v>
+        <v>-12814.8575999562</v>
       </c>
       <c r="E2" t="n">
         <v>123.978301514327</v>
       </c>
       <c r="F2" t="n">
-        <v>7486.15315952385</v>
+        <v>-14509.146222095</v>
       </c>
     </row>
     <row r="3">
@@ -3123,16 +3427,16 @@
         <v>3227558.9520076</v>
       </c>
       <c r="C3" t="n">
-        <v>3182159.02793655</v>
+        <v>3225315.47619031</v>
       </c>
       <c r="D3" t="n">
-        <v>45399.9240710533</v>
+        <v>2243.47581729309</v>
       </c>
       <c r="E3" t="n">
         <v>139.334350095562</v>
       </c>
       <c r="F3" t="n">
-        <v>48638.1473331191</v>
+        <v>-4615.05126696033</v>
       </c>
     </row>
     <row r="4">
@@ -3143,16 +3447,16 @@
         <v>3590850.06453897</v>
       </c>
       <c r="C4" t="n">
-        <v>3521213.33498798</v>
+        <v>3362632.26609514</v>
       </c>
       <c r="D4" t="n">
-        <v>69636.7295509952</v>
+        <v>228217.798443837</v>
       </c>
       <c r="E4" t="n">
-        <v>155.017557752415</v>
+        <v>145.223537873036</v>
       </c>
       <c r="F4" t="n">
-        <v>90672.9535084106</v>
+        <v>226053.687078029</v>
       </c>
     </row>
     <row r="5">
@@ -3163,16 +3467,16 @@
         <v>3183154.61436215</v>
       </c>
       <c r="C5" t="n">
-        <v>3178864.36926235</v>
+        <v>3296279.40942935</v>
       </c>
       <c r="D5" t="n">
-        <v>4290.24509980318</v>
+        <v>-113124.795067199</v>
       </c>
       <c r="E5" t="n">
         <v>137.417132259008</v>
       </c>
       <c r="F5" t="n">
-        <v>43506.2808636841</v>
+        <v>-5844.33813736588</v>
       </c>
     </row>
     <row r="6">
@@ -3183,16 +3487,16 @@
         <v>3219032.03551984</v>
       </c>
       <c r="C6" t="n">
-        <v>3190193.02464154</v>
+        <v>3221132.42397557</v>
       </c>
       <c r="D6" t="n">
-        <v>28839.0108783007</v>
+        <v>-2100.38845572613</v>
       </c>
       <c r="E6" t="n">
         <v>138.966039877978</v>
       </c>
       <c r="F6" t="n">
-        <v>47655.7321159658</v>
+        <v>-4847.75515040196</v>
       </c>
     </row>
     <row r="7">
@@ -3203,16 +3507,16 @@
         <v>2790319.63822693</v>
       </c>
       <c r="C7" t="n">
-        <v>2812881.2780723</v>
+        <v>2916541.03001381</v>
       </c>
       <c r="D7" t="n">
-        <v>-22561.639845369</v>
+        <v>-126221.391786888</v>
       </c>
       <c r="E7" t="n">
-        <v>120.458687163245</v>
+        <v>125.419452438578</v>
       </c>
       <c r="F7" t="n">
-        <v>-1950.30481664697</v>
+        <v>-128495.91332898</v>
       </c>
     </row>
     <row r="8">
@@ -3223,16 +3527,16 @@
         <v>2454238.65989638</v>
       </c>
       <c r="C8" t="n">
-        <v>2494226.73429124</v>
+        <v>2419425.93131503</v>
       </c>
       <c r="D8" t="n">
-        <v>-39988.0743948616</v>
+        <v>34812.7285813551</v>
       </c>
       <c r="E8" t="n">
         <v>105.949858399292</v>
       </c>
       <c r="F8" t="n">
-        <v>-40831.064910992</v>
+        <v>-26128.6907358752</v>
       </c>
     </row>
     <row r="9">
@@ -3243,16 +3547,16 @@
         <v>2210438.98731981</v>
       </c>
       <c r="C9" t="n">
-        <v>2261817.75265402</v>
+        <v>2230978.55246597</v>
       </c>
       <c r="D9" t="n">
-        <v>-51378.7653342089</v>
+        <v>-20539.5651461584</v>
       </c>
       <c r="E9" t="n">
         <v>95.4249471068416</v>
       </c>
       <c r="F9" t="n">
-        <v>-69037.4608748821</v>
+        <v>-32911.175807436</v>
       </c>
     </row>
     <row r="10">
@@ -3263,16 +3567,16 @@
         <v>1861463.27327739</v>
       </c>
       <c r="C10" t="n">
-        <v>1941022.50936525</v>
+        <v>1888498.57085771</v>
       </c>
       <c r="D10" t="n">
-        <v>-79559.2360878553</v>
+        <v>-27035.2975803177</v>
       </c>
       <c r="E10" t="n">
         <v>80.3597881061267</v>
       </c>
       <c r="F10" t="n">
-        <v>-109417.035585943</v>
+        <v>-42624.9695877254</v>
       </c>
     </row>
     <row r="11">
@@ -3283,16 +3587,16 @@
         <v>1847408.79572069</v>
       </c>
       <c r="C11" t="n">
-        <v>1911129.38299951</v>
+        <v>1870225.39701027</v>
       </c>
       <c r="D11" t="n">
-        <v>-63720.5872788202</v>
+        <v>-22816.6012895867</v>
       </c>
       <c r="E11" t="n">
         <v>79.7530152416615</v>
       </c>
       <c r="F11" t="n">
-        <v>-111042.320499141</v>
+        <v>-43015.1421642036</v>
       </c>
     </row>
     <row r="12">
@@ -3303,16 +3607,16 @@
         <v>1773766.45309099</v>
       </c>
       <c r="C12" t="n">
-        <v>1845304.88067485</v>
+        <v>1798447.4433387</v>
       </c>
       <c r="D12" t="n">
-        <v>-71538.4275838616</v>
+        <v>-24680.9902477105</v>
       </c>
       <c r="E12" t="n">
         <v>76.5738863704733</v>
       </c>
       <c r="F12" t="n">
-        <v>-119563.087177404</v>
+        <v>-45064.654904162</v>
       </c>
     </row>
     <row r="13">
@@ -3323,16 +3627,16 @@
         <v>1682208.36197719</v>
       </c>
       <c r="C13" t="n">
-        <v>1760654.55478365</v>
+        <v>1708464.21591703</v>
       </c>
       <c r="D13" t="n">
-        <v>-78446.1928064631</v>
+        <v>-26255.8539398452</v>
       </c>
       <c r="E13" t="n">
         <v>72.6213004423628</v>
       </c>
       <c r="F13" t="n">
-        <v>-130156.034960658</v>
+        <v>-47611.9435492859</v>
       </c>
     </row>
     <row r="14">
@@ -3343,16 +3647,16 @@
         <v>1797497.78812495</v>
       </c>
       <c r="C14" t="n">
-        <v>1858022.45246509</v>
+        <v>1819335.79273713</v>
       </c>
       <c r="D14" t="n">
-        <v>-60524.6643401386</v>
+        <v>-21838.0046121799</v>
       </c>
       <c r="E14" t="n">
         <v>77.5982979403621</v>
       </c>
       <c r="F14" t="n">
-        <v>-116815.895459759</v>
+        <v>-44402.6971215636</v>
       </c>
     </row>
     <row r="15">
@@ -3363,16 +3667,16 @@
         <v>1873451.96979424</v>
       </c>
       <c r="C15" t="n">
-        <v>1896263.89737409</v>
+        <v>1856557.17883222</v>
       </c>
       <c r="D15" t="n">
-        <v>-22811.9275798496</v>
+        <v>16894.7909620181</v>
       </c>
       <c r="E15" t="n">
         <v>79.1835235635518</v>
       </c>
       <c r="F15" t="n">
-        <v>-73333.6251232475</v>
+        <v>-4147.22191441478</v>
       </c>
     </row>
     <row r="16">
@@ -3383,16 +3687,16 @@
         <v>1657051.24095364</v>
       </c>
       <c r="C16" t="n">
-        <v>1558854.05723256</v>
+        <v>1800112.68276331</v>
       </c>
       <c r="D16" t="n">
-        <v>98197.183721074</v>
+        <v>-143061.441809676</v>
       </c>
       <c r="E16" t="n">
-        <v>61.7936568371475</v>
+        <v>75.8289239728449</v>
       </c>
       <c r="F16" t="n">
-        <v>66481.3179052956</v>
+        <v>-145003.583861858</v>
       </c>
     </row>
     <row r="17">
@@ -3403,16 +3707,16 @@
         <v>1804015.80559681</v>
       </c>
       <c r="C17" t="n">
-        <v>2075432.33535161</v>
+        <v>1918645.48557339</v>
       </c>
       <c r="D17" t="n">
-        <v>-271416.529754797</v>
+        <v>-114629.679976583</v>
       </c>
       <c r="E17" t="n">
         <v>84.0601583736459</v>
       </c>
       <c r="F17" t="n">
-        <v>-242663.237192852</v>
+        <v>-183403.434477159</v>
       </c>
     </row>
     <row r="18">
@@ -3423,16 +3727,16 @@
         <v>2096399.00427517</v>
       </c>
       <c r="C18" t="n">
-        <v>2051296.13703619</v>
+        <v>2020880.9731644</v>
       </c>
       <c r="D18" t="n">
-        <v>45102.8672389873</v>
+        <v>75518.0311107687</v>
       </c>
       <c r="E18" t="n">
         <v>89.4090422814052</v>
       </c>
       <c r="F18" t="n">
-        <v>-59847.081490125</v>
+        <v>-11475.1626747409</v>
       </c>
     </row>
     <row r="19">
@@ -3443,16 +3747,16 @@
         <v>2285544.50565928</v>
       </c>
       <c r="C19" t="n">
-        <v>2162434.73558029</v>
+        <v>2137713.84796648</v>
       </c>
       <c r="D19" t="n">
-        <v>123109.770078996</v>
+        <v>147830.657692804</v>
       </c>
       <c r="E19" t="n">
         <v>90.9747284407093</v>
       </c>
       <c r="F19" t="n">
-        <v>97226.7567842309</v>
+        <v>142411.65389176</v>
       </c>
     </row>
     <row r="20">
@@ -3463,16 +3767,16 @@
         <v>2729862</v>
       </c>
       <c r="C20" t="n">
-        <v>2415242.78157753</v>
+        <v>2413973.81771043</v>
       </c>
       <c r="D20" t="n">
-        <v>314619.218422473</v>
+        <v>315888.182289567</v>
       </c>
       <c r="E20" t="n">
         <v>100</v>
       </c>
       <c r="F20" t="n">
-        <v>356669.736393175</v>
+        <v>383483.303967123</v>
       </c>
     </row>
     <row r="21">
@@ -3483,16 +3787,16 @@
         <v>3024682</v>
       </c>
       <c r="C21" t="n">
-        <v>2650424.80775379</v>
+        <v>2663548.84978923</v>
       </c>
       <c r="D21" t="n">
-        <v>374257.192246207</v>
+        <v>361133.150210771</v>
       </c>
       <c r="E21" t="n">
         <v>106.003410637597</v>
       </c>
       <c r="F21" t="n">
-        <v>528515.306087108</v>
+        <v>543108.67237136</v>
       </c>
     </row>
     <row r="22">
@@ -3503,16 +3807,16 @@
         <v>2603708.3872117</v>
       </c>
       <c r="C22" t="n">
-        <v>2843375.24058405</v>
+        <v>2869702.24752421</v>
       </c>
       <c r="D22" t="n">
-        <v>-239666.853372358</v>
+        <v>-265993.860312515</v>
       </c>
       <c r="E22" t="n">
         <v>111.794646038288</v>
       </c>
       <c r="F22" t="n">
-        <v>-11086.5194221861</v>
+        <v>-8281.46258144546</v>
       </c>
     </row>
     <row r="23">
@@ -3523,16 +3827,16 @@
         <v>2615908.24591085</v>
       </c>
       <c r="C23" t="n">
-        <v>2827506.93431338</v>
+        <v>2847206.54728796</v>
       </c>
       <c r="D23" t="n">
-        <v>-211598.688402533</v>
+        <v>-231298.301377115</v>
       </c>
       <c r="E23" t="n">
         <v>122.412951834409</v>
       </c>
       <c r="F23" t="n">
-        <v>-216393.039166634</v>
+        <v>-235202.001758699</v>
       </c>
     </row>
     <row r="24">
@@ -3543,16 +3847,16 @@
         <v>2762835.71776303</v>
       </c>
       <c r="C24" t="n">
-        <v>2920470.6700717</v>
+        <v>2939359.59607121</v>
       </c>
       <c r="D24" t="n">
-        <v>-157634.952308665</v>
+        <v>-176523.878308177</v>
       </c>
       <c r="E24" t="n">
         <v>131.286061895342</v>
       </c>
       <c r="F24" t="n">
-        <v>-251223.191547703</v>
+        <v>-288093.752380471</v>
       </c>
     </row>
     <row r="25">
@@ -3563,16 +3867,16 @@
         <v>2707579.00340777</v>
       </c>
       <c r="C25" t="n">
-        <v>2450919.72794577</v>
+        <v>2553192.46153784</v>
       </c>
       <c r="D25" t="n">
-        <v>256659.275462002</v>
+        <v>154386.541869934</v>
       </c>
       <c r="E25" t="n">
-        <v>109.098744631186</v>
+        <v>115.252421267651</v>
       </c>
       <c r="F25" t="n">
-        <v>148007.195727594</v>
+        <v>17721.3087354028</v>
       </c>
     </row>
   </sheetData>
@@ -3594,34 +3898,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2">
@@ -3632,31 +3936,31 @@
         <v>29.8926361484518</v>
       </c>
       <c r="C2" t="n">
-        <v>1704.45628561902</v>
+        <v>-3571.2962927971</v>
       </c>
       <c r="D2" t="n">
-        <v>693703.578014103</v>
+        <v>696351.494558057</v>
       </c>
       <c r="E2" t="n">
-        <v>2865103.22096996</v>
+        <v>2884667.06647122</v>
       </c>
       <c r="F2" t="n">
         <v>2871852.20887126</v>
       </c>
       <c r="G2" t="n">
-        <v>6748.98790130345</v>
+        <v>-12814.8575999564</v>
       </c>
       <c r="H2" t="n">
-        <v>-28.5424912783337</v>
+        <v>468.096053435667</v>
       </c>
       <c r="I2" t="n">
-        <v>693675.035522825</v>
+        <v>696819.590611492</v>
       </c>
       <c r="J2" t="n">
         <v>2871852.20887126</v>
       </c>
       <c r="K2" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3">
@@ -3667,31 +3971,31 @@
         <v>30.8453711623393</v>
       </c>
       <c r="C3" t="n">
-        <v>1704.45628561902</v>
+        <v>-3571.2962927971</v>
       </c>
       <c r="D3" t="n">
-        <v>713219.491990023</v>
+        <v>717806.741747755</v>
       </c>
       <c r="E3" t="n">
-        <v>2865103.22096996</v>
+        <v>2884667.06647122</v>
       </c>
       <c r="F3" t="n">
         <v>2871852.20887126</v>
       </c>
       <c r="G3" t="n">
-        <v>6748.98790130345</v>
+        <v>-12814.8575999564</v>
       </c>
       <c r="H3" t="n">
-        <v>657.773295363392</v>
+        <v>-1000.62812793422</v>
       </c>
       <c r="I3" t="n">
-        <v>713877.265285386</v>
+        <v>716806.113619821</v>
       </c>
       <c r="J3" t="n">
         <v>2871852.20887126</v>
       </c>
       <c r="K3" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4">
@@ -3702,31 +4006,31 @@
         <v>32.1196063736114</v>
       </c>
       <c r="C4" t="n">
-        <v>1704.45628561902</v>
+        <v>-3571.2962927971</v>
       </c>
       <c r="D4" t="n">
-        <v>739321.046363261</v>
+        <v>746502.056853376</v>
       </c>
       <c r="E4" t="n">
-        <v>2865103.22096996</v>
+        <v>2884667.06647122</v>
       </c>
       <c r="F4" t="n">
         <v>2871852.20887126</v>
       </c>
       <c r="G4" t="n">
-        <v>6748.98790130345</v>
+        <v>-12814.8575999564</v>
       </c>
       <c r="H4" t="n">
-        <v>2030.40486864686</v>
+        <v>-3938.07649067397</v>
       </c>
       <c r="I4" t="n">
-        <v>741351.451231908</v>
+        <v>742563.980362702</v>
       </c>
       <c r="J4" t="n">
         <v>2871852.20887126</v>
       </c>
       <c r="K4" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5">
@@ -3737,31 +4041,31 @@
         <v>31.1206878299249</v>
       </c>
       <c r="C5" t="n">
-        <v>1704.45628561902</v>
+        <v>-3571.2962927971</v>
       </c>
       <c r="D5" t="n">
-        <v>718859.104602572</v>
+        <v>724006.773312031</v>
       </c>
       <c r="E5" t="n">
-        <v>2865103.22096996</v>
+        <v>2884667.06647122</v>
       </c>
       <c r="F5" t="n">
         <v>2871852.20887126</v>
       </c>
       <c r="G5" t="n">
-        <v>6748.98790130345</v>
+        <v>-12814.8575999564</v>
       </c>
       <c r="H5" t="n">
-        <v>4089.35222857209</v>
+        <v>-8344.24903478358</v>
       </c>
       <c r="I5" t="n">
-        <v>722948.456831144</v>
+        <v>715662.524277247</v>
       </c>
       <c r="J5" t="n">
         <v>2871852.20887126</v>
       </c>
       <c r="K5" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6">
@@ -3772,31 +4076,31 @@
         <v>33.9964396385333</v>
       </c>
       <c r="C6" t="n">
-        <v>7486.15315952385</v>
+        <v>-14509.146222095</v>
       </c>
       <c r="D6" t="n">
-        <v>778391.411886933</v>
+        <v>787470.382436179</v>
       </c>
       <c r="E6" t="n">
-        <v>3182158.51283601</v>
+        <v>3225290.59754578</v>
       </c>
       <c r="F6" t="n">
         <v>3227558.9520076</v>
       </c>
       <c r="G6" t="n">
-        <v>45400.4391715908</v>
+        <v>2268.35446182825</v>
       </c>
       <c r="H6" t="n">
-        <v>6834.61537513907</v>
+        <v>-14219.1457602631</v>
       </c>
       <c r="I6" t="n">
-        <v>785226.027262072</v>
+        <v>773251.236675916</v>
       </c>
       <c r="J6" t="n">
-        <v>3227558.43690707</v>
+        <v>3227534.07336307</v>
       </c>
       <c r="K6" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7">
@@ -3807,31 +4111,31 @@
         <v>33.4425786849775</v>
       </c>
       <c r="C7" t="n">
-        <v>7486.15315952385</v>
+        <v>-14509.146222095</v>
       </c>
       <c r="D7" t="n">
-        <v>767046.071822113</v>
+        <v>774997.634511472</v>
       </c>
       <c r="E7" t="n">
-        <v>3182158.51283601</v>
+        <v>3225290.59754578</v>
       </c>
       <c r="F7" t="n">
         <v>3227558.9520076</v>
       </c>
       <c r="G7" t="n">
-        <v>45400.4391715908</v>
+        <v>2268.35446182825</v>
       </c>
       <c r="H7" t="n">
-        <v>9738.86689081563</v>
+        <v>-10657.0985646203</v>
       </c>
       <c r="I7" t="n">
-        <v>776784.938712929</v>
+        <v>764340.535946852</v>
       </c>
       <c r="J7" t="n">
-        <v>3227558.43690707</v>
+        <v>3227534.07336307</v>
       </c>
       <c r="K7" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8">
@@ -3842,31 +4146,31 @@
         <v>34.4944594709666</v>
       </c>
       <c r="C8" t="n">
-        <v>7486.15315952385</v>
+        <v>-14509.146222095</v>
       </c>
       <c r="D8" t="n">
-        <v>788592.897154501</v>
+        <v>798685.60855307</v>
       </c>
       <c r="E8" t="n">
-        <v>3182158.51283601</v>
+        <v>3225290.59754578</v>
       </c>
       <c r="F8" t="n">
         <v>3227558.9520076</v>
       </c>
       <c r="G8" t="n">
-        <v>45400.4391715908</v>
+        <v>2268.35446182825</v>
       </c>
       <c r="H8" t="n">
-        <v>12802.1067756018</v>
+        <v>2341.89255214474</v>
       </c>
       <c r="I8" t="n">
-        <v>801395.003930102</v>
+        <v>801027.501105215</v>
       </c>
       <c r="J8" t="n">
-        <v>3227558.43690707</v>
+        <v>3227534.07336307</v>
       </c>
       <c r="K8" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9">
@@ -3877,31 +4181,31 @@
         <v>37.4008723010846</v>
       </c>
       <c r="C9" t="n">
-        <v>7486.15315952385</v>
+        <v>-14509.146222095</v>
       </c>
       <c r="D9" t="n">
-        <v>848128.131972467</v>
+        <v>864136.972045055</v>
       </c>
       <c r="E9" t="n">
-        <v>3182158.51283601</v>
+        <v>3225290.59754578</v>
       </c>
       <c r="F9" t="n">
         <v>3227558.9520076</v>
       </c>
       <c r="G9" t="n">
-        <v>45400.4391715908</v>
+        <v>2268.35446182825</v>
       </c>
       <c r="H9" t="n">
-        <v>16024.3350294975</v>
+        <v>24777.827590032</v>
       </c>
       <c r="I9" t="n">
-        <v>864152.467001964</v>
+        <v>888914.799635087</v>
       </c>
       <c r="J9" t="n">
-        <v>3227558.43690707</v>
+        <v>3227534.07336307</v>
       </c>
       <c r="K9" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10">
@@ -3912,31 +4216,31 @@
         <v>36.6950970075375</v>
       </c>
       <c r="C10" t="n">
-        <v>48638.1473331191</v>
+        <v>-4615.05126696033</v>
       </c>
       <c r="D10" t="n">
-        <v>838120.450648231</v>
+        <v>849416.653384953</v>
       </c>
       <c r="E10" t="n">
-        <v>3521212.76488728</v>
+        <v>3362606.91228888</v>
       </c>
       <c r="F10" t="n">
         <v>3590850.06453897</v>
       </c>
       <c r="G10" t="n">
-        <v>69637.2996516973</v>
+        <v>228243.152250092</v>
       </c>
       <c r="H10" t="n">
-        <v>19405.5516525028</v>
+        <v>56650.7065490416</v>
       </c>
       <c r="I10" t="n">
-        <v>857526.002300734</v>
+        <v>906067.359933994</v>
       </c>
       <c r="J10" t="n">
-        <v>3590849.49443827</v>
+        <v>3590824.71073272</v>
       </c>
       <c r="K10" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11">
@@ -3947,31 +4251,31 @@
         <v>34.8752351337667</v>
       </c>
       <c r="C11" t="n">
-        <v>48638.1473331191</v>
+        <v>-4615.05126696033</v>
       </c>
       <c r="D11" t="n">
-        <v>800842.228205617</v>
+        <v>808434.023604675</v>
       </c>
       <c r="E11" t="n">
-        <v>3521212.76488728</v>
+        <v>3362606.91228888</v>
       </c>
       <c r="F11" t="n">
         <v>3590850.06453897</v>
       </c>
       <c r="G11" t="n">
-        <v>69637.2996516973</v>
+        <v>228243.152250092</v>
       </c>
       <c r="H11" t="n">
-        <v>19959.4905958034</v>
+        <v>69561.3553574125</v>
       </c>
       <c r="I11" t="n">
-        <v>820801.71880142</v>
+        <v>877995.378962088</v>
       </c>
       <c r="J11" t="n">
-        <v>3590849.49443827</v>
+        <v>3590824.71073272</v>
       </c>
       <c r="K11" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12">
@@ -3979,34 +4283,34 @@
         <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>45.9448023988155</v>
+        <v>36.1507825194369</v>
       </c>
       <c r="C12" t="n">
-        <v>48638.1473331191</v>
+        <v>-4615.05126696033</v>
       </c>
       <c r="D12" t="n">
-        <v>1027592.28918411</v>
+        <v>837158.888402138</v>
       </c>
       <c r="E12" t="n">
-        <v>3521212.76488728</v>
+        <v>3362606.91228888</v>
       </c>
       <c r="F12" t="n">
         <v>3590850.06453897</v>
       </c>
       <c r="G12" t="n">
-        <v>69637.2996516973</v>
+        <v>228243.152250092</v>
       </c>
       <c r="H12" t="n">
-        <v>17686.1518593994</v>
+        <v>63509.7740151449</v>
       </c>
       <c r="I12" t="n">
-        <v>1045278.44104351</v>
+        <v>900668.662417283</v>
       </c>
       <c r="J12" t="n">
-        <v>3590849.49443827</v>
+        <v>3590824.71073272</v>
       </c>
       <c r="K12" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13">
@@ -4017,31 +4321,31 @@
         <v>37.502423212295</v>
       </c>
       <c r="C13" t="n">
-        <v>48638.1473331191</v>
+        <v>-4615.05126696033</v>
       </c>
       <c r="D13" t="n">
-        <v>854657.796849316</v>
+        <v>867597.346897114</v>
       </c>
       <c r="E13" t="n">
-        <v>3521212.76488728</v>
+        <v>3362606.91228888</v>
       </c>
       <c r="F13" t="n">
         <v>3590850.06453897</v>
       </c>
       <c r="G13" t="n">
-        <v>69637.2996516973</v>
+        <v>228243.152250092</v>
       </c>
       <c r="H13" t="n">
-        <v>12585.5354432907</v>
+        <v>38495.9625222385</v>
       </c>
       <c r="I13" t="n">
-        <v>867243.332292606</v>
+        <v>906093.309419353</v>
       </c>
       <c r="J13" t="n">
-        <v>3590849.49443827</v>
+        <v>3590824.71073272</v>
       </c>
       <c r="K13" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14">
@@ -4052,31 +4356,31 @@
         <v>35.6071644367323</v>
       </c>
       <c r="C14" t="n">
-        <v>90672.9535084106</v>
+        <v>226053.687078029</v>
       </c>
       <c r="D14" t="n">
-        <v>820380.076058482</v>
+        <v>852275.178836559</v>
       </c>
       <c r="E14" t="n">
-        <v>3178863.74298159</v>
+        <v>3296242.97780798</v>
       </c>
       <c r="F14" t="n">
         <v>3183154.61436215</v>
       </c>
       <c r="G14" t="n">
-        <v>4290.87138056103</v>
+        <v>-113088.363445835</v>
       </c>
       <c r="H14" t="n">
-        <v>4657.6413474774</v>
+        <v>-5480.07912130641</v>
       </c>
       <c r="I14" t="n">
-        <v>825037.71740596</v>
+        <v>846795.099715253</v>
       </c>
       <c r="J14" t="n">
-        <v>3183153.98808139</v>
+        <v>3183118.18274078</v>
       </c>
       <c r="K14" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15">
@@ -4087,31 +4391,31 @@
         <v>37.0592447831553</v>
       </c>
       <c r="C15" t="n">
-        <v>90672.9535084106</v>
+        <v>226053.687078029</v>
       </c>
       <c r="D15" t="n">
-        <v>850124.626971208</v>
+        <v>884975.501925017</v>
       </c>
       <c r="E15" t="n">
-        <v>3178863.74298159</v>
+        <v>3296242.97780798</v>
       </c>
       <c r="F15" t="n">
         <v>3183154.61436215</v>
       </c>
       <c r="G15" t="n">
-        <v>4290.87138056103</v>
+        <v>-113088.363445835</v>
       </c>
       <c r="H15" t="n">
-        <v>52.4516801415639</v>
+        <v>-32190.9436369217</v>
       </c>
       <c r="I15" t="n">
-        <v>850177.07865135</v>
+        <v>852784.558288095</v>
       </c>
       <c r="J15" t="n">
-        <v>3183153.98808139</v>
+        <v>3183118.18274078</v>
       </c>
       <c r="K15" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
@@ -4122,31 +4426,31 @@
         <v>34.1482896413129</v>
       </c>
       <c r="C16" t="n">
-        <v>90672.9535084106</v>
+        <v>226053.687078029</v>
       </c>
       <c r="D16" t="n">
-        <v>790496.347011024</v>
+        <v>819421.847219381</v>
       </c>
       <c r="E16" t="n">
-        <v>3178863.74298159</v>
+        <v>3296242.97780798</v>
       </c>
       <c r="F16" t="n">
         <v>3183154.61436215</v>
       </c>
       <c r="G16" t="n">
-        <v>4290.87138056103</v>
+        <v>-113088.363445835</v>
       </c>
       <c r="H16" t="n">
-        <v>-1230.03355871679</v>
+        <v>-41636.6310246073</v>
       </c>
       <c r="I16" t="n">
-        <v>789266.313452307</v>
+        <v>777785.216194774</v>
       </c>
       <c r="J16" t="n">
-        <v>3183153.98808139</v>
+        <v>3183118.18274078</v>
       </c>
       <c r="K16" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17">
@@ -4157,31 +4461,31 @@
         <v>30.6024333978075</v>
       </c>
       <c r="C17" t="n">
-        <v>90672.9535084106</v>
+        <v>226053.687078029</v>
       </c>
       <c r="D17" t="n">
-        <v>717862.692940873</v>
+        <v>739570.449827027</v>
       </c>
       <c r="E17" t="n">
-        <v>3178863.74298159</v>
+        <v>3296242.97780798</v>
       </c>
       <c r="F17" t="n">
         <v>3183154.61436215</v>
       </c>
       <c r="G17" t="n">
-        <v>4290.87138056103</v>
+        <v>-113088.363445835</v>
       </c>
       <c r="H17" t="n">
-        <v>810.185630902347</v>
+        <v>-33817.1412843632</v>
       </c>
       <c r="I17" t="n">
-        <v>718672.878571776</v>
+        <v>705753.308542663</v>
       </c>
       <c r="J17" t="n">
-        <v>3183153.98808139</v>
+        <v>3183118.18274078</v>
       </c>
       <c r="K17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18">
@@ -4192,31 +4496,31 @@
         <v>33.5636641042044</v>
       </c>
       <c r="C18" t="n">
-        <v>43506.2808636841</v>
+        <v>-5844.33813736588</v>
       </c>
       <c r="D18" t="n">
-        <v>773421.009440265</v>
+        <v>778752.120330533</v>
       </c>
       <c r="E18" t="n">
-        <v>3190192.46139964</v>
+        <v>3221107.12920554</v>
       </c>
       <c r="F18" t="n">
         <v>3219032.03551984</v>
       </c>
       <c r="G18" t="n">
-        <v>28839.5741201984</v>
+        <v>-2075.09368570009</v>
       </c>
       <c r="H18" t="n">
-        <v>6173.10924899896</v>
+        <v>-8732.47441618955</v>
       </c>
       <c r="I18" t="n">
-        <v>779594.118689264</v>
+        <v>770019.645914344</v>
       </c>
       <c r="J18" t="n">
-        <v>3219031.47227794</v>
+        <v>3219006.74074981</v>
       </c>
       <c r="K18" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19">
@@ -4227,31 +4531,31 @@
         <v>36.2906700181984</v>
       </c>
       <c r="C19" t="n">
-        <v>43506.2808636841</v>
+        <v>-5844.33813736588</v>
       </c>
       <c r="D19" t="n">
-        <v>829281.256049836</v>
+        <v>840163.30509824</v>
       </c>
       <c r="E19" t="n">
-        <v>3190192.46139964</v>
+        <v>3221107.12920554</v>
       </c>
       <c r="F19" t="n">
         <v>3219032.03551984</v>
       </c>
       <c r="G19" t="n">
-        <v>28839.5741201984</v>
+        <v>-2075.09368570009</v>
       </c>
       <c r="H19" t="n">
-        <v>8732.93608446833</v>
+        <v>4584.34325198326</v>
       </c>
       <c r="I19" t="n">
-        <v>838014.192134304</v>
+        <v>844747.648350224</v>
       </c>
       <c r="J19" t="n">
-        <v>3219031.47227794</v>
+        <v>3219006.74074981</v>
       </c>
       <c r="K19" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20">
@@ -4262,31 +4566,31 @@
         <v>35.9785927334916</v>
       </c>
       <c r="C20" t="n">
-        <v>43506.2808636841</v>
+        <v>-5844.33813736588</v>
       </c>
       <c r="D20" t="n">
-        <v>822888.635485462</v>
+        <v>833135.437760445</v>
       </c>
       <c r="E20" t="n">
-        <v>3190192.46139964</v>
+        <v>3221107.12920554</v>
       </c>
       <c r="F20" t="n">
         <v>3219032.03551984</v>
       </c>
       <c r="G20" t="n">
-        <v>28839.5741201984</v>
+        <v>-2075.09368570009</v>
       </c>
       <c r="H20" t="n">
-        <v>8489.66613731043</v>
+        <v>6133.31172015515</v>
       </c>
       <c r="I20" t="n">
-        <v>831378.301622772</v>
+        <v>839268.7494806</v>
       </c>
       <c r="J20" t="n">
-        <v>3219031.47227794</v>
+        <v>3219006.74074981</v>
       </c>
       <c r="K20" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21">
@@ -4297,31 +4601,31 @@
         <v>33.1331130220831</v>
       </c>
       <c r="C21" t="n">
-        <v>43506.2808636841</v>
+        <v>-5844.33813736588</v>
       </c>
       <c r="D21" t="n">
-        <v>764601.560424078</v>
+        <v>769056.26601632</v>
       </c>
       <c r="E21" t="n">
-        <v>3190192.46139964</v>
+        <v>3221107.12920554</v>
       </c>
       <c r="F21" t="n">
         <v>3219032.03551984</v>
       </c>
       <c r="G21" t="n">
-        <v>28839.5741201984</v>
+        <v>-2075.09368570009</v>
       </c>
       <c r="H21" t="n">
-        <v>5443.29940752528</v>
+        <v>-4085.56901167385</v>
       </c>
       <c r="I21" t="n">
-        <v>770044.859831604</v>
+        <v>764970.697004647</v>
       </c>
       <c r="J21" t="n">
-        <v>3219031.47227794</v>
+        <v>3219006.74074981</v>
       </c>
       <c r="K21" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22">
@@ -4332,31 +4636,31 @@
         <v>34.4383659394549</v>
       </c>
       <c r="C22" t="n">
-        <v>47655.7321159658</v>
+        <v>-4847.75515040196</v>
       </c>
       <c r="D22" t="n">
-        <v>791787.136478881</v>
+        <v>798568.287943776</v>
       </c>
       <c r="E22" t="n">
-        <v>2812880.7092846</v>
+        <v>2916515.68738311</v>
       </c>
       <c r="F22" t="n">
         <v>2790319.63822693</v>
       </c>
       <c r="G22" t="n">
-        <v>-22561.0710576773</v>
+        <v>-126196.049156185</v>
       </c>
       <c r="H22" t="n">
-        <v>-406.164104887114</v>
+        <v>-26072.2989435038</v>
       </c>
       <c r="I22" t="n">
-        <v>791380.972373993</v>
+        <v>772495.989000272</v>
       </c>
       <c r="J22" t="n">
-        <v>2790319.06943924</v>
+        <v>2790294.29559622</v>
       </c>
       <c r="K22" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23">
@@ -4367,31 +4671,31 @@
         <v>33.4233491023193</v>
       </c>
       <c r="C23" t="n">
-        <v>47655.7321159658</v>
+        <v>-4847.75515040196</v>
       </c>
       <c r="D23" t="n">
-        <v>770995.435755276</v>
+        <v>775710.476668855</v>
       </c>
       <c r="E23" t="n">
-        <v>2812880.7092846</v>
+        <v>2916515.68738311</v>
       </c>
       <c r="F23" t="n">
         <v>2790319.63822693</v>
       </c>
       <c r="G23" t="n">
-        <v>-22561.0710576773</v>
+        <v>-126196.049156185</v>
       </c>
       <c r="H23" t="n">
-        <v>-4839.64785243392</v>
+        <v>-37060.2105175229</v>
       </c>
       <c r="I23" t="n">
-        <v>766155.787902843</v>
+        <v>738650.266151332</v>
       </c>
       <c r="J23" t="n">
-        <v>2790319.06943924</v>
+        <v>2790294.29559622</v>
       </c>
       <c r="K23" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24">
@@ -4402,31 +4706,31 @@
         <v>30.3789788767027</v>
       </c>
       <c r="C24" t="n">
-        <v>47655.7321159658</v>
+        <v>-4847.75515040196</v>
       </c>
       <c r="D24" t="n">
-        <v>708634.268622822</v>
+        <v>707152.362633517</v>
       </c>
       <c r="E24" t="n">
-        <v>2812880.7092846</v>
+        <v>2916515.68738311</v>
       </c>
       <c r="F24" t="n">
         <v>2790319.63822693</v>
       </c>
       <c r="G24" t="n">
-        <v>-22561.0710576773</v>
+        <v>-126196.049156185</v>
       </c>
       <c r="H24" t="n">
-        <v>-7857.15183511511</v>
+        <v>-37049.3037337313</v>
       </c>
       <c r="I24" t="n">
-        <v>700777.116787707</v>
+        <v>670103.058899786</v>
       </c>
       <c r="J24" t="n">
-        <v>2790319.06943924</v>
+        <v>2790294.29559622</v>
       </c>
       <c r="K24" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25">
@@ -4434,34 +4738,34 @@
         <v>49</v>
       </c>
       <c r="B25" t="n">
-        <v>22.2179932447678</v>
+        <v>27.1787585201009</v>
       </c>
       <c r="C25" t="n">
-        <v>47655.7321159658</v>
+        <v>-4847.75515040196</v>
       </c>
       <c r="D25" t="n">
-        <v>541463.868427625</v>
+        <v>635084.560136964</v>
       </c>
       <c r="E25" t="n">
-        <v>2812880.7092846</v>
+        <v>2916515.68738311</v>
       </c>
       <c r="F25" t="n">
         <v>2790319.63822693</v>
       </c>
       <c r="G25" t="n">
-        <v>-22561.0710576773</v>
+        <v>-126196.049156185</v>
       </c>
       <c r="H25" t="n">
-        <v>-9458.67605293068</v>
+        <v>-26039.5785921288</v>
       </c>
       <c r="I25" t="n">
-        <v>532005.192374694</v>
+        <v>609044.981544835</v>
       </c>
       <c r="J25" t="n">
-        <v>2790319.06943924</v>
+        <v>2790294.29559622</v>
       </c>
       <c r="K25" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26">
@@ -4472,31 +4776,31 @@
         <v>23.6788556880949</v>
       </c>
       <c r="C26" t="n">
-        <v>-1950.30481664697</v>
+        <v>-128495.91332898</v>
       </c>
       <c r="D26" t="n">
-        <v>566024.74783105</v>
+        <v>541602.777015632</v>
       </c>
       <c r="E26" t="n">
-        <v>2494226.23180265</v>
+        <v>2419406.52685975</v>
       </c>
       <c r="F26" t="n">
         <v>2454238.65989638</v>
       </c>
       <c r="G26" t="n">
-        <v>-39987.5719062714</v>
+        <v>34832.133036627</v>
       </c>
       <c r="H26" t="n">
-        <v>-9644.22050588065</v>
+        <v>-4031.03509271561</v>
       </c>
       <c r="I26" t="n">
-        <v>556380.52732517</v>
+        <v>537571.741922916</v>
       </c>
       <c r="J26" t="n">
-        <v>2454238.15740779</v>
+        <v>2454219.25544111</v>
       </c>
       <c r="K26" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27">
@@ -4507,31 +4811,31 @@
         <v>26.333991525001</v>
       </c>
       <c r="C27" t="n">
-        <v>-1950.30481664697</v>
+        <v>-128495.91332898</v>
       </c>
       <c r="D27" t="n">
-        <v>620412.800996016</v>
+        <v>601395.473696948</v>
       </c>
       <c r="E27" t="n">
-        <v>2494226.23180265</v>
+        <v>2419406.52685975</v>
       </c>
       <c r="F27" t="n">
         <v>2454238.65989638</v>
       </c>
       <c r="G27" t="n">
-        <v>-39987.5719062714</v>
+        <v>34832.133036627</v>
       </c>
       <c r="H27" t="n">
-        <v>-9859.55752419435</v>
+        <v>9866.06920227158</v>
       </c>
       <c r="I27" t="n">
-        <v>610553.243471822</v>
+        <v>611261.54289922</v>
       </c>
       <c r="J27" t="n">
-        <v>2454238.15740779</v>
+        <v>2454219.25544111</v>
       </c>
       <c r="K27" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28">
@@ -4542,31 +4846,31 @@
         <v>26.3400328285952</v>
       </c>
       <c r="C28" t="n">
-        <v>-1950.30481664697</v>
+        <v>-128495.91332898</v>
       </c>
       <c r="D28" t="n">
-        <v>620536.551629222</v>
+        <v>601531.521664191</v>
       </c>
       <c r="E28" t="n">
-        <v>2494226.23180265</v>
+        <v>2419406.52685975</v>
       </c>
       <c r="F28" t="n">
         <v>2454238.65989638</v>
       </c>
       <c r="G28" t="n">
-        <v>-39987.5719062714</v>
+        <v>34832.133036627</v>
       </c>
       <c r="H28" t="n">
-        <v>-10104.6871078718</v>
+        <v>15651.7342928327</v>
       </c>
       <c r="I28" t="n">
-        <v>610431.86452135</v>
+        <v>617183.255957023</v>
       </c>
       <c r="J28" t="n">
-        <v>2454238.15740779</v>
+        <v>2454219.25544111</v>
       </c>
       <c r="K28" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29">
@@ -4577,31 +4881,31 @@
         <v>29.5969783576007</v>
       </c>
       <c r="C29" t="n">
-        <v>-1950.30481664697</v>
+        <v>-128495.91332898</v>
       </c>
       <c r="D29" t="n">
-        <v>687252.131346364</v>
+        <v>674876.754482983</v>
       </c>
       <c r="E29" t="n">
-        <v>2494226.23180265</v>
+        <v>2419406.52685975</v>
       </c>
       <c r="F29" t="n">
         <v>2454238.65989638</v>
       </c>
       <c r="G29" t="n">
-        <v>-39987.5719062714</v>
+        <v>34832.133036627</v>
       </c>
       <c r="H29" t="n">
-        <v>-10379.609256913</v>
+        <v>13325.9601789678</v>
       </c>
       <c r="I29" t="n">
-        <v>676872.522089451</v>
+        <v>688202.714661951</v>
       </c>
       <c r="J29" t="n">
-        <v>2454238.15740779</v>
+        <v>2454219.25544111</v>
       </c>
       <c r="K29" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30">
@@ -4612,31 +4916,31 @@
         <v>22.1540465041887</v>
       </c>
       <c r="C30" t="n">
-        <v>-40831.064910992</v>
+        <v>-26128.6907358752</v>
       </c>
       <c r="D30" t="n">
-        <v>530586.499279725</v>
+        <v>519405.849991128</v>
       </c>
       <c r="E30" t="n">
-        <v>2261817.30213006</v>
+        <v>2230954.23184749</v>
       </c>
       <c r="F30" t="n">
         <v>2210438.98731981</v>
       </c>
       <c r="G30" t="n">
-        <v>-51378.3148102509</v>
+        <v>-20515.2445276771</v>
       </c>
       <c r="H30" t="n">
-        <v>-10684.3239713179</v>
+        <v>2888.7468606769</v>
       </c>
       <c r="I30" t="n">
-        <v>519902.175308407</v>
+        <v>522294.596851805</v>
       </c>
       <c r="J30" t="n">
-        <v>2210438.53679586</v>
+        <v>2210414.66670133</v>
       </c>
       <c r="K30" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31">
@@ -4647,31 +4951,31 @@
         <v>25.4584128921373</v>
       </c>
       <c r="C31" t="n">
-        <v>-40831.064910992</v>
+        <v>-26128.6907358752</v>
       </c>
       <c r="D31" t="n">
-        <v>598273.452348647</v>
+        <v>593818.983365418</v>
       </c>
       <c r="E31" t="n">
-        <v>2261817.30213006</v>
+        <v>2230954.23184749</v>
       </c>
       <c r="F31" t="n">
         <v>2210438.98731981</v>
       </c>
       <c r="G31" t="n">
-        <v>-51378.3148102509</v>
+        <v>-20515.2445276771</v>
       </c>
       <c r="H31" t="n">
-        <v>-11670.3568019734</v>
+        <v>-4495.59372552595</v>
       </c>
       <c r="I31" t="n">
-        <v>586603.095546674</v>
+        <v>589323.389639892</v>
       </c>
       <c r="J31" t="n">
-        <v>2210438.53679586</v>
+        <v>2210414.66670133</v>
       </c>
       <c r="K31" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32">
@@ -4682,31 +4986,31 @@
         <v>26.0549025147972</v>
       </c>
       <c r="C32" t="n">
-        <v>-40831.064910992</v>
+        <v>-26128.6907358752</v>
       </c>
       <c r="D32" t="n">
-        <v>610492.002096136</v>
+        <v>607251.713467398</v>
       </c>
       <c r="E32" t="n">
-        <v>2261817.30213006</v>
+        <v>2230954.23184749</v>
       </c>
       <c r="F32" t="n">
         <v>2210438.98731981</v>
       </c>
       <c r="G32" t="n">
-        <v>-51378.3148102509</v>
+        <v>-20515.2445276771</v>
       </c>
       <c r="H32" t="n">
-        <v>-13337.7077488796</v>
+        <v>-8827.0615796407</v>
       </c>
       <c r="I32" t="n">
-        <v>597154.294347256</v>
+        <v>598424.651887758</v>
       </c>
       <c r="J32" t="n">
-        <v>2210438.53679586</v>
+        <v>2210414.66670133</v>
       </c>
       <c r="K32" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33">
@@ -4717,31 +5021,31 @@
         <v>21.7575851957184</v>
       </c>
       <c r="C33" t="n">
-        <v>-40831.064910992</v>
+        <v>-26128.6907358752</v>
       </c>
       <c r="D33" t="n">
-        <v>522465.348405554</v>
+        <v>510477.685023544</v>
       </c>
       <c r="E33" t="n">
-        <v>2261817.30213006</v>
+        <v>2230954.23184749</v>
       </c>
       <c r="F33" t="n">
         <v>2210438.98731981</v>
       </c>
       <c r="G33" t="n">
-        <v>-51378.3148102509</v>
+        <v>-20515.2445276771</v>
       </c>
       <c r="H33" t="n">
-        <v>-15686.3768120363</v>
+        <v>-10105.6567016674</v>
       </c>
       <c r="I33" t="n">
-        <v>506778.971593518</v>
+        <v>500372.028321877</v>
       </c>
       <c r="J33" t="n">
-        <v>2210438.53679586</v>
+        <v>2210414.66670133</v>
       </c>
       <c r="K33" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34">
@@ -4752,31 +5056,31 @@
         <v>18.5488891820371</v>
       </c>
       <c r="C34" t="n">
-        <v>-69037.4608748821</v>
+        <v>-32911.175807436</v>
       </c>
       <c r="D34" t="n">
-        <v>453688.349750937</v>
+        <v>437414.579896905</v>
       </c>
       <c r="E34" t="n">
-        <v>1941022.0965395</v>
+        <v>1888474.57596658</v>
       </c>
       <c r="F34" t="n">
         <v>1861463.27327739</v>
       </c>
       <c r="G34" t="n">
-        <v>-79558.8232621055</v>
+        <v>-27011.3026891809</v>
       </c>
       <c r="H34" t="n">
-        <v>-18716.3639914437</v>
+        <v>-8331.37909160592</v>
       </c>
       <c r="I34" t="n">
-        <v>434971.985759493</v>
+        <v>429083.200805299</v>
       </c>
       <c r="J34" t="n">
-        <v>1861462.86045165</v>
+        <v>1861439.27838626</v>
       </c>
       <c r="K34" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35">
@@ -4787,31 +5091,31 @@
         <v>20.9436083394104</v>
       </c>
       <c r="C35" t="n">
-        <v>-69037.4608748821</v>
+        <v>-32911.175807436</v>
       </c>
       <c r="D35" t="n">
-        <v>502742.003065393</v>
+        <v>491342.787344328</v>
       </c>
       <c r="E35" t="n">
-        <v>1941022.0965395</v>
+        <v>1888474.57596658</v>
       </c>
       <c r="F35" t="n">
         <v>1861463.27327739</v>
       </c>
       <c r="G35" t="n">
-        <v>-79558.8232621055</v>
+        <v>-27011.3026891809</v>
       </c>
       <c r="H35" t="n">
-        <v>-20397.7368754145</v>
+        <v>-6992.64616897063</v>
       </c>
       <c r="I35" t="n">
-        <v>482344.266189979</v>
+        <v>484350.141175357</v>
       </c>
       <c r="J35" t="n">
-        <v>1861462.86045165</v>
+        <v>1861439.27838626</v>
       </c>
       <c r="K35" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36">
@@ -4822,31 +5126,31 @@
         <v>21.1946986322106</v>
       </c>
       <c r="C36" t="n">
-        <v>-69037.4608748821</v>
+        <v>-32911.175807436</v>
       </c>
       <c r="D36" t="n">
-        <v>507885.360329531</v>
+        <v>496997.249729393</v>
       </c>
       <c r="E36" t="n">
-        <v>1941022.0965395</v>
+        <v>1888474.57596658</v>
       </c>
       <c r="F36" t="n">
         <v>1861463.27327739</v>
       </c>
       <c r="G36" t="n">
-        <v>-79558.8232621055</v>
+        <v>-27011.3026891809</v>
       </c>
       <c r="H36" t="n">
-        <v>-20730.4954639488</v>
+        <v>-6089.45793376147</v>
       </c>
       <c r="I36" t="n">
-        <v>487154.864865582</v>
+        <v>490907.791795631</v>
       </c>
       <c r="J36" t="n">
-        <v>1861462.86045165</v>
+        <v>1861439.27838626</v>
       </c>
       <c r="K36" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37">
@@ -4857,31 +5161,31 @@
         <v>19.6725919524686</v>
       </c>
       <c r="C37" t="n">
-        <v>-69037.4608748821</v>
+        <v>-32911.175807436</v>
       </c>
       <c r="D37" t="n">
-        <v>476706.38339364</v>
+        <v>462719.95899595</v>
       </c>
       <c r="E37" t="n">
-        <v>1941022.0965395</v>
+        <v>1888474.57596658</v>
       </c>
       <c r="F37" t="n">
         <v>1861463.27327739</v>
       </c>
       <c r="G37" t="n">
-        <v>-79558.8232621055</v>
+        <v>-27011.3026891809</v>
       </c>
       <c r="H37" t="n">
-        <v>-19714.6397570466</v>
+        <v>-5621.81438597845</v>
       </c>
       <c r="I37" t="n">
-        <v>456991.743636593</v>
+        <v>457098.144609971</v>
       </c>
       <c r="J37" t="n">
-        <v>1861462.86045165</v>
+        <v>1861439.27838626</v>
       </c>
       <c r="K37" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38">
@@ -4892,31 +5196,31 @@
         <v>20.0518192358075</v>
       </c>
       <c r="C38" t="n">
-        <v>-109417.035585943</v>
+        <v>-42624.9695877254</v>
       </c>
       <c r="D38" t="n">
-        <v>480108.540931283</v>
+        <v>470107.919373021</v>
       </c>
       <c r="E38" t="n">
-        <v>1911129.02414157</v>
+        <v>1870201.86862193</v>
       </c>
       <c r="F38" t="n">
         <v>1847408.79572069</v>
       </c>
       <c r="G38" t="n">
-        <v>-63720.2284208874</v>
+        <v>-22793.0729012466</v>
       </c>
       <c r="H38" t="n">
-        <v>-17350.1697547079</v>
+        <v>-5589.71552562159</v>
       </c>
       <c r="I38" t="n">
-        <v>462758.371176576</v>
+        <v>464518.203847399</v>
       </c>
       <c r="J38" t="n">
-        <v>1847408.43686276</v>
+        <v>1847385.26733235</v>
       </c>
       <c r="K38" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39">
@@ -4927,31 +5231,31 @@
         <v>21.2840681138174</v>
       </c>
       <c r="C39" t="n">
-        <v>-109417.035585943</v>
+        <v>-42624.9695877254</v>
       </c>
       <c r="D39" t="n">
-        <v>505350.043289884</v>
+        <v>497857.717471708</v>
       </c>
       <c r="E39" t="n">
-        <v>1911129.02414157</v>
+        <v>1870201.86862193</v>
       </c>
       <c r="F39" t="n">
         <v>1847408.79572069</v>
       </c>
       <c r="G39" t="n">
-        <v>-63720.2284208874</v>
+        <v>-22793.0729012466</v>
       </c>
       <c r="H39" t="n">
-        <v>-15836.3725797711</v>
+        <v>-5622.64990018877</v>
       </c>
       <c r="I39" t="n">
-        <v>489513.670710112</v>
+        <v>492235.06757152</v>
       </c>
       <c r="J39" t="n">
-        <v>1847408.43686276</v>
+        <v>1847385.26733235</v>
       </c>
       <c r="K39" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40">
@@ -4962,31 +5266,31 @@
         <v>19.6696039310751</v>
       </c>
       <c r="C40" t="n">
-        <v>-109417.035585943</v>
+        <v>-42624.9695877254</v>
       </c>
       <c r="D40" t="n">
-        <v>472279.206542699</v>
+        <v>461500.569246086</v>
       </c>
       <c r="E40" t="n">
-        <v>1911129.02414157</v>
+        <v>1870201.86862193</v>
       </c>
       <c r="F40" t="n">
         <v>1847408.79572069</v>
       </c>
       <c r="G40" t="n">
-        <v>-63720.2284208874</v>
+        <v>-22793.0729012466</v>
       </c>
       <c r="H40" t="n">
-        <v>-15173.2482322363</v>
+        <v>-5720.61750968</v>
       </c>
       <c r="I40" t="n">
-        <v>457105.958310463</v>
+        <v>455779.951736406</v>
       </c>
       <c r="J40" t="n">
-        <v>1847408.43686276</v>
+        <v>1847385.26733235</v>
       </c>
       <c r="K40" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41">
@@ -4997,31 +5301,31 @@
         <v>18.7475239609615</v>
       </c>
       <c r="C41" t="n">
-        <v>-109417.035585943</v>
+        <v>-42624.9695877254</v>
       </c>
       <c r="D41" t="n">
-        <v>453391.233377708</v>
+        <v>440735.662531119</v>
       </c>
       <c r="E41" t="n">
-        <v>1911129.02414157</v>
+        <v>1870201.86862193</v>
       </c>
       <c r="F41" t="n">
         <v>1847408.79572069</v>
       </c>
       <c r="G41" t="n">
-        <v>-63720.2284208874</v>
+        <v>-22793.0729012466</v>
       </c>
       <c r="H41" t="n">
-        <v>-15360.7967121034</v>
+        <v>-5883.61835409528</v>
       </c>
       <c r="I41" t="n">
-        <v>438030.436665605</v>
+        <v>434852.044177024</v>
       </c>
       <c r="J41" t="n">
-        <v>1847408.43686276</v>
+        <v>1847385.26733235</v>
       </c>
       <c r="K41" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42">
@@ -5032,31 +5336,31 @@
         <v>18.6146733535631</v>
       </c>
       <c r="C42" t="n">
-        <v>-111042.320499141</v>
+        <v>-43015.1421642036</v>
       </c>
       <c r="D42" t="n">
-        <v>450494.177942562</v>
+        <v>437697.638743831</v>
       </c>
       <c r="E42" t="n">
-        <v>1845304.52398913</v>
+        <v>1798423.93368831</v>
       </c>
       <c r="F42" t="n">
         <v>1773766.45309099</v>
       </c>
       <c r="G42" t="n">
-        <v>-71538.0708981431</v>
+        <v>-24657.4805973219</v>
       </c>
       <c r="H42" t="n">
-        <v>-16399.0180193725</v>
+        <v>-6111.65243343459</v>
       </c>
       <c r="I42" t="n">
-        <v>434095.159923189</v>
+        <v>431585.986310396</v>
       </c>
       <c r="J42" t="n">
-        <v>1773766.09640527</v>
+        <v>1773742.9434406</v>
       </c>
       <c r="K42" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43">
@@ -5067,31 +5371,31 @@
         <v>19.9167293251368</v>
       </c>
       <c r="C43" t="n">
-        <v>-111042.320499141</v>
+        <v>-43015.1421642036</v>
       </c>
       <c r="D43" t="n">
-        <v>477165.615396485</v>
+        <v>467019.467287685</v>
       </c>
       <c r="E43" t="n">
-        <v>1845304.52398913</v>
+        <v>1798423.93368831</v>
       </c>
       <c r="F43" t="n">
         <v>1773766.45309099</v>
       </c>
       <c r="G43" t="n">
-        <v>-71538.0708981431</v>
+        <v>-24657.4805973219</v>
       </c>
       <c r="H43" t="n">
-        <v>-17408.5420929171</v>
+        <v>-6226.30411656742</v>
       </c>
       <c r="I43" t="n">
-        <v>459757.073303568</v>
+        <v>460793.163171117</v>
       </c>
       <c r="J43" t="n">
-        <v>1773766.09640527</v>
+        <v>1773742.9434406</v>
       </c>
       <c r="K43" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44">
@@ -5102,31 +5406,31 @@
         <v>18.8229186042018</v>
       </c>
       <c r="C44" t="n">
-        <v>-111042.320499141</v>
+        <v>-43015.1421642036</v>
       </c>
       <c r="D44" t="n">
-        <v>454759.893317894</v>
+        <v>442387.246308795</v>
       </c>
       <c r="E44" t="n">
-        <v>1845304.52398913</v>
+        <v>1798423.93368831</v>
       </c>
       <c r="F44" t="n">
         <v>1773766.45309099</v>
       </c>
       <c r="G44" t="n">
-        <v>-71538.0708981431</v>
+        <v>-24657.4805973219</v>
       </c>
       <c r="H44" t="n">
-        <v>-18389.3689327373</v>
+        <v>-6227.57340349375</v>
       </c>
       <c r="I44" t="n">
-        <v>436370.524385156</v>
+        <v>436159.672905301</v>
       </c>
       <c r="J44" t="n">
-        <v>1773766.09640527</v>
+        <v>1773742.9434406</v>
       </c>
       <c r="K44" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45">
@@ -5137,31 +5441,31 @@
         <v>19.2195650875716</v>
       </c>
       <c r="C45" t="n">
-        <v>-111042.320499141</v>
+        <v>-43015.1421642036</v>
       </c>
       <c r="D45" t="n">
-        <v>462884.837332191</v>
+        <v>451319.581348</v>
       </c>
       <c r="E45" t="n">
-        <v>1845304.52398913</v>
+        <v>1798423.93368831</v>
       </c>
       <c r="F45" t="n">
         <v>1773766.45309099</v>
       </c>
       <c r="G45" t="n">
-        <v>-71538.0708981431</v>
+        <v>-24657.4805973219</v>
       </c>
       <c r="H45" t="n">
-        <v>-19341.4985388331</v>
+        <v>-6115.46029421361</v>
       </c>
       <c r="I45" t="n">
-        <v>443543.338793358</v>
+        <v>445204.121053786</v>
       </c>
       <c r="J45" t="n">
-        <v>1773766.09640527</v>
+        <v>1773742.9434406</v>
       </c>
       <c r="K45" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46">
@@ -5172,31 +5476,31 @@
         <v>18.6966542510372</v>
       </c>
       <c r="C46" t="n">
-        <v>-119563.087177404</v>
+        <v>-45064.654904162</v>
       </c>
       <c r="D46" t="n">
-        <v>451252.189593424</v>
+        <v>439300.737209208</v>
       </c>
       <c r="E46" t="n">
-        <v>1760654.20948605</v>
+        <v>1708440.80469404</v>
       </c>
       <c r="F46" t="n">
         <v>1682208.36197719</v>
       </c>
       <c r="G46" t="n">
-        <v>-78445.8475088577</v>
+        <v>-26232.4427168525</v>
       </c>
       <c r="H46" t="n">
-        <v>-20264.9309112044</v>
+        <v>-5889.96478872697</v>
       </c>
       <c r="I46" t="n">
-        <v>430987.258682219</v>
+        <v>433410.772420481</v>
       </c>
       <c r="J46" t="n">
-        <v>1682208.01667959</v>
+        <v>1682184.9507542</v>
       </c>
       <c r="K46" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47">
@@ -5207,31 +5511,31 @@
         <v>19.2491652136183</v>
       </c>
       <c r="C47" t="n">
-        <v>-119563.087177404</v>
+        <v>-45064.654904162</v>
       </c>
       <c r="D47" t="n">
-        <v>462569.876315659</v>
+        <v>451743.083826474</v>
       </c>
       <c r="E47" t="n">
-        <v>1760654.20948605</v>
+        <v>1708440.80469404</v>
       </c>
       <c r="F47" t="n">
         <v>1682208.36197719</v>
       </c>
       <c r="G47" t="n">
-        <v>-78445.8475088577</v>
+        <v>-26232.4427168525</v>
       </c>
       <c r="H47" t="n">
-        <v>-20372.9507763173</v>
+        <v>-6069.36606502595</v>
       </c>
       <c r="I47" t="n">
-        <v>442196.925539342</v>
+        <v>445673.717761448</v>
       </c>
       <c r="J47" t="n">
-        <v>1682208.01667959</v>
+        <v>1682184.9507542</v>
       </c>
       <c r="K47" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48">
@@ -5242,31 +5546,31 @@
         <v>18.167994426233</v>
       </c>
       <c r="C48" t="n">
-        <v>-119563.087177404</v>
+        <v>-45064.654904162</v>
       </c>
       <c r="D48" t="n">
-        <v>440423.071829287</v>
+        <v>427395.509569724</v>
       </c>
       <c r="E48" t="n">
-        <v>1760654.20948605</v>
+        <v>1708440.80469404</v>
       </c>
       <c r="F48" t="n">
         <v>1682208.36197719</v>
       </c>
       <c r="G48" t="n">
-        <v>-78445.8475088577</v>
+        <v>-26232.4427168525</v>
       </c>
       <c r="H48" t="n">
-        <v>-19665.5581341719</v>
+        <v>-6653.66412311056</v>
       </c>
       <c r="I48" t="n">
-        <v>420757.513695116</v>
+        <v>420741.845446614</v>
       </c>
       <c r="J48" t="n">
-        <v>1682208.01667959</v>
+        <v>1682184.9507542</v>
       </c>
       <c r="K48" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49">
@@ -5277,31 +5581,31 @@
         <v>16.5074865514744</v>
       </c>
       <c r="C49" t="n">
-        <v>-119563.087177404</v>
+        <v>-45064.654904162</v>
       </c>
       <c r="D49" t="n">
-        <v>406409.071747676</v>
+        <v>390001.474088636</v>
       </c>
       <c r="E49" t="n">
-        <v>1760654.20948605</v>
+        <v>1708440.80469404</v>
       </c>
       <c r="F49" t="n">
         <v>1682208.36197719</v>
       </c>
       <c r="G49" t="n">
-        <v>-78445.8475088577</v>
+        <v>-26232.4427168525</v>
       </c>
       <c r="H49" t="n">
-        <v>-18142.7529847681</v>
+        <v>-7642.85896298077</v>
       </c>
       <c r="I49" t="n">
-        <v>388266.318762908</v>
+        <v>382358.615125655</v>
       </c>
       <c r="J49" t="n">
-        <v>1682208.01667959</v>
+        <v>1682184.9507542</v>
       </c>
       <c r="K49" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50">
@@ -5312,31 +5616,31 @@
         <v>16.8209571571949</v>
       </c>
       <c r="C50" t="n">
-        <v>-130156.034960658</v>
+        <v>-47611.9435492859</v>
       </c>
       <c r="D50" t="n">
-        <v>411684.88952929</v>
+        <v>396758.598368902</v>
       </c>
       <c r="E50" t="n">
-        <v>1858022.12132509</v>
+        <v>1819312.50384711</v>
       </c>
       <c r="F50" t="n">
         <v>1797497.78812495</v>
       </c>
       <c r="G50" t="n">
-        <v>-60524.3332001432</v>
+        <v>-21814.7157221602</v>
       </c>
       <c r="H50" t="n">
-        <v>-15804.5353281059</v>
+        <v>-9036.9505846366</v>
       </c>
       <c r="I50" t="n">
-        <v>395880.354201184</v>
+        <v>387721.647784265</v>
       </c>
       <c r="J50" t="n">
-        <v>1797497.45698495</v>
+        <v>1797474.49923493</v>
       </c>
       <c r="K50" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51">
@@ -5347,31 +5651,31 @@
         <v>19.706883217402</v>
       </c>
       <c r="C51" t="n">
-        <v>-130156.034960658</v>
+        <v>-47611.9435492859</v>
       </c>
       <c r="D51" t="n">
-        <v>470800.471418163</v>
+        <v>461748.607228012</v>
       </c>
       <c r="E51" t="n">
-        <v>1858022.12132509</v>
+        <v>1819312.50384711</v>
       </c>
       <c r="F51" t="n">
         <v>1797497.78812495</v>
       </c>
       <c r="G51" t="n">
-        <v>-60524.3332001432</v>
+        <v>-21814.7157221602</v>
       </c>
       <c r="H51" t="n">
-        <v>-14599.9005682124</v>
+        <v>-8163.60746066219</v>
       </c>
       <c r="I51" t="n">
-        <v>456200.57084995</v>
+        <v>453584.99976735</v>
       </c>
       <c r="J51" t="n">
-        <v>1797497.45698495</v>
+        <v>1797474.49923493</v>
       </c>
       <c r="K51" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52">
@@ -5382,31 +5686,31 @@
         <v>20.3277416570306</v>
       </c>
       <c r="C52" t="n">
-        <v>-130156.034960658</v>
+        <v>-47611.9435492859</v>
       </c>
       <c r="D52" t="n">
-        <v>483518.194313195</v>
+        <v>475730.114255543</v>
       </c>
       <c r="E52" t="n">
-        <v>1858022.12132509</v>
+        <v>1819312.50384711</v>
       </c>
       <c r="F52" t="n">
         <v>1797497.78812495</v>
       </c>
       <c r="G52" t="n">
-        <v>-60524.3332001432</v>
+        <v>-21814.7157221602</v>
       </c>
       <c r="H52" t="n">
-        <v>-14528.8487050875</v>
+        <v>-5022.82959105751</v>
       </c>
       <c r="I52" t="n">
-        <v>468989.345608107</v>
+        <v>470707.284664486</v>
       </c>
       <c r="J52" t="n">
-        <v>1797497.45698495</v>
+        <v>1797474.49923493</v>
       </c>
       <c r="K52" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53">
@@ -5417,31 +5721,31 @@
         <v>20.7427159087346</v>
       </c>
       <c r="C53" t="n">
-        <v>-130156.034960658</v>
+        <v>-47611.9435492859</v>
       </c>
       <c r="D53" t="n">
-        <v>492018.566064443</v>
+        <v>485075.18399465</v>
       </c>
       <c r="E53" t="n">
-        <v>1858022.12132509</v>
+        <v>1819312.50384711</v>
       </c>
       <c r="F53" t="n">
         <v>1797497.78812495</v>
       </c>
       <c r="G53" t="n">
-        <v>-60524.3332001432</v>
+        <v>-21814.7157221602</v>
       </c>
       <c r="H53" t="n">
-        <v>-15591.3797387312</v>
+        <v>385.383024177415</v>
       </c>
       <c r="I53" t="n">
-        <v>476427.186325712</v>
+        <v>485460.567018827</v>
       </c>
       <c r="J53" t="n">
-        <v>1797497.45698495</v>
+        <v>1797474.49923493</v>
       </c>
       <c r="K53" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54">
@@ -5452,31 +5756,31 @@
         <v>19.687643449942</v>
       </c>
       <c r="C54" t="n">
-        <v>-116815.895459759</v>
+        <v>-44402.6971215636</v>
       </c>
       <c r="D54" t="n">
-        <v>471848.741141749</v>
+        <v>461695.966015753</v>
       </c>
       <c r="E54" t="n">
-        <v>1896263.54840483</v>
+        <v>1856533.73581885</v>
       </c>
       <c r="F54" t="n">
         <v>1873451.96979424</v>
       </c>
       <c r="G54" t="n">
-        <v>-22811.5786105876</v>
+        <v>16918.2339753867</v>
       </c>
       <c r="H54" t="n">
-        <v>-17787.4936691436</v>
+        <v>8061.0303850426</v>
       </c>
       <c r="I54" t="n">
-        <v>454061.247472605</v>
+        <v>469756.996400795</v>
       </c>
       <c r="J54" t="n">
-        <v>1873451.62082498</v>
+        <v>1873428.52678087</v>
       </c>
       <c r="K54" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55">
@@ -5487,31 +5791,31 @@
         <v>20.2449051530729</v>
       </c>
       <c r="C55" t="n">
-        <v>-116815.895459759</v>
+        <v>-44402.6971215636</v>
       </c>
       <c r="D55" t="n">
-        <v>483263.742481945</v>
+        <v>474245.297588276</v>
       </c>
       <c r="E55" t="n">
-        <v>1896263.54840483</v>
+        <v>1856533.73581885</v>
       </c>
       <c r="F55" t="n">
         <v>1873451.96979424</v>
       </c>
       <c r="G55" t="n">
-        <v>-22811.5786105876</v>
+        <v>16918.2339753867</v>
       </c>
       <c r="H55" t="n">
-        <v>-13832.1345316359</v>
+        <v>9596.35627157352</v>
       </c>
       <c r="I55" t="n">
-        <v>469431.607950309</v>
+        <v>483841.653859849</v>
       </c>
       <c r="J55" t="n">
-        <v>1873451.62082498</v>
+        <v>1873428.52678087</v>
       </c>
       <c r="K55" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56">
@@ -5522,31 +5826,31 @@
         <v>20.4107512168257</v>
       </c>
       <c r="C56" t="n">
-        <v>-116815.895459759</v>
+        <v>-44402.6971215636</v>
       </c>
       <c r="D56" t="n">
-        <v>486660.948910034</v>
+        <v>477980.090832344</v>
       </c>
       <c r="E56" t="n">
-        <v>1896263.54840483</v>
+        <v>1856533.73581885</v>
       </c>
       <c r="F56" t="n">
         <v>1873451.96979424</v>
       </c>
       <c r="G56" t="n">
-        <v>-22811.5786105876</v>
+        <v>16918.2339753867</v>
       </c>
       <c r="H56" t="n">
-        <v>-3725.30232620818</v>
+        <v>4991.3606837702</v>
       </c>
       <c r="I56" t="n">
-        <v>482935.646583826</v>
+        <v>482971.451516115</v>
       </c>
       <c r="J56" t="n">
-        <v>1873451.62082498</v>
+        <v>1873428.52678087</v>
       </c>
       <c r="K56" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57">
@@ -5557,31 +5861,31 @@
         <v>18.8402237437111</v>
       </c>
       <c r="C57" t="n">
-        <v>-116815.895459759</v>
+        <v>-44402.6971215636</v>
       </c>
       <c r="D57" t="n">
-        <v>454490.1158711</v>
+        <v>442612.38138248</v>
       </c>
       <c r="E57" t="n">
-        <v>1896263.54840483</v>
+        <v>1856533.73581885</v>
       </c>
       <c r="F57" t="n">
         <v>1873451.96979424</v>
       </c>
       <c r="G57" t="n">
-        <v>-22811.5786105876</v>
+        <v>16918.2339753867</v>
       </c>
       <c r="H57" t="n">
-        <v>12533.0029471396</v>
+        <v>-5753.95637836736</v>
       </c>
       <c r="I57" t="n">
-        <v>467023.118818239</v>
+        <v>436858.425004113</v>
       </c>
       <c r="J57" t="n">
-        <v>1873451.62082498</v>
+        <v>1873428.52678087</v>
       </c>
       <c r="K57" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58">
@@ -5589,34 +5893,34 @@
         <v>17</v>
       </c>
       <c r="B58" t="n">
-        <v>11.2650526395676</v>
+        <v>18.6246974839182</v>
       </c>
       <c r="C58" t="n">
-        <v>-73333.6251232475</v>
+        <v>-4147.22191441478</v>
       </c>
       <c r="D58" t="n">
-        <v>304021.03917548</v>
+        <v>442533.292521388</v>
       </c>
       <c r="E58" t="n">
-        <v>1558853.65014869</v>
+        <v>1800087.30648966</v>
       </c>
       <c r="F58" t="n">
         <v>1657051.24095364</v>
       </c>
       <c r="G58" t="n">
-        <v>98197.5908049452</v>
+        <v>-143036.06553602</v>
       </c>
       <c r="H58" t="n">
-        <v>34942.7812884075</v>
+        <v>-22639.5949148392</v>
       </c>
       <c r="I58" t="n">
-        <v>338963.820463888</v>
+        <v>419893.697606549</v>
       </c>
       <c r="J58" t="n">
-        <v>1657050.83386977</v>
+        <v>1657025.86467998</v>
       </c>
       <c r="K58" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59">
@@ -5624,34 +5928,34 @@
         <v>74</v>
       </c>
       <c r="B59" t="n">
-        <v>12.6519790207071</v>
+        <v>19.3276013120538</v>
       </c>
       <c r="C59" t="n">
-        <v>-73333.6251232475</v>
+        <v>-4147.22191441478</v>
       </c>
       <c r="D59" t="n">
-        <v>332430.970111898</v>
+        <v>458362.431960378</v>
       </c>
       <c r="E59" t="n">
-        <v>1558853.65014869</v>
+        <v>1800087.30648966</v>
       </c>
       <c r="F59" t="n">
         <v>1657051.24095364</v>
       </c>
       <c r="G59" t="n">
-        <v>98197.5908049452</v>
+        <v>-143036.06553602</v>
       </c>
       <c r="H59" t="n">
-        <v>39749.2984816593</v>
+        <v>-34644.1565444598</v>
       </c>
       <c r="I59" t="n">
-        <v>372180.268593558</v>
+        <v>423718.275415919</v>
       </c>
       <c r="J59" t="n">
-        <v>1657050.83386977</v>
+        <v>1657025.86467998</v>
       </c>
       <c r="K59" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60">
@@ -5662,31 +5966,31 @@
         <v>18.4360859079377</v>
       </c>
       <c r="C60" t="n">
-        <v>-73333.6251232475</v>
+        <v>-4147.22191441478</v>
       </c>
       <c r="D60" t="n">
-        <v>450913.161690131</v>
+        <v>438285.828193411</v>
       </c>
       <c r="E60" t="n">
-        <v>1558853.65014869</v>
+        <v>1800087.30648966</v>
       </c>
       <c r="F60" t="n">
         <v>1657051.24095364</v>
       </c>
       <c r="G60" t="n">
-        <v>98197.5908049452</v>
+        <v>-143036.06553602</v>
       </c>
       <c r="H60" t="n">
-        <v>26952.5545268949</v>
+        <v>-41767.6412672291</v>
       </c>
       <c r="I60" t="n">
-        <v>477865.716217026</v>
+        <v>396518.186926182</v>
       </c>
       <c r="J60" t="n">
-        <v>1657050.83386977</v>
+        <v>1657025.86467998</v>
       </c>
       <c r="K60" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61">
@@ -5697,31 +6001,31 @@
         <v>19.4405392689352</v>
       </c>
       <c r="C61" t="n">
-        <v>-73333.6251232475</v>
+        <v>-4147.22191441478</v>
       </c>
       <c r="D61" t="n">
-        <v>471488.479171183</v>
+        <v>460905.753814481</v>
       </c>
       <c r="E61" t="n">
-        <v>1558853.65014869</v>
+        <v>1800087.30648966</v>
       </c>
       <c r="F61" t="n">
         <v>1657051.24095364</v>
       </c>
       <c r="G61" t="n">
-        <v>98197.5908049452</v>
+        <v>-143036.06553602</v>
       </c>
       <c r="H61" t="n">
-        <v>-3447.4505758855</v>
+        <v>-44010.0490831472</v>
       </c>
       <c r="I61" t="n">
-        <v>468041.028595298</v>
+        <v>416895.704731334</v>
       </c>
       <c r="J61" t="n">
-        <v>1657050.83386977</v>
+        <v>1657025.86467998</v>
       </c>
       <c r="K61" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62">
@@ -5732,31 +6036,31 @@
         <v>20.7412944837282</v>
       </c>
       <c r="C62" t="n">
-        <v>66481.3179052956</v>
+        <v>-145003.583861858</v>
       </c>
       <c r="D62" t="n">
-        <v>513250.514678719</v>
+        <v>473492.077823903</v>
       </c>
       <c r="E62" t="n">
-        <v>2075431.74140328</v>
+        <v>1918626.87389535</v>
       </c>
       <c r="F62" t="n">
         <v>1804015.80559681</v>
       </c>
       <c r="G62" t="n">
-        <v>-271415.935806469</v>
+        <v>-114611.068298535</v>
       </c>
       <c r="H62" t="n">
-        <v>-51450.716826682</v>
+        <v>-41371.379992214</v>
       </c>
       <c r="I62" t="n">
-        <v>461799.797852037</v>
+        <v>432120.697831689</v>
       </c>
       <c r="J62" t="n">
-        <v>1804015.21164849</v>
+        <v>1803997.19391876</v>
       </c>
       <c r="K62" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63">
@@ -5767,31 +6071,31 @@
         <v>21.5595069375397</v>
       </c>
       <c r="C63" t="n">
-        <v>66481.3179052956</v>
+        <v>-145003.583861858</v>
       </c>
       <c r="D63" t="n">
-        <v>530010.855833239</v>
+        <v>491917.925718991</v>
       </c>
       <c r="E63" t="n">
-        <v>2075431.74140328</v>
+        <v>1918626.87389535</v>
       </c>
       <c r="F63" t="n">
         <v>1804015.80559681</v>
       </c>
       <c r="G63" t="n">
-        <v>-271415.935806469</v>
+        <v>-114611.068298535</v>
       </c>
       <c r="H63" t="n">
-        <v>-77213.3895718073</v>
+        <v>-35230.3283566133</v>
       </c>
       <c r="I63" t="n">
-        <v>452797.466261432</v>
+        <v>456687.597362378</v>
       </c>
       <c r="J63" t="n">
-        <v>1804015.21164849</v>
+        <v>1803997.19391876</v>
       </c>
       <c r="K63" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64">
@@ -5802,31 +6106,31 @@
         <v>20.2774186884528</v>
       </c>
       <c r="C64" t="n">
-        <v>66481.3179052956</v>
+        <v>-145003.583861858</v>
       </c>
       <c r="D64" t="n">
-        <v>503748.439091966</v>
+        <v>463045.763048149</v>
       </c>
       <c r="E64" t="n">
-        <v>2075431.74140328</v>
+        <v>1918626.87389535</v>
       </c>
       <c r="F64" t="n">
         <v>1804015.80559681</v>
       </c>
       <c r="G64" t="n">
-        <v>-271415.935806469</v>
+        <v>-114611.068298535</v>
       </c>
       <c r="H64" t="n">
-        <v>-80735.4688112613</v>
+        <v>-25586.8941763449</v>
       </c>
       <c r="I64" t="n">
-        <v>423012.970280704</v>
+        <v>437458.868871804</v>
       </c>
       <c r="J64" t="n">
-        <v>1804015.21164849</v>
+        <v>1803997.19391876</v>
       </c>
       <c r="K64" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65">
@@ -5837,31 +6141,31 @@
         <v>21.4819382639252</v>
       </c>
       <c r="C65" t="n">
-        <v>66481.3179052956</v>
+        <v>-145003.583861858</v>
       </c>
       <c r="D65" t="n">
-        <v>528421.931799356</v>
+        <v>490171.107304303</v>
       </c>
       <c r="E65" t="n">
-        <v>2075431.74140328</v>
+        <v>1918626.87389535</v>
       </c>
       <c r="F65" t="n">
         <v>1804015.80559681</v>
       </c>
       <c r="G65" t="n">
-        <v>-271415.935806469</v>
+        <v>-114611.068298535</v>
       </c>
       <c r="H65" t="n">
-        <v>-62016.954545044</v>
+        <v>-12441.077451409</v>
       </c>
       <c r="I65" t="n">
-        <v>466404.977254312</v>
+        <v>477730.029852894</v>
       </c>
       <c r="J65" t="n">
-        <v>1804015.21164849</v>
+        <v>1803997.19391876</v>
       </c>
       <c r="K65" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66">
@@ -5872,31 +6176,31 @@
         <v>21.7288063759888</v>
       </c>
       <c r="C66" t="n">
-        <v>-242663.237192852</v>
+        <v>-183403.434477159</v>
       </c>
       <c r="D66" t="n">
-        <v>500053.0944858</v>
+        <v>491176.088924377</v>
       </c>
       <c r="E66" t="n">
-        <v>2051295.9562635</v>
+        <v>2020864.20563068</v>
       </c>
       <c r="F66" t="n">
         <v>2096399.00427517</v>
       </c>
       <c r="G66" t="n">
-        <v>45103.0480116704</v>
+        <v>75534.7986444887</v>
       </c>
       <c r="H66" t="n">
-        <v>-21057.8467731555</v>
+        <v>4207.12181819458</v>
       </c>
       <c r="I66" t="n">
-        <v>478995.247712644</v>
+        <v>495383.210742571</v>
       </c>
       <c r="J66" t="n">
-        <v>2096398.82350249</v>
+        <v>2096382.23674145</v>
       </c>
       <c r="K66" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67">
@@ -5907,31 +6211,31 @@
         <v>22.7439615952178</v>
       </c>
       <c r="C67" t="n">
-        <v>-242663.237192852</v>
+        <v>-183403.434477159</v>
       </c>
       <c r="D67" t="n">
-        <v>520847.629841271</v>
+        <v>514037.016513885</v>
       </c>
       <c r="E67" t="n">
-        <v>2051295.9562635</v>
+        <v>2020864.20563068</v>
       </c>
       <c r="F67" t="n">
         <v>2096399.00427517</v>
       </c>
       <c r="G67" t="n">
-        <v>45103.0480116704</v>
+        <v>75534.7986444887</v>
       </c>
       <c r="H67" t="n">
-        <v>8259.22176876104</v>
+        <v>16735.3559098352</v>
       </c>
       <c r="I67" t="n">
-        <v>529106.851610032</v>
+        <v>530772.37242372</v>
       </c>
       <c r="J67" t="n">
-        <v>2096398.82350249</v>
+        <v>2096382.23674145</v>
       </c>
       <c r="K67" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68">
@@ -5942,31 +6246,31 @@
         <v>22.2147136575304</v>
       </c>
       <c r="C68" t="n">
-        <v>-242663.237192852</v>
+        <v>-183403.434477159</v>
       </c>
       <c r="D68" t="n">
-        <v>510006.465117309</v>
+        <v>502118.544785435</v>
       </c>
       <c r="E68" t="n">
-        <v>2051295.9562635</v>
+        <v>2020864.20563068</v>
       </c>
       <c r="F68" t="n">
         <v>2096399.00427517</v>
       </c>
       <c r="G68" t="n">
-        <v>45103.0480116704</v>
+        <v>75534.7986444887</v>
       </c>
       <c r="H68" t="n">
-        <v>25934.2510807056</v>
+        <v>25143.6248235128</v>
       </c>
       <c r="I68" t="n">
-        <v>535940.716198014</v>
+        <v>527262.169608948</v>
       </c>
       <c r="J68" t="n">
-        <v>2096398.82350249</v>
+        <v>2096382.23674145</v>
       </c>
       <c r="K68" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69">
@@ -5977,31 +6281,31 @@
         <v>22.7215606526682</v>
       </c>
       <c r="C69" t="n">
-        <v>-242663.237192852</v>
+        <v>-183403.434477159</v>
       </c>
       <c r="D69" t="n">
-        <v>520388.766819123</v>
+        <v>513532.555406988</v>
       </c>
       <c r="E69" t="n">
-        <v>2051295.9562635</v>
+        <v>2020864.20563068</v>
       </c>
       <c r="F69" t="n">
         <v>2096399.00427517</v>
       </c>
       <c r="G69" t="n">
-        <v>45103.0480116704</v>
+        <v>75534.7986444887</v>
       </c>
       <c r="H69" t="n">
-        <v>31967.2411626782</v>
+        <v>29431.9285592275</v>
       </c>
       <c r="I69" t="n">
-        <v>552356.007981801</v>
+        <v>542964.483966215</v>
       </c>
       <c r="J69" t="n">
-        <v>2096398.82350249</v>
+        <v>2096382.23674145</v>
       </c>
       <c r="K69" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70">
@@ -6012,31 +6316,31 @@
         <v>22.6210139604755</v>
       </c>
       <c r="C70" t="n">
-        <v>-59847.081490125</v>
+        <v>-11475.1626747409</v>
       </c>
       <c r="D70" t="n">
-        <v>538095.831657795</v>
+        <v>531659.76363422</v>
       </c>
       <c r="E70" t="n">
-        <v>2162434.31047148</v>
+        <v>2137688.82361555</v>
       </c>
       <c r="F70" t="n">
         <v>2285544.50565928</v>
       </c>
       <c r="G70" t="n">
-        <v>123110.195187805</v>
+        <v>147855.682043727</v>
       </c>
       <c r="H70" t="n">
-        <v>26358.1920146788</v>
+        <v>29600.2671169792</v>
       </c>
       <c r="I70" t="n">
-        <v>564454.023672474</v>
+        <v>561260.030751199</v>
       </c>
       <c r="J70" t="n">
-        <v>2285544.08055047</v>
+        <v>2285519.48130836</v>
       </c>
       <c r="K70" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71">
@@ -6047,31 +6351,31 @@
         <v>22.7960079826236</v>
       </c>
       <c r="C71" t="n">
-        <v>-59847.081490125</v>
+        <v>-11475.1626747409</v>
       </c>
       <c r="D71" t="n">
-        <v>541680.42572935</v>
+        <v>535600.565585634</v>
       </c>
       <c r="E71" t="n">
-        <v>2162434.31047148</v>
+        <v>2137688.82361555</v>
       </c>
       <c r="F71" t="n">
         <v>2285544.50565928</v>
       </c>
       <c r="G71" t="n">
-        <v>123110.195187805</v>
+        <v>147855.682043727</v>
       </c>
       <c r="H71" t="n">
-        <v>25882.2725575073</v>
+        <v>32610.5614625687</v>
       </c>
       <c r="I71" t="n">
-        <v>567562.698286858</v>
+        <v>568211.127048203</v>
       </c>
       <c r="J71" t="n">
-        <v>2285544.08055047</v>
+        <v>2285519.48130836</v>
       </c>
       <c r="K71" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72">
@@ -6082,31 +6386,31 @@
         <v>23.1970162213121</v>
       </c>
       <c r="C72" t="n">
-        <v>-59847.081490125</v>
+        <v>-11475.1626747409</v>
       </c>
       <c r="D72" t="n">
-        <v>549894.716351404</v>
+        <v>544631.125773676</v>
       </c>
       <c r="E72" t="n">
-        <v>2162434.31047148</v>
+        <v>2137688.82361555</v>
       </c>
       <c r="F72" t="n">
         <v>2285544.50565928</v>
       </c>
       <c r="G72" t="n">
-        <v>123110.195187805</v>
+        <v>147855.682043727</v>
       </c>
       <c r="H72" t="n">
-        <v>30539.4827911638</v>
+        <v>38462.8115959961</v>
       </c>
       <c r="I72" t="n">
-        <v>580434.199142568</v>
+        <v>583093.937369673</v>
       </c>
       <c r="J72" t="n">
-        <v>2285544.08055047</v>
+        <v>2285519.48130836</v>
       </c>
       <c r="K72" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73">
@@ -6117,31 +6421,31 @@
         <v>22.3606902762981</v>
       </c>
       <c r="C73" t="n">
-        <v>-59847.081490125</v>
+        <v>-11475.1626747409</v>
       </c>
       <c r="D73" t="n">
-        <v>532763.336732927</v>
+        <v>525797.368622024</v>
       </c>
       <c r="E73" t="n">
-        <v>2162434.31047148</v>
+        <v>2137688.82361555</v>
       </c>
       <c r="F73" t="n">
         <v>2285544.50565928</v>
       </c>
       <c r="G73" t="n">
-        <v>123110.195187805</v>
+        <v>147855.682043727</v>
       </c>
       <c r="H73" t="n">
-        <v>40329.8227156482</v>
+        <v>47157.0175172613</v>
       </c>
       <c r="I73" t="n">
-        <v>573093.159448575</v>
+        <v>572954.386139285</v>
       </c>
       <c r="J73" t="n">
-        <v>2285544.08055047</v>
+        <v>2285519.48130836</v>
       </c>
       <c r="K73" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74">
@@ -6152,31 +6456,31 @@
         <v>24.7182003894184</v>
       </c>
       <c r="C74" t="n">
-        <v>97226.7567842309</v>
+        <v>142411.65389176</v>
       </c>
       <c r="D74" t="n">
-        <v>598038.126805422</v>
+        <v>597139.325654026</v>
       </c>
       <c r="E74" t="n">
-        <v>2415242.14653753</v>
+        <v>2413941.4029792</v>
       </c>
       <c r="F74" t="n">
         <v>2729862</v>
       </c>
       <c r="G74" t="n">
-        <v>314619.853462473</v>
+        <v>315920.597020799</v>
       </c>
       <c r="H74" t="n">
-        <v>55253.2923309605</v>
+        <v>58693.1792263644</v>
       </c>
       <c r="I74" t="n">
-        <v>653291.419136382</v>
+        <v>655832.50488039</v>
       </c>
       <c r="J74" t="n">
-        <v>2729861.36496</v>
+        <v>2729829.58526877</v>
       </c>
       <c r="K74" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75">
@@ -6187,31 +6491,31 @@
         <v>25.5375285057972</v>
       </c>
       <c r="C75" t="n">
-        <v>97226.7567842309</v>
+        <v>142411.65389176</v>
       </c>
       <c r="D75" t="n">
-        <v>614821.321297305</v>
+        <v>615590.297865753</v>
       </c>
       <c r="E75" t="n">
-        <v>2415242.14653753</v>
+        <v>2413941.4029792</v>
       </c>
       <c r="F75" t="n">
         <v>2729862</v>
       </c>
       <c r="G75" t="n">
-        <v>314619.853462473</v>
+        <v>315920.597020799</v>
       </c>
       <c r="H75" t="n">
-        <v>70583.2850869487</v>
+        <v>71419.1904484167</v>
       </c>
       <c r="I75" t="n">
-        <v>685404.606384254</v>
+        <v>687009.488314169</v>
       </c>
       <c r="J75" t="n">
-        <v>2729861.36496</v>
+        <v>2729829.58526877</v>
       </c>
       <c r="K75" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76">
@@ -6222,31 +6526,31 @@
         <v>24.936597526205</v>
       </c>
       <c r="C76" t="n">
-        <v>97226.7567842309</v>
+        <v>142411.65389176</v>
       </c>
       <c r="D76" t="n">
-        <v>602511.794375089</v>
+        <v>602057.550015446</v>
       </c>
       <c r="E76" t="n">
-        <v>2415242.14653753</v>
+        <v>2413941.4029792</v>
       </c>
       <c r="F76" t="n">
         <v>2729862</v>
       </c>
       <c r="G76" t="n">
-        <v>314619.853462473</v>
+        <v>315920.597020799</v>
       </c>
       <c r="H76" t="n">
-        <v>86319.8009836129</v>
+        <v>85335.0511834184</v>
       </c>
       <c r="I76" t="n">
-        <v>688831.595358702</v>
+        <v>687392.601198864</v>
       </c>
       <c r="J76" t="n">
-        <v>2729861.36496</v>
+        <v>2729829.58526877</v>
       </c>
       <c r="K76" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77">
@@ -6257,31 +6561,31 @@
         <v>24.8076735785794</v>
       </c>
       <c r="C77" t="n">
-        <v>97226.7567842309</v>
+        <v>142411.65389176</v>
       </c>
       <c r="D77" t="n">
-        <v>599870.904059712</v>
+        <v>599154.229443977</v>
       </c>
       <c r="E77" t="n">
-        <v>2415242.14653753</v>
+        <v>2413941.4029792</v>
       </c>
       <c r="F77" t="n">
         <v>2729862</v>
       </c>
       <c r="G77" t="n">
-        <v>314619.853462473</v>
+        <v>315920.597020799</v>
       </c>
       <c r="H77" t="n">
-        <v>102462.840020953</v>
+        <v>100440.761431369</v>
       </c>
       <c r="I77" t="n">
-        <v>702333.744080665</v>
+        <v>699594.990875346</v>
       </c>
       <c r="J77" t="n">
-        <v>2729861.36496</v>
+        <v>2729829.58526877</v>
       </c>
       <c r="K77" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78">
@@ -6292,31 +6596,31 @@
         <v>27.0678722004911</v>
       </c>
       <c r="C78" t="n">
-        <v>356669.736393175</v>
+        <v>383483.303967123</v>
       </c>
       <c r="D78" t="n">
-        <v>674220.838305497</v>
+        <v>678645.288957968</v>
       </c>
       <c r="E78" t="n">
-        <v>2650423.82596494</v>
+        <v>2663504.85764536</v>
       </c>
       <c r="F78" t="n">
         <v>3024682</v>
       </c>
       <c r="G78" t="n">
-        <v>374258.174035061</v>
+        <v>361177.142354645</v>
       </c>
       <c r="H78" t="n">
-        <v>119012.402198969</v>
+        <v>116736.32119227</v>
       </c>
       <c r="I78" t="n">
-        <v>793233.240504466</v>
+        <v>795381.610150238</v>
       </c>
       <c r="J78" t="n">
-        <v>3024681.01821115</v>
+        <v>3024638.00785613</v>
       </c>
       <c r="K78" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="79">
@@ -6327,31 +6631,31 @@
         <v>27.1238115907225</v>
       </c>
       <c r="C79" t="n">
-        <v>356669.736393175</v>
+        <v>383483.303967123</v>
       </c>
       <c r="D79" t="n">
-        <v>675366.706056455</v>
+        <v>679905.0237505</v>
       </c>
       <c r="E79" t="n">
-        <v>2650423.82596494</v>
+        <v>2663504.85764536</v>
       </c>
       <c r="F79" t="n">
         <v>3024682</v>
       </c>
       <c r="G79" t="n">
-        <v>374258.174035061</v>
+        <v>361177.142354645</v>
       </c>
       <c r="H79" t="n">
-        <v>115452.985415209</v>
+        <v>112673.331640799</v>
       </c>
       <c r="I79" t="n">
-        <v>790819.691471664</v>
+        <v>792578.355391299</v>
       </c>
       <c r="J79" t="n">
-        <v>3024681.01821115</v>
+        <v>3024638.00785613</v>
       </c>
       <c r="K79" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80">
@@ -6362,31 +6666,31 @@
         <v>25.3108618971323</v>
       </c>
       <c r="C80" t="n">
-        <v>356669.736393175</v>
+        <v>383483.303967123</v>
       </c>
       <c r="D80" t="n">
-        <v>638230.073365267</v>
+        <v>639078.053762539</v>
       </c>
       <c r="E80" t="n">
-        <v>2650423.82596494</v>
+        <v>2663504.85764536</v>
       </c>
       <c r="F80" t="n">
         <v>3024682</v>
       </c>
       <c r="G80" t="n">
-        <v>374258.174035061</v>
+        <v>361177.142354645</v>
       </c>
       <c r="H80" t="n">
-        <v>91784.5896696722</v>
+        <v>88251.7927769579</v>
       </c>
       <c r="I80" t="n">
-        <v>730014.663034939</v>
+        <v>727329.846539497</v>
       </c>
       <c r="J80" t="n">
-        <v>3024681.01821115</v>
+        <v>3024638.00785613</v>
       </c>
       <c r="K80" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="81">
@@ -6397,31 +6701,31 @@
         <v>26.5008649492511</v>
       </c>
       <c r="C81" t="n">
-        <v>356669.736393175</v>
+        <v>383483.303967123</v>
       </c>
       <c r="D81" t="n">
-        <v>662606.20823772</v>
+        <v>665876.491174348</v>
       </c>
       <c r="E81" t="n">
-        <v>2650423.82596494</v>
+        <v>2663504.85764536</v>
       </c>
       <c r="F81" t="n">
         <v>3024682</v>
       </c>
       <c r="G81" t="n">
-        <v>374258.174035061</v>
+        <v>361177.142354645</v>
       </c>
       <c r="H81" t="n">
-        <v>48007.2149623589</v>
+        <v>43471.704600746</v>
       </c>
       <c r="I81" t="n">
-        <v>710613.423200079</v>
+        <v>709348.195775094</v>
       </c>
       <c r="J81" t="n">
-        <v>3024681.01821115</v>
+        <v>3024638.00785613</v>
       </c>
       <c r="K81" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82">
@@ -6432,31 +6736,31 @@
         <v>27.4866210074282</v>
       </c>
       <c r="C82" t="n">
-        <v>528515.306087108</v>
+        <v>543108.67237136</v>
       </c>
       <c r="D82" t="n">
-        <v>701379.026011382</v>
+        <v>707007.662712196</v>
       </c>
       <c r="E82" t="n">
-        <v>2843374.0291214</v>
+        <v>2869650.58940735</v>
       </c>
       <c r="F82" t="n">
         <v>2603708.3872117</v>
       </c>
       <c r="G82" t="n">
-        <v>-239665.641909706</v>
+        <v>-265942.202195651</v>
       </c>
       <c r="H82" t="n">
-        <v>-15879.1387067308</v>
+        <v>-21666.9328878367</v>
       </c>
       <c r="I82" t="n">
-        <v>685499.887304651</v>
+        <v>685340.72982436</v>
       </c>
       <c r="J82" t="n">
-        <v>2603707.17574905</v>
+        <v>2603656.72909483</v>
       </c>
       <c r="K82" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83">
@@ -6467,31 +6771,31 @@
         <v>27.3134542222783</v>
       </c>
       <c r="C83" t="n">
-        <v>528515.306087108</v>
+        <v>543108.67237136</v>
       </c>
       <c r="D83" t="n">
-        <v>697831.861235016</v>
+        <v>703108.009475693</v>
       </c>
       <c r="E83" t="n">
-        <v>2843374.0291214</v>
+        <v>2869650.58940735</v>
       </c>
       <c r="F83" t="n">
         <v>2603708.3872117</v>
       </c>
       <c r="G83" t="n">
-        <v>-239665.641909706</v>
+        <v>-265942.202195651</v>
       </c>
       <c r="H83" t="n">
-        <v>-59048.7100289099</v>
+        <v>-65655.0007593864</v>
       </c>
       <c r="I83" t="n">
-        <v>638783.151206106</v>
+        <v>637453.008716306</v>
       </c>
       <c r="J83" t="n">
-        <v>2603707.17574905</v>
+        <v>2603656.72909483</v>
       </c>
       <c r="K83" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="84">
@@ -6502,31 +6806,31 @@
         <v>27.9601144234342</v>
       </c>
       <c r="C84" t="n">
-        <v>528515.306087108</v>
+        <v>543108.67237136</v>
       </c>
       <c r="D84" t="n">
-        <v>711078.109849217</v>
+        <v>717670.562820853</v>
       </c>
       <c r="E84" t="n">
-        <v>2843374.0291214</v>
+        <v>2869650.58940735</v>
       </c>
       <c r="F84" t="n">
         <v>2603708.3872117</v>
       </c>
       <c r="G84" t="n">
-        <v>-239665.641909706</v>
+        <v>-265942.202195651</v>
       </c>
       <c r="H84" t="n">
-        <v>-81501.4990041784</v>
+        <v>-88492.4990139032</v>
       </c>
       <c r="I84" t="n">
-        <v>629576.610845039</v>
+        <v>629178.063806949</v>
       </c>
       <c r="J84" t="n">
-        <v>2603707.17574905</v>
+        <v>2603656.72909483</v>
       </c>
       <c r="K84" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85">
@@ -6537,31 +6841,31 @@
         <v>29.0344563851475</v>
       </c>
       <c r="C85" t="n">
-        <v>528515.306087108</v>
+        <v>543108.67237136</v>
       </c>
       <c r="D85" t="n">
-        <v>733085.032025788</v>
+        <v>741864.354398607</v>
       </c>
       <c r="E85" t="n">
-        <v>2843374.0291214</v>
+        <v>2869650.58940735</v>
       </c>
       <c r="F85" t="n">
         <v>2603708.3872117</v>
       </c>
       <c r="G85" t="n">
-        <v>-239665.641909706</v>
+        <v>-265942.202195651</v>
       </c>
       <c r="H85" t="n">
-        <v>-83237.5056325362</v>
+        <v>-90179.4276513871</v>
       </c>
       <c r="I85" t="n">
-        <v>649847.526393251</v>
+        <v>651684.92674722</v>
       </c>
       <c r="J85" t="n">
-        <v>2603707.17574905</v>
+        <v>2603656.72909483</v>
       </c>
       <c r="K85" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86">
@@ -6572,31 +6876,31 @@
         <v>29.9575968210024</v>
       </c>
       <c r="C86" t="n">
-        <v>-11086.5194221861</v>
+        <v>-8281.46258144546</v>
       </c>
       <c r="D86" t="n">
-        <v>693651.23698876</v>
+        <v>697255.737986834</v>
       </c>
       <c r="E86" t="n">
-        <v>2827506.44403546</v>
+        <v>2847181.3695603</v>
       </c>
       <c r="F86" t="n">
         <v>2615908.24591085</v>
       </c>
       <c r="G86" t="n">
-        <v>-211598.198124609</v>
+        <v>-231273.123649451</v>
       </c>
       <c r="H86" t="n">
-        <v>-64256.7299139833</v>
+        <v>-70715.7866718381</v>
       </c>
       <c r="I86" t="n">
-        <v>629394.507074777</v>
+        <v>626539.951314996</v>
       </c>
       <c r="J86" t="n">
-        <v>2615907.75563293</v>
+        <v>2615883.06818319</v>
       </c>
       <c r="K86" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87">
@@ -6607,31 +6911,31 @@
         <v>30.4708532868512</v>
       </c>
       <c r="C87" t="n">
-        <v>-11086.5194221861</v>
+        <v>-8281.46258144546</v>
       </c>
       <c r="D87" t="n">
-        <v>704164.830893763</v>
+        <v>708814.087565659</v>
       </c>
       <c r="E87" t="n">
-        <v>2827506.44403546</v>
+        <v>2847181.3695603</v>
       </c>
       <c r="F87" t="n">
         <v>2615908.24591085</v>
       </c>
       <c r="G87" t="n">
-        <v>-211598.198124609</v>
+        <v>-231273.123649451</v>
       </c>
       <c r="H87" t="n">
-        <v>-52121.5965012219</v>
+        <v>-57773.8457489946</v>
       </c>
       <c r="I87" t="n">
-        <v>652043.234392542</v>
+        <v>651040.241816664</v>
       </c>
       <c r="J87" t="n">
-        <v>2615907.75563293</v>
+        <v>2615883.06818319</v>
       </c>
       <c r="K87" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="88">
@@ -6642,31 +6946,31 @@
         <v>30.1604105140343</v>
       </c>
       <c r="C88" t="n">
-        <v>-11086.5194221861</v>
+        <v>-8281.46258144546</v>
       </c>
       <c r="D88" t="n">
-        <v>697805.691825263</v>
+        <v>701823.028843188</v>
       </c>
       <c r="E88" t="n">
-        <v>2827506.44403546</v>
+        <v>2847181.3695603</v>
       </c>
       <c r="F88" t="n">
         <v>2615908.24591085</v>
       </c>
       <c r="G88" t="n">
-        <v>-211598.198124609</v>
+        <v>-231273.123649451</v>
       </c>
       <c r="H88" t="n">
-        <v>-46832.1053942519</v>
+        <v>-51353.6048828565</v>
       </c>
       <c r="I88" t="n">
-        <v>650973.586431011</v>
+        <v>650469.423960331</v>
       </c>
       <c r="J88" t="n">
-        <v>2615907.75563293</v>
+        <v>2615883.06818319</v>
       </c>
       <c r="K88" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="89">
@@ -6677,31 +6981,31 @@
         <v>31.8240912125206</v>
       </c>
       <c r="C89" t="n">
-        <v>-11086.5194221861</v>
+        <v>-8281.46258144546</v>
       </c>
       <c r="D89" t="n">
-        <v>731884.684327671</v>
+        <v>739288.51516462</v>
       </c>
       <c r="E89" t="n">
-        <v>2827506.44403546</v>
+        <v>2847181.3695603</v>
       </c>
       <c r="F89" t="n">
         <v>2615908.24591085</v>
       </c>
       <c r="G89" t="n">
-        <v>-211598.198124609</v>
+        <v>-231273.123649451</v>
       </c>
       <c r="H89" t="n">
-        <v>-48388.2565930733</v>
+        <v>-51455.0640734238</v>
       </c>
       <c r="I89" t="n">
-        <v>683496.427734598</v>
+        <v>687833.451091196</v>
       </c>
       <c r="J89" t="n">
-        <v>2615907.75563293</v>
+        <v>2615883.06818319</v>
       </c>
       <c r="K89" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="90">
@@ -6712,31 +7016,31 @@
         <v>32.200838041302</v>
       </c>
       <c r="C90" t="n">
-        <v>-216393.039166634</v>
+        <v>-235202.001758699</v>
       </c>
       <c r="D90" t="n">
-        <v>717403.598418536</v>
+        <v>720858.898224702</v>
       </c>
       <c r="E90" t="n">
-        <v>2920470.45418856</v>
+        <v>2939345.31615222</v>
       </c>
       <c r="F90" t="n">
         <v>2762835.71776303</v>
       </c>
       <c r="G90" t="n">
-        <v>-157634.736425527</v>
+        <v>-176509.598389186</v>
       </c>
       <c r="H90" t="n">
-        <v>-56790.0500976861</v>
+        <v>-58078.2233206966</v>
       </c>
       <c r="I90" t="n">
-        <v>660613.54832085</v>
+        <v>662780.674904005</v>
       </c>
       <c r="J90" t="n">
-        <v>2762835.5018799</v>
+        <v>2762821.43784404</v>
       </c>
       <c r="K90" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="91">
@@ -6747,31 +7051,31 @@
         <v>32.6003594531689</v>
       </c>
       <c r="C91" t="n">
-        <v>-216393.039166634</v>
+        <v>-235202.001758699</v>
       </c>
       <c r="D91" t="n">
-        <v>725587.432739601</v>
+        <v>729855.97561163</v>
       </c>
       <c r="E91" t="n">
-        <v>2920470.45418856</v>
+        <v>2939345.31615222</v>
       </c>
       <c r="F91" t="n">
         <v>2762835.71776303</v>
       </c>
       <c r="G91" t="n">
-        <v>-157634.736425527</v>
+        <v>-176509.598389186</v>
       </c>
       <c r="H91" t="n">
-        <v>-53198.2426913231</v>
+        <v>-55148.5855221445</v>
       </c>
       <c r="I91" t="n">
-        <v>672389.190048278</v>
+        <v>674707.390089486</v>
       </c>
       <c r="J91" t="n">
-        <v>2762835.5018799</v>
+        <v>2762821.43784404</v>
       </c>
       <c r="K91" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="92">
@@ -6782,31 +7086,31 @@
         <v>33.8391910266437</v>
       </c>
       <c r="C92" t="n">
-        <v>-216393.039166634</v>
+        <v>-235202.001758699</v>
       </c>
       <c r="D92" t="n">
-        <v>750963.775653604</v>
+        <v>757754.013626262</v>
       </c>
       <c r="E92" t="n">
-        <v>2920470.45418856</v>
+        <v>2939345.31615222</v>
       </c>
       <c r="F92" t="n">
         <v>2762835.71776303</v>
       </c>
       <c r="G92" t="n">
-        <v>-157634.736425527</v>
+        <v>-176509.598389186</v>
       </c>
       <c r="H92" t="n">
-        <v>-37612.834373984</v>
+        <v>-42666.1506777676</v>
       </c>
       <c r="I92" t="n">
-        <v>713350.94127962</v>
+        <v>715087.862948494</v>
       </c>
       <c r="J92" t="n">
-        <v>2762835.5018799</v>
+        <v>2762821.43784404</v>
       </c>
       <c r="K92" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="93">
@@ -6817,31 +7121,31 @@
         <v>32.6456733742269</v>
       </c>
       <c r="C93" t="n">
-        <v>-216393.039166634</v>
+        <v>-235202.001758699</v>
       </c>
       <c r="D93" t="n">
-        <v>726515.647376817</v>
+        <v>730876.428689623</v>
       </c>
       <c r="E93" t="n">
-        <v>2920470.45418856</v>
+        <v>2939345.31615222</v>
       </c>
       <c r="F93" t="n">
         <v>2762835.71776303</v>
       </c>
       <c r="G93" t="n">
-        <v>-157634.736425527</v>
+        <v>-176509.598389186</v>
       </c>
       <c r="H93" t="n">
-        <v>-10033.8251456691</v>
+        <v>-20630.9187875659</v>
       </c>
       <c r="I93" t="n">
-        <v>716481.822231148</v>
+        <v>710245.509902057</v>
       </c>
       <c r="J93" t="n">
-        <v>2762835.5018799</v>
+        <v>2762821.43784404</v>
       </c>
       <c r="K93" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94">
@@ -6852,31 +7156,31 @@
         <v>30.0835465799183</v>
       </c>
       <c r="C94" t="n">
-        <v>-251223.191547703</v>
+        <v>-288093.752380471</v>
       </c>
       <c r="D94" t="n">
-        <v>670266.851735659</v>
+        <v>666905.057199155</v>
       </c>
       <c r="E94" t="n">
-        <v>2450919.55861357</v>
+        <v>2553180.72173346</v>
       </c>
       <c r="F94" t="n">
         <v>2707579.00340777</v>
       </c>
       <c r="G94" t="n">
-        <v>256659.444794197</v>
+        <v>154398.281674306</v>
       </c>
       <c r="H94" t="n">
-        <v>29538.7849936218</v>
+        <v>10957.1101484607</v>
       </c>
       <c r="I94" t="n">
-        <v>699805.636729281</v>
+        <v>677862.167347616</v>
       </c>
       <c r="J94" t="n">
-        <v>2707578.83407558</v>
+        <v>2707567.2636034</v>
       </c>
       <c r="K94" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="95">
@@ -6884,34 +7188,34 @@
         <v>101</v>
       </c>
       <c r="B95" t="n">
-        <v>22.2696201283946</v>
+        <v>28.4232967648602</v>
       </c>
       <c r="C95" t="n">
-        <v>-251223.191547703</v>
+        <v>-288093.752380471</v>
       </c>
       <c r="D95" t="n">
-        <v>510205.644559225</v>
+        <v>629516.833128986</v>
       </c>
       <c r="E95" t="n">
-        <v>2450919.55861357</v>
+        <v>2553180.72173346</v>
       </c>
       <c r="F95" t="n">
         <v>2707579.00340777</v>
       </c>
       <c r="G95" t="n">
-        <v>256659.444794197</v>
+        <v>154398.281674306</v>
       </c>
       <c r="H95" t="n">
-        <v>59218.2425980899</v>
+        <v>34648.1318504806</v>
       </c>
       <c r="I95" t="n">
-        <v>569423.887157314</v>
+        <v>664164.964979467</v>
       </c>
       <c r="J95" t="n">
-        <v>2707578.83407558</v>
+        <v>2707567.2636034</v>
       </c>
       <c r="K95" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="96">
@@ -6922,31 +7226,31 @@
         <v>26.2074788467085</v>
       </c>
       <c r="C96" t="n">
-        <v>-251223.191547703</v>
+        <v>-288093.752380471</v>
       </c>
       <c r="D96" t="n">
-        <v>590869.114333844</v>
+        <v>579617.416745284</v>
       </c>
       <c r="E96" t="n">
-        <v>2450919.55861357</v>
+        <v>2553180.72173346</v>
       </c>
       <c r="F96" t="n">
         <v>2707579.00340777</v>
       </c>
       <c r="G96" t="n">
-        <v>256659.444794197</v>
+        <v>154398.281674306</v>
       </c>
       <c r="H96" t="n">
-        <v>79004.5476677353</v>
+        <v>50442.1463184939</v>
       </c>
       <c r="I96" t="n">
-        <v>669873.66200158</v>
+        <v>630059.563063778</v>
       </c>
       <c r="J96" t="n">
-        <v>2707578.83407558</v>
+        <v>2707567.2636034</v>
       </c>
       <c r="K96" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="97">
@@ -6957,31 +7261,31 @@
         <v>30.5380990761642</v>
       </c>
       <c r="C97" t="n">
-        <v>-251223.191547703</v>
+        <v>-288093.752380471</v>
       </c>
       <c r="D97" t="n">
-        <v>679577.947984845</v>
+        <v>677141.414660038</v>
       </c>
       <c r="E97" t="n">
-        <v>2450919.55861357</v>
+        <v>2553180.72173346</v>
       </c>
       <c r="F97" t="n">
         <v>2707579.00340777</v>
       </c>
       <c r="G97" t="n">
-        <v>256659.444794197</v>
+        <v>154398.281674306</v>
       </c>
       <c r="H97" t="n">
-        <v>88897.7002025581</v>
+        <v>58339.1535525005</v>
       </c>
       <c r="I97" t="n">
-        <v>768475.648187403</v>
+        <v>735480.568212538</v>
       </c>
       <c r="J97" t="n">
-        <v>2707578.83407558</v>
+        <v>2707567.2636034</v>
       </c>
       <c r="K97" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -7003,13 +7307,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2">
@@ -7017,13 +7321,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>693675.035522825</v>
+        <v>696819.590611492</v>
       </c>
       <c r="C2" t="n">
         <v>29.8926361484518</v>
       </c>
       <c r="D2" t="n">
-        <v>1704.45628561902</v>
+        <v>-3571.2962927971</v>
       </c>
     </row>
     <row r="3">
@@ -7031,13 +7335,13 @@
         <v>32</v>
       </c>
       <c r="B3" t="n">
-        <v>713877.265285386</v>
+        <v>716806.113619821</v>
       </c>
       <c r="C3" t="n">
         <v>30.8453711623393</v>
       </c>
       <c r="D3" t="n">
-        <v>1704.45628561902</v>
+        <v>-3571.2962927971</v>
       </c>
     </row>
     <row r="4">
@@ -7045,13 +7349,13 @@
         <v>33</v>
       </c>
       <c r="B4" t="n">
-        <v>741351.451231908</v>
+        <v>742563.980362702</v>
       </c>
       <c r="C4" t="n">
         <v>32.1196063736114</v>
       </c>
       <c r="D4" t="n">
-        <v>1704.45628561902</v>
+        <v>-3571.2962927971</v>
       </c>
     </row>
     <row r="5">
@@ -7059,13 +7363,13 @@
         <v>34</v>
       </c>
       <c r="B5" t="n">
-        <v>722948.456831144</v>
+        <v>715662.524277247</v>
       </c>
       <c r="C5" t="n">
         <v>31.1206878299249</v>
       </c>
       <c r="D5" t="n">
-        <v>1704.45628561902</v>
+        <v>-3571.2962927971</v>
       </c>
     </row>
     <row r="6">
@@ -7073,13 +7377,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>785226.027262072</v>
+        <v>773251.236675916</v>
       </c>
       <c r="C6" t="n">
         <v>33.9964396385333</v>
       </c>
       <c r="D6" t="n">
-        <v>7486.15315952385</v>
+        <v>-14509.146222095</v>
       </c>
     </row>
     <row r="7">
@@ -7087,13 +7391,13 @@
         <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>776784.938712929</v>
+        <v>764340.535946852</v>
       </c>
       <c r="C7" t="n">
         <v>33.4425786849775</v>
       </c>
       <c r="D7" t="n">
-        <v>7486.15315952385</v>
+        <v>-14509.146222095</v>
       </c>
     </row>
     <row r="8">
@@ -7101,13 +7405,13 @@
         <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>801395.003930102</v>
+        <v>801027.501105215</v>
       </c>
       <c r="C8" t="n">
         <v>34.4944594709666</v>
       </c>
       <c r="D8" t="n">
-        <v>7486.15315952385</v>
+        <v>-14509.146222095</v>
       </c>
     </row>
     <row r="9">
@@ -7115,13 +7419,13 @@
         <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>864152.467001964</v>
+        <v>888914.799635087</v>
       </c>
       <c r="C9" t="n">
         <v>37.4008723010846</v>
       </c>
       <c r="D9" t="n">
-        <v>7486.15315952385</v>
+        <v>-14509.146222095</v>
       </c>
     </row>
     <row r="10">
@@ -7129,13 +7433,13 @@
         <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>857526.002300734</v>
+        <v>906067.359933994</v>
       </c>
       <c r="C10" t="n">
         <v>36.6950970075375</v>
       </c>
       <c r="D10" t="n">
-        <v>48638.1473331191</v>
+        <v>-4615.05126696033</v>
       </c>
     </row>
     <row r="11">
@@ -7143,13 +7447,13 @@
         <v>38</v>
       </c>
       <c r="B11" t="n">
-        <v>820801.71880142</v>
+        <v>877995.378962088</v>
       </c>
       <c r="C11" t="n">
         <v>34.8752351337667</v>
       </c>
       <c r="D11" t="n">
-        <v>48638.1473331191</v>
+        <v>-4615.05126696033</v>
       </c>
     </row>
     <row r="12">
@@ -7157,13 +7461,13 @@
         <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>1045278.44104351</v>
+        <v>900668.662417283</v>
       </c>
       <c r="C12" t="n">
-        <v>45.9448023988155</v>
+        <v>36.1507825194369</v>
       </c>
       <c r="D12" t="n">
-        <v>48638.1473331191</v>
+        <v>-4615.05126696033</v>
       </c>
     </row>
     <row r="13">
@@ -7171,13 +7475,13 @@
         <v>40</v>
       </c>
       <c r="B13" t="n">
-        <v>867243.332292606</v>
+        <v>906093.309419353</v>
       </c>
       <c r="C13" t="n">
         <v>37.502423212295</v>
       </c>
       <c r="D13" t="n">
-        <v>48638.1473331191</v>
+        <v>-4615.05126696033</v>
       </c>
     </row>
     <row r="14">
@@ -7185,13 +7489,13 @@
         <v>6</v>
       </c>
       <c r="B14" t="n">
-        <v>825037.71740596</v>
+        <v>846795.099715253</v>
       </c>
       <c r="C14" t="n">
         <v>35.6071644367323</v>
       </c>
       <c r="D14" t="n">
-        <v>90672.9535084106</v>
+        <v>226053.687078029</v>
       </c>
     </row>
     <row r="15">
@@ -7199,13 +7503,13 @@
         <v>41</v>
       </c>
       <c r="B15" t="n">
-        <v>850177.07865135</v>
+        <v>852784.558288095</v>
       </c>
       <c r="C15" t="n">
         <v>37.0592447831553</v>
       </c>
       <c r="D15" t="n">
-        <v>90672.9535084106</v>
+        <v>226053.687078029</v>
       </c>
     </row>
     <row r="16">
@@ -7213,13 +7517,13 @@
         <v>42</v>
       </c>
       <c r="B16" t="n">
-        <v>789266.313452307</v>
+        <v>777785.216194774</v>
       </c>
       <c r="C16" t="n">
         <v>34.1482896413129</v>
       </c>
       <c r="D16" t="n">
-        <v>90672.9535084106</v>
+        <v>226053.687078029</v>
       </c>
     </row>
     <row r="17">
@@ -7227,13 +7531,13 @@
         <v>43</v>
       </c>
       <c r="B17" t="n">
-        <v>718672.878571776</v>
+        <v>705753.308542663</v>
       </c>
       <c r="C17" t="n">
         <v>30.6024333978075</v>
       </c>
       <c r="D17" t="n">
-        <v>90672.9535084106</v>
+        <v>226053.687078029</v>
       </c>
     </row>
     <row r="18">
@@ -7241,13 +7545,13 @@
         <v>7</v>
       </c>
       <c r="B18" t="n">
-        <v>779594.118689264</v>
+        <v>770019.645914344</v>
       </c>
       <c r="C18" t="n">
         <v>33.5636641042044</v>
       </c>
       <c r="D18" t="n">
-        <v>43506.2808636841</v>
+        <v>-5844.33813736588</v>
       </c>
     </row>
     <row r="19">
@@ -7255,13 +7559,13 @@
         <v>44</v>
       </c>
       <c r="B19" t="n">
-        <v>838014.192134304</v>
+        <v>844747.648350224</v>
       </c>
       <c r="C19" t="n">
         <v>36.2906700181984</v>
       </c>
       <c r="D19" t="n">
-        <v>43506.2808636841</v>
+        <v>-5844.33813736588</v>
       </c>
     </row>
     <row r="20">
@@ -7269,13 +7573,13 @@
         <v>45</v>
       </c>
       <c r="B20" t="n">
-        <v>831378.301622772</v>
+        <v>839268.7494806</v>
       </c>
       <c r="C20" t="n">
         <v>35.9785927334916</v>
       </c>
       <c r="D20" t="n">
-        <v>43506.2808636841</v>
+        <v>-5844.33813736588</v>
       </c>
     </row>
     <row r="21">
@@ -7283,13 +7587,13 @@
         <v>46</v>
       </c>
       <c r="B21" t="n">
-        <v>770044.859831604</v>
+        <v>764970.697004647</v>
       </c>
       <c r="C21" t="n">
         <v>33.1331130220831</v>
       </c>
       <c r="D21" t="n">
-        <v>43506.2808636841</v>
+        <v>-5844.33813736588</v>
       </c>
     </row>
     <row r="22">
@@ -7297,13 +7601,13 @@
         <v>8</v>
       </c>
       <c r="B22" t="n">
-        <v>791380.972373993</v>
+        <v>772495.989000272</v>
       </c>
       <c r="C22" t="n">
         <v>34.4383659394549</v>
       </c>
       <c r="D22" t="n">
-        <v>47655.7321159658</v>
+        <v>-4847.75515040196</v>
       </c>
     </row>
     <row r="23">
@@ -7311,13 +7615,13 @@
         <v>47</v>
       </c>
       <c r="B23" t="n">
-        <v>766155.787902843</v>
+        <v>738650.266151332</v>
       </c>
       <c r="C23" t="n">
         <v>33.4233491023193</v>
       </c>
       <c r="D23" t="n">
-        <v>47655.7321159658</v>
+        <v>-4847.75515040196</v>
       </c>
     </row>
     <row r="24">
@@ -7325,13 +7629,13 @@
         <v>48</v>
       </c>
       <c r="B24" t="n">
-        <v>700777.116787707</v>
+        <v>670103.058899786</v>
       </c>
       <c r="C24" t="n">
         <v>30.3789788767027</v>
       </c>
       <c r="D24" t="n">
-        <v>47655.7321159658</v>
+        <v>-4847.75515040196</v>
       </c>
     </row>
     <row r="25">
@@ -7339,13 +7643,13 @@
         <v>49</v>
       </c>
       <c r="B25" t="n">
-        <v>532005.192374694</v>
+        <v>609044.981544835</v>
       </c>
       <c r="C25" t="n">
-        <v>22.2179932447678</v>
+        <v>27.1787585201009</v>
       </c>
       <c r="D25" t="n">
-        <v>47655.7321159658</v>
+        <v>-4847.75515040196</v>
       </c>
     </row>
     <row r="26">
@@ -7353,13 +7657,13 @@
         <v>9</v>
       </c>
       <c r="B26" t="n">
-        <v>556380.52732517</v>
+        <v>537571.741922916</v>
       </c>
       <c r="C26" t="n">
         <v>23.6788556880949</v>
       </c>
       <c r="D26" t="n">
-        <v>-1950.30481664697</v>
+        <v>-128495.91332898</v>
       </c>
     </row>
     <row r="27">
@@ -7367,13 +7671,13 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>610553.243471822</v>
+        <v>611261.54289922</v>
       </c>
       <c r="C27" t="n">
         <v>26.333991525001</v>
       </c>
       <c r="D27" t="n">
-        <v>-1950.30481664697</v>
+        <v>-128495.91332898</v>
       </c>
     </row>
     <row r="28">
@@ -7381,13 +7685,13 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>610431.86452135</v>
+        <v>617183.255957023</v>
       </c>
       <c r="C28" t="n">
         <v>26.3400328285952</v>
       </c>
       <c r="D28" t="n">
-        <v>-1950.30481664697</v>
+        <v>-128495.91332898</v>
       </c>
     </row>
     <row r="29">
@@ -7395,13 +7699,13 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>676872.522089451</v>
+        <v>688202.714661951</v>
       </c>
       <c r="C29" t="n">
         <v>29.5969783576007</v>
       </c>
       <c r="D29" t="n">
-        <v>-1950.30481664697</v>
+        <v>-128495.91332898</v>
       </c>
     </row>
     <row r="30">
@@ -7409,13 +7713,13 @@
         <v>10</v>
       </c>
       <c r="B30" t="n">
-        <v>519902.175308407</v>
+        <v>522294.596851805</v>
       </c>
       <c r="C30" t="n">
         <v>22.1540465041887</v>
       </c>
       <c r="D30" t="n">
-        <v>-40831.064910992</v>
+        <v>-26128.6907358752</v>
       </c>
     </row>
     <row r="31">
@@ -7423,13 +7727,13 @@
         <v>53</v>
       </c>
       <c r="B31" t="n">
-        <v>586603.095546674</v>
+        <v>589323.389639892</v>
       </c>
       <c r="C31" t="n">
         <v>25.4584128921373</v>
       </c>
       <c r="D31" t="n">
-        <v>-40831.064910992</v>
+        <v>-26128.6907358752</v>
       </c>
     </row>
     <row r="32">
@@ -7437,13 +7741,13 @@
         <v>54</v>
       </c>
       <c r="B32" t="n">
-        <v>597154.294347256</v>
+        <v>598424.651887758</v>
       </c>
       <c r="C32" t="n">
         <v>26.0549025147972</v>
       </c>
       <c r="D32" t="n">
-        <v>-40831.064910992</v>
+        <v>-26128.6907358752</v>
       </c>
     </row>
     <row r="33">
@@ -7451,13 +7755,13 @@
         <v>55</v>
       </c>
       <c r="B33" t="n">
-        <v>506778.971593518</v>
+        <v>500372.028321877</v>
       </c>
       <c r="C33" t="n">
         <v>21.7575851957184</v>
       </c>
       <c r="D33" t="n">
-        <v>-40831.064910992</v>
+        <v>-26128.6907358752</v>
       </c>
     </row>
     <row r="34">
@@ -7465,13 +7769,13 @@
         <v>11</v>
       </c>
       <c r="B34" t="n">
-        <v>434971.985759493</v>
+        <v>429083.200805299</v>
       </c>
       <c r="C34" t="n">
         <v>18.5488891820371</v>
       </c>
       <c r="D34" t="n">
-        <v>-69037.4608748821</v>
+        <v>-32911.175807436</v>
       </c>
     </row>
     <row r="35">
@@ -7479,13 +7783,13 @@
         <v>56</v>
       </c>
       <c r="B35" t="n">
-        <v>482344.266189979</v>
+        <v>484350.141175357</v>
       </c>
       <c r="C35" t="n">
         <v>20.9436083394104</v>
       </c>
       <c r="D35" t="n">
-        <v>-69037.4608748821</v>
+        <v>-32911.175807436</v>
       </c>
     </row>
     <row r="36">
@@ -7493,13 +7797,13 @@
         <v>57</v>
       </c>
       <c r="B36" t="n">
-        <v>487154.864865582</v>
+        <v>490907.791795631</v>
       </c>
       <c r="C36" t="n">
         <v>21.1946986322106</v>
       </c>
       <c r="D36" t="n">
-        <v>-69037.4608748821</v>
+        <v>-32911.175807436</v>
       </c>
     </row>
     <row r="37">
@@ -7507,13 +7811,13 @@
         <v>58</v>
       </c>
       <c r="B37" t="n">
-        <v>456991.743636593</v>
+        <v>457098.144609971</v>
       </c>
       <c r="C37" t="n">
         <v>19.6725919524686</v>
       </c>
       <c r="D37" t="n">
-        <v>-69037.4608748821</v>
+        <v>-32911.175807436</v>
       </c>
     </row>
     <row r="38">
@@ -7521,13 +7825,13 @@
         <v>12</v>
       </c>
       <c r="B38" t="n">
-        <v>462758.371176576</v>
+        <v>464518.203847399</v>
       </c>
       <c r="C38" t="n">
         <v>20.0518192358075</v>
       </c>
       <c r="D38" t="n">
-        <v>-109417.035585943</v>
+        <v>-42624.9695877254</v>
       </c>
     </row>
     <row r="39">
@@ -7535,13 +7839,13 @@
         <v>59</v>
       </c>
       <c r="B39" t="n">
-        <v>489513.670710112</v>
+        <v>492235.06757152</v>
       </c>
       <c r="C39" t="n">
         <v>21.2840681138174</v>
       </c>
       <c r="D39" t="n">
-        <v>-109417.035585943</v>
+        <v>-42624.9695877254</v>
       </c>
     </row>
     <row r="40">
@@ -7549,13 +7853,13 @@
         <v>60</v>
       </c>
       <c r="B40" t="n">
-        <v>457105.958310463</v>
+        <v>455779.951736406</v>
       </c>
       <c r="C40" t="n">
         <v>19.6696039310751</v>
       </c>
       <c r="D40" t="n">
-        <v>-109417.035585943</v>
+        <v>-42624.9695877254</v>
       </c>
     </row>
     <row r="41">
@@ -7563,13 +7867,13 @@
         <v>61</v>
       </c>
       <c r="B41" t="n">
-        <v>438030.436665605</v>
+        <v>434852.044177024</v>
       </c>
       <c r="C41" t="n">
         <v>18.7475239609615</v>
       </c>
       <c r="D41" t="n">
-        <v>-109417.035585943</v>
+        <v>-42624.9695877254</v>
       </c>
     </row>
     <row r="42">
@@ -7577,13 +7881,13 @@
         <v>13</v>
       </c>
       <c r="B42" t="n">
-        <v>434095.159923189</v>
+        <v>431585.986310396</v>
       </c>
       <c r="C42" t="n">
         <v>18.6146733535631</v>
       </c>
       <c r="D42" t="n">
-        <v>-111042.320499141</v>
+        <v>-43015.1421642036</v>
       </c>
     </row>
     <row r="43">
@@ -7591,13 +7895,13 @@
         <v>62</v>
       </c>
       <c r="B43" t="n">
-        <v>459757.073303568</v>
+        <v>460793.163171117</v>
       </c>
       <c r="C43" t="n">
         <v>19.9167293251368</v>
       </c>
       <c r="D43" t="n">
-        <v>-111042.320499141</v>
+        <v>-43015.1421642036</v>
       </c>
     </row>
     <row r="44">
@@ -7605,13 +7909,13 @@
         <v>63</v>
       </c>
       <c r="B44" t="n">
-        <v>436370.524385156</v>
+        <v>436159.672905301</v>
       </c>
       <c r="C44" t="n">
         <v>18.8229186042018</v>
       </c>
       <c r="D44" t="n">
-        <v>-111042.320499141</v>
+        <v>-43015.1421642036</v>
       </c>
     </row>
     <row r="45">
@@ -7619,13 +7923,13 @@
         <v>64</v>
       </c>
       <c r="B45" t="n">
-        <v>443543.338793358</v>
+        <v>445204.121053786</v>
       </c>
       <c r="C45" t="n">
         <v>19.2195650875716</v>
       </c>
       <c r="D45" t="n">
-        <v>-111042.320499141</v>
+        <v>-43015.1421642036</v>
       </c>
     </row>
     <row r="46">
@@ -7633,13 +7937,13 @@
         <v>14</v>
       </c>
       <c r="B46" t="n">
-        <v>430987.258682219</v>
+        <v>433410.772420481</v>
       </c>
       <c r="C46" t="n">
         <v>18.6966542510372</v>
       </c>
       <c r="D46" t="n">
-        <v>-119563.087177404</v>
+        <v>-45064.654904162</v>
       </c>
     </row>
     <row r="47">
@@ -7647,13 +7951,13 @@
         <v>65</v>
       </c>
       <c r="B47" t="n">
-        <v>442196.925539342</v>
+        <v>445673.717761448</v>
       </c>
       <c r="C47" t="n">
         <v>19.2491652136183</v>
       </c>
       <c r="D47" t="n">
-        <v>-119563.087177404</v>
+        <v>-45064.654904162</v>
       </c>
     </row>
     <row r="48">
@@ -7661,13 +7965,13 @@
         <v>66</v>
       </c>
       <c r="B48" t="n">
-        <v>420757.513695116</v>
+        <v>420741.845446614</v>
       </c>
       <c r="C48" t="n">
         <v>18.167994426233</v>
       </c>
       <c r="D48" t="n">
-        <v>-119563.087177404</v>
+        <v>-45064.654904162</v>
       </c>
     </row>
     <row r="49">
@@ -7675,13 +7979,13 @@
         <v>67</v>
       </c>
       <c r="B49" t="n">
-        <v>388266.318762908</v>
+        <v>382358.615125655</v>
       </c>
       <c r="C49" t="n">
         <v>16.5074865514744</v>
       </c>
       <c r="D49" t="n">
-        <v>-119563.087177404</v>
+        <v>-45064.654904162</v>
       </c>
     </row>
     <row r="50">
@@ -7689,13 +7993,13 @@
         <v>15</v>
       </c>
       <c r="B50" t="n">
-        <v>395880.354201184</v>
+        <v>387721.647784265</v>
       </c>
       <c r="C50" t="n">
         <v>16.8209571571949</v>
       </c>
       <c r="D50" t="n">
-        <v>-130156.034960658</v>
+        <v>-47611.9435492859</v>
       </c>
     </row>
     <row r="51">
@@ -7703,13 +8007,13 @@
         <v>68</v>
       </c>
       <c r="B51" t="n">
-        <v>456200.57084995</v>
+        <v>453584.99976735</v>
       </c>
       <c r="C51" t="n">
         <v>19.706883217402</v>
       </c>
       <c r="D51" t="n">
-        <v>-130156.034960658</v>
+        <v>-47611.9435492859</v>
       </c>
     </row>
     <row r="52">
@@ -7717,13 +8021,13 @@
         <v>69</v>
       </c>
       <c r="B52" t="n">
-        <v>468989.345608107</v>
+        <v>470707.284664486</v>
       </c>
       <c r="C52" t="n">
         <v>20.3277416570306</v>
       </c>
       <c r="D52" t="n">
-        <v>-130156.034960658</v>
+        <v>-47611.9435492859</v>
       </c>
     </row>
     <row r="53">
@@ -7731,13 +8035,13 @@
         <v>70</v>
       </c>
       <c r="B53" t="n">
-        <v>476427.186325712</v>
+        <v>485460.567018827</v>
       </c>
       <c r="C53" t="n">
         <v>20.7427159087346</v>
       </c>
       <c r="D53" t="n">
-        <v>-130156.034960658</v>
+        <v>-47611.9435492859</v>
       </c>
     </row>
     <row r="54">
@@ -7745,13 +8049,13 @@
         <v>16</v>
       </c>
       <c r="B54" t="n">
-        <v>454061.247472605</v>
+        <v>469756.996400795</v>
       </c>
       <c r="C54" t="n">
         <v>19.687643449942</v>
       </c>
       <c r="D54" t="n">
-        <v>-116815.895459759</v>
+        <v>-44402.6971215636</v>
       </c>
     </row>
     <row r="55">
@@ -7759,13 +8063,13 @@
         <v>71</v>
       </c>
       <c r="B55" t="n">
-        <v>469431.607950309</v>
+        <v>483841.653859849</v>
       </c>
       <c r="C55" t="n">
         <v>20.2449051530729</v>
       </c>
       <c r="D55" t="n">
-        <v>-116815.895459759</v>
+        <v>-44402.6971215636</v>
       </c>
     </row>
     <row r="56">
@@ -7773,13 +8077,13 @@
         <v>72</v>
       </c>
       <c r="B56" t="n">
-        <v>482935.646583826</v>
+        <v>482971.451516115</v>
       </c>
       <c r="C56" t="n">
         <v>20.4107512168257</v>
       </c>
       <c r="D56" t="n">
-        <v>-116815.895459759</v>
+        <v>-44402.6971215636</v>
       </c>
     </row>
     <row r="57">
@@ -7787,13 +8091,13 @@
         <v>73</v>
       </c>
       <c r="B57" t="n">
-        <v>467023.118818239</v>
+        <v>436858.425004113</v>
       </c>
       <c r="C57" t="n">
         <v>18.8402237437111</v>
       </c>
       <c r="D57" t="n">
-        <v>-116815.895459759</v>
+        <v>-44402.6971215636</v>
       </c>
     </row>
     <row r="58">
@@ -7801,13 +8105,13 @@
         <v>17</v>
       </c>
       <c r="B58" t="n">
-        <v>338963.820463888</v>
+        <v>419893.697606549</v>
       </c>
       <c r="C58" t="n">
-        <v>11.2650526395676</v>
+        <v>18.6246974839182</v>
       </c>
       <c r="D58" t="n">
-        <v>-73333.6251232475</v>
+        <v>-4147.22191441478</v>
       </c>
     </row>
     <row r="59">
@@ -7815,13 +8119,13 @@
         <v>74</v>
       </c>
       <c r="B59" t="n">
-        <v>372180.268593558</v>
+        <v>423718.275415919</v>
       </c>
       <c r="C59" t="n">
-        <v>12.6519790207071</v>
+        <v>19.3276013120538</v>
       </c>
       <c r="D59" t="n">
-        <v>-73333.6251232475</v>
+        <v>-4147.22191441478</v>
       </c>
     </row>
     <row r="60">
@@ -7829,13 +8133,13 @@
         <v>75</v>
       </c>
       <c r="B60" t="n">
-        <v>477865.716217026</v>
+        <v>396518.186926182</v>
       </c>
       <c r="C60" t="n">
         <v>18.4360859079377</v>
       </c>
       <c r="D60" t="n">
-        <v>-73333.6251232475</v>
+        <v>-4147.22191441478</v>
       </c>
     </row>
     <row r="61">
@@ -7843,13 +8147,13 @@
         <v>76</v>
       </c>
       <c r="B61" t="n">
-        <v>468041.028595298</v>
+        <v>416895.704731334</v>
       </c>
       <c r="C61" t="n">
         <v>19.4405392689352</v>
       </c>
       <c r="D61" t="n">
-        <v>-73333.6251232475</v>
+        <v>-4147.22191441478</v>
       </c>
     </row>
     <row r="62">
@@ -7857,13 +8161,13 @@
         <v>18</v>
       </c>
       <c r="B62" t="n">
-        <v>461799.797852037</v>
+        <v>432120.697831689</v>
       </c>
       <c r="C62" t="n">
         <v>20.7412944837282</v>
       </c>
       <c r="D62" t="n">
-        <v>66481.3179052956</v>
+        <v>-145003.583861858</v>
       </c>
     </row>
     <row r="63">
@@ -7871,13 +8175,13 @@
         <v>77</v>
       </c>
       <c r="B63" t="n">
-        <v>452797.466261432</v>
+        <v>456687.597362378</v>
       </c>
       <c r="C63" t="n">
         <v>21.5595069375397</v>
       </c>
       <c r="D63" t="n">
-        <v>66481.3179052956</v>
+        <v>-145003.583861858</v>
       </c>
     </row>
     <row r="64">
@@ -7885,13 +8189,13 @@
         <v>78</v>
       </c>
       <c r="B64" t="n">
-        <v>423012.970280704</v>
+        <v>437458.868871804</v>
       </c>
       <c r="C64" t="n">
         <v>20.2774186884528</v>
       </c>
       <c r="D64" t="n">
-        <v>66481.3179052956</v>
+        <v>-145003.583861858</v>
       </c>
     </row>
     <row r="65">
@@ -7899,13 +8203,13 @@
         <v>79</v>
       </c>
       <c r="B65" t="n">
-        <v>466404.977254312</v>
+        <v>477730.029852894</v>
       </c>
       <c r="C65" t="n">
         <v>21.4819382639252</v>
       </c>
       <c r="D65" t="n">
-        <v>66481.3179052956</v>
+        <v>-145003.583861858</v>
       </c>
     </row>
     <row r="66">
@@ -7913,13 +8217,13 @@
         <v>19</v>
       </c>
       <c r="B66" t="n">
-        <v>478995.247712644</v>
+        <v>495383.210742571</v>
       </c>
       <c r="C66" t="n">
         <v>21.7288063759888</v>
       </c>
       <c r="D66" t="n">
-        <v>-242663.237192852</v>
+        <v>-183403.434477159</v>
       </c>
     </row>
     <row r="67">
@@ -7927,13 +8231,13 @@
         <v>80</v>
       </c>
       <c r="B67" t="n">
-        <v>529106.851610032</v>
+        <v>530772.37242372</v>
       </c>
       <c r="C67" t="n">
         <v>22.7439615952178</v>
       </c>
       <c r="D67" t="n">
-        <v>-242663.237192852</v>
+        <v>-183403.434477159</v>
       </c>
     </row>
     <row r="68">
@@ -7941,13 +8245,13 @@
         <v>81</v>
       </c>
       <c r="B68" t="n">
-        <v>535940.716198014</v>
+        <v>527262.169608948</v>
       </c>
       <c r="C68" t="n">
         <v>22.2147136575304</v>
       </c>
       <c r="D68" t="n">
-        <v>-242663.237192852</v>
+        <v>-183403.434477159</v>
       </c>
     </row>
     <row r="69">
@@ -7955,13 +8259,13 @@
         <v>82</v>
       </c>
       <c r="B69" t="n">
-        <v>552356.007981801</v>
+        <v>542964.483966215</v>
       </c>
       <c r="C69" t="n">
         <v>22.7215606526682</v>
       </c>
       <c r="D69" t="n">
-        <v>-242663.237192852</v>
+        <v>-183403.434477159</v>
       </c>
     </row>
     <row r="70">
@@ -7969,13 +8273,13 @@
         <v>20</v>
       </c>
       <c r="B70" t="n">
-        <v>564454.023672474</v>
+        <v>561260.030751199</v>
       </c>
       <c r="C70" t="n">
         <v>22.6210139604755</v>
       </c>
       <c r="D70" t="n">
-        <v>-59847.081490125</v>
+        <v>-11475.1626747409</v>
       </c>
     </row>
     <row r="71">
@@ -7983,13 +8287,13 @@
         <v>83</v>
       </c>
       <c r="B71" t="n">
-        <v>567562.698286858</v>
+        <v>568211.127048203</v>
       </c>
       <c r="C71" t="n">
         <v>22.7960079826236</v>
       </c>
       <c r="D71" t="n">
-        <v>-59847.081490125</v>
+        <v>-11475.1626747409</v>
       </c>
     </row>
     <row r="72">
@@ -7997,13 +8301,13 @@
         <v>84</v>
       </c>
       <c r="B72" t="n">
-        <v>580434.199142568</v>
+        <v>583093.937369673</v>
       </c>
       <c r="C72" t="n">
         <v>23.1970162213121</v>
       </c>
       <c r="D72" t="n">
-        <v>-59847.081490125</v>
+        <v>-11475.1626747409</v>
       </c>
     </row>
     <row r="73">
@@ -8011,13 +8315,13 @@
         <v>85</v>
       </c>
       <c r="B73" t="n">
-        <v>573093.159448575</v>
+        <v>572954.386139285</v>
       </c>
       <c r="C73" t="n">
         <v>22.3606902762981</v>
       </c>
       <c r="D73" t="n">
-        <v>-59847.081490125</v>
+        <v>-11475.1626747409</v>
       </c>
     </row>
     <row r="74">
@@ -8025,13 +8329,13 @@
         <v>21</v>
       </c>
       <c r="B74" t="n">
-        <v>653291.419136382</v>
+        <v>655832.50488039</v>
       </c>
       <c r="C74" t="n">
         <v>24.7182003894184</v>
       </c>
       <c r="D74" t="n">
-        <v>97226.7567842309</v>
+        <v>142411.65389176</v>
       </c>
     </row>
     <row r="75">
@@ -8039,13 +8343,13 @@
         <v>86</v>
       </c>
       <c r="B75" t="n">
-        <v>685404.606384254</v>
+        <v>687009.488314169</v>
       </c>
       <c r="C75" t="n">
         <v>25.5375285057972</v>
       </c>
       <c r="D75" t="n">
-        <v>97226.7567842309</v>
+        <v>142411.65389176</v>
       </c>
     </row>
     <row r="76">
@@ -8053,13 +8357,13 @@
         <v>87</v>
       </c>
       <c r="B76" t="n">
-        <v>688831.595358702</v>
+        <v>687392.601198864</v>
       </c>
       <c r="C76" t="n">
         <v>24.936597526205</v>
       </c>
       <c r="D76" t="n">
-        <v>97226.7567842309</v>
+        <v>142411.65389176</v>
       </c>
     </row>
     <row r="77">
@@ -8067,13 +8371,13 @@
         <v>88</v>
       </c>
       <c r="B77" t="n">
-        <v>702333.744080665</v>
+        <v>699594.990875346</v>
       </c>
       <c r="C77" t="n">
         <v>24.8076735785794</v>
       </c>
       <c r="D77" t="n">
-        <v>97226.7567842309</v>
+        <v>142411.65389176</v>
       </c>
     </row>
     <row r="78">
@@ -8081,13 +8385,13 @@
         <v>22</v>
       </c>
       <c r="B78" t="n">
-        <v>793233.240504466</v>
+        <v>795381.610150238</v>
       </c>
       <c r="C78" t="n">
         <v>27.0678722004911</v>
       </c>
       <c r="D78" t="n">
-        <v>356669.736393175</v>
+        <v>383483.303967123</v>
       </c>
     </row>
     <row r="79">
@@ -8095,13 +8399,13 @@
         <v>89</v>
       </c>
       <c r="B79" t="n">
-        <v>790819.691471664</v>
+        <v>792578.355391299</v>
       </c>
       <c r="C79" t="n">
         <v>27.1238115907225</v>
       </c>
       <c r="D79" t="n">
-        <v>356669.736393175</v>
+        <v>383483.303967123</v>
       </c>
     </row>
     <row r="80">
@@ -8109,13 +8413,13 @@
         <v>90</v>
       </c>
       <c r="B80" t="n">
-        <v>730014.663034939</v>
+        <v>727329.846539497</v>
       </c>
       <c r="C80" t="n">
         <v>25.3108618971323</v>
       </c>
       <c r="D80" t="n">
-        <v>356669.736393175</v>
+        <v>383483.303967123</v>
       </c>
     </row>
     <row r="81">
@@ -8123,13 +8427,13 @@
         <v>91</v>
       </c>
       <c r="B81" t="n">
-        <v>710613.423200079</v>
+        <v>709348.195775094</v>
       </c>
       <c r="C81" t="n">
         <v>26.5008649492511</v>
       </c>
       <c r="D81" t="n">
-        <v>356669.736393175</v>
+        <v>383483.303967123</v>
       </c>
     </row>
     <row r="82">
@@ -8137,13 +8441,13 @@
         <v>23</v>
       </c>
       <c r="B82" t="n">
-        <v>685499.887304651</v>
+        <v>685340.72982436</v>
       </c>
       <c r="C82" t="n">
         <v>27.4866210074282</v>
       </c>
       <c r="D82" t="n">
-        <v>528515.306087108</v>
+        <v>543108.67237136</v>
       </c>
     </row>
     <row r="83">
@@ -8151,13 +8455,13 @@
         <v>92</v>
       </c>
       <c r="B83" t="n">
-        <v>638783.151206106</v>
+        <v>637453.008716306</v>
       </c>
       <c r="C83" t="n">
         <v>27.3134542222783</v>
       </c>
       <c r="D83" t="n">
-        <v>528515.306087108</v>
+        <v>543108.67237136</v>
       </c>
     </row>
     <row r="84">
@@ -8165,13 +8469,13 @@
         <v>93</v>
       </c>
       <c r="B84" t="n">
-        <v>629576.610845039</v>
+        <v>629178.063806949</v>
       </c>
       <c r="C84" t="n">
         <v>27.9601144234342</v>
       </c>
       <c r="D84" t="n">
-        <v>528515.306087108</v>
+        <v>543108.67237136</v>
       </c>
     </row>
     <row r="85">
@@ -8179,13 +8483,13 @@
         <v>94</v>
       </c>
       <c r="B85" t="n">
-        <v>649847.526393251</v>
+        <v>651684.92674722</v>
       </c>
       <c r="C85" t="n">
         <v>29.0344563851475</v>
       </c>
       <c r="D85" t="n">
-        <v>528515.306087108</v>
+        <v>543108.67237136</v>
       </c>
     </row>
     <row r="86">
@@ -8193,13 +8497,13 @@
         <v>24</v>
       </c>
       <c r="B86" t="n">
-        <v>629394.507074777</v>
+        <v>626539.951314996</v>
       </c>
       <c r="C86" t="n">
         <v>29.9575968210024</v>
       </c>
       <c r="D86" t="n">
-        <v>-11086.5194221861</v>
+        <v>-8281.46258144546</v>
       </c>
     </row>
     <row r="87">
@@ -8207,13 +8511,13 @@
         <v>95</v>
       </c>
       <c r="B87" t="n">
-        <v>652043.234392542</v>
+        <v>651040.241816664</v>
       </c>
       <c r="C87" t="n">
         <v>30.4708532868512</v>
       </c>
       <c r="D87" t="n">
-        <v>-11086.5194221861</v>
+        <v>-8281.46258144546</v>
       </c>
     </row>
     <row r="88">
@@ -8221,13 +8525,13 @@
         <v>96</v>
       </c>
       <c r="B88" t="n">
-        <v>650973.586431011</v>
+        <v>650469.423960331</v>
       </c>
       <c r="C88" t="n">
         <v>30.1604105140343</v>
       </c>
       <c r="D88" t="n">
-        <v>-11086.5194221861</v>
+        <v>-8281.46258144546</v>
       </c>
     </row>
     <row r="89">
@@ -8235,13 +8539,13 @@
         <v>97</v>
       </c>
       <c r="B89" t="n">
-        <v>683496.427734598</v>
+        <v>687833.451091196</v>
       </c>
       <c r="C89" t="n">
         <v>31.8240912125206</v>
       </c>
       <c r="D89" t="n">
-        <v>-11086.5194221861</v>
+        <v>-8281.46258144546</v>
       </c>
     </row>
     <row r="90">
@@ -8249,13 +8553,13 @@
         <v>25</v>
       </c>
       <c r="B90" t="n">
-        <v>660613.54832085</v>
+        <v>662780.674904005</v>
       </c>
       <c r="C90" t="n">
         <v>32.200838041302</v>
       </c>
       <c r="D90" t="n">
-        <v>-216393.039166634</v>
+        <v>-235202.001758699</v>
       </c>
     </row>
     <row r="91">
@@ -8263,13 +8567,13 @@
         <v>98</v>
       </c>
       <c r="B91" t="n">
-        <v>672389.190048278</v>
+        <v>674707.390089486</v>
       </c>
       <c r="C91" t="n">
         <v>32.6003594531689</v>
       </c>
       <c r="D91" t="n">
-        <v>-216393.039166634</v>
+        <v>-235202.001758699</v>
       </c>
     </row>
     <row r="92">
@@ -8277,13 +8581,13 @@
         <v>99</v>
       </c>
       <c r="B92" t="n">
-        <v>713350.94127962</v>
+        <v>715087.862948494</v>
       </c>
       <c r="C92" t="n">
         <v>33.8391910266437</v>
       </c>
       <c r="D92" t="n">
-        <v>-216393.039166634</v>
+        <v>-235202.001758699</v>
       </c>
     </row>
     <row r="93">
@@ -8291,13 +8595,13 @@
         <v>100</v>
       </c>
       <c r="B93" t="n">
-        <v>716481.822231148</v>
+        <v>710245.509902057</v>
       </c>
       <c r="C93" t="n">
         <v>32.6456733742269</v>
       </c>
       <c r="D93" t="n">
-        <v>-216393.039166634</v>
+        <v>-235202.001758699</v>
       </c>
     </row>
     <row r="94">
@@ -8305,13 +8609,13 @@
         <v>26</v>
       </c>
       <c r="B94" t="n">
-        <v>699805.636729281</v>
+        <v>677862.167347616</v>
       </c>
       <c r="C94" t="n">
         <v>30.0835465799183</v>
       </c>
       <c r="D94" t="n">
-        <v>-251223.191547703</v>
+        <v>-288093.752380471</v>
       </c>
     </row>
     <row r="95">
@@ -8319,13 +8623,13 @@
         <v>101</v>
       </c>
       <c r="B95" t="n">
-        <v>569423.887157314</v>
+        <v>664164.964979467</v>
       </c>
       <c r="C95" t="n">
-        <v>22.2696201283946</v>
+        <v>28.4232967648602</v>
       </c>
       <c r="D95" t="n">
-        <v>-251223.191547703</v>
+        <v>-288093.752380471</v>
       </c>
     </row>
     <row r="96">
@@ -8333,13 +8637,13 @@
         <v>102</v>
       </c>
       <c r="B96" t="n">
-        <v>669873.66200158</v>
+        <v>630059.563063778</v>
       </c>
       <c r="C96" t="n">
         <v>26.2074788467085</v>
       </c>
       <c r="D96" t="n">
-        <v>-251223.191547703</v>
+        <v>-288093.752380471</v>
       </c>
     </row>
     <row r="97">
@@ -8347,13 +8651,13 @@
         <v>103</v>
       </c>
       <c r="B97" t="n">
-        <v>768475.648187403</v>
+        <v>735480.568212538</v>
       </c>
       <c r="C97" t="n">
         <v>30.5380990761642</v>
       </c>
       <c r="D97" t="n">
-        <v>-251223.191547703</v>
+        <v>-288093.752380471</v>
       </c>
     </row>
     <row r="98">
@@ -8361,13 +8665,13 @@
         <v>104</v>
       </c>
       <c r="B98" t="n">
-        <v>682618.509218078</v>
+        <v>701339.181489187</v>
       </c>
       <c r="C98" t="n">
-        <v>28.5792369511232</v>
+        <v>29.991389969148</v>
       </c>
       <c r="D98" t="n">
-        <v>148007.195727594</v>
+        <v>4932.80740743607</v>
       </c>
     </row>
     <row r="99">
@@ -8375,13 +8679,13 @@
         <v>105</v>
       </c>
       <c r="B99" t="n">
-        <v>665235.363495713</v>
+        <v>693265.891534752</v>
       </c>
       <c r="C99" t="n">
-        <v>27.7306201965278</v>
+        <v>29.637124249032</v>
       </c>
       <c r="D99" t="n">
-        <v>148007.195727594</v>
+        <v>4731.81531800192</v>
       </c>
     </row>
     <row r="100">
@@ -8389,13 +8693,13 @@
         <v>106</v>
       </c>
       <c r="B100" t="n">
-        <v>680000.477103644</v>
+        <v>682427.596854815</v>
       </c>
       <c r="C100" t="n">
-        <v>28.451428903497</v>
+        <v>29.1643108667926</v>
       </c>
       <c r="D100" t="n">
-        <v>148007.195727594</v>
+        <v>4329.83113913362</v>
       </c>
     </row>
     <row r="101">
@@ -8403,13 +8707,13 @@
         <v>107</v>
       </c>
       <c r="B101" t="n">
-        <v>682066.088442725</v>
+        <v>702951.299343297</v>
       </c>
       <c r="C101" t="n">
-        <v>28.5522686720189</v>
+        <v>30.0883828228454</v>
       </c>
       <c r="D101" t="n">
-        <v>148007.195727594</v>
+        <v>3726.85487083118</v>
       </c>
     </row>
     <row r="102">
@@ -8417,13 +8721,13 @@
         <v>108</v>
       </c>
       <c r="B102" t="n">
-        <v>677474.195334591</v>
+        <v>699942.801388586</v>
       </c>
       <c r="C102" t="n">
-        <v>28.3280999577303</v>
+        <v>29.9717255019203</v>
       </c>
       <c r="D102" t="n">
-        <v>148007.195727594</v>
+        <v>2922.88651309458</v>
       </c>
     </row>
     <row r="103">
@@ -8431,13 +8735,13 @@
         <v>109</v>
       </c>
       <c r="B103" t="n">
-        <v>677779.897136095</v>
+        <v>697932.084806625</v>
       </c>
       <c r="C103" t="n">
-        <v>28.3430238198902</v>
+        <v>29.8961319380416</v>
       </c>
       <c r="D103" t="n">
-        <v>148007.195727594</v>
+        <v>2272.8760330627</v>
       </c>
     </row>
     <row r="104">
@@ -8445,13 +8749,13 @@
         <v>110</v>
       </c>
       <c r="B104" t="n">
-        <v>679023.791770127</v>
+        <v>695424.756077559</v>
       </c>
       <c r="C104" t="n">
-        <v>28.40374872229</v>
+        <v>29.7952425587323</v>
       </c>
       <c r="D104" t="n">
-        <v>148007.195727594</v>
+        <v>1776.82343073553</v>
       </c>
     </row>
     <row r="105">
@@ -8459,13 +8763,13 @@
         <v>111</v>
       </c>
       <c r="B105" t="n">
-        <v>678695.403065164</v>
+        <v>699702.868053735</v>
       </c>
       <c r="C105" t="n">
-        <v>28.3877173225938</v>
+        <v>29.992421931367</v>
       </c>
       <c r="D105" t="n">
-        <v>148007.195727594</v>
+        <v>1434.72870611308</v>
       </c>
     </row>
     <row r="106">
@@ -8473,13 +8777,13 @@
         <v>112</v>
       </c>
       <c r="B106" t="n">
-        <v>678406.148252323</v>
+        <v>699053.043464642</v>
       </c>
       <c r="C106" t="n">
-        <v>28.3735963755314</v>
+        <v>29.9675294787798</v>
       </c>
       <c r="D106" t="n">
-        <v>148007.195727594</v>
+        <v>1246.59185919534</v>
       </c>
     </row>
     <row r="107">
@@ -8487,13 +8791,13 @@
         <v>113</v>
       </c>
       <c r="B107" t="n">
-        <v>678555.539098665</v>
+        <v>698606.75769152</v>
       </c>
       <c r="C107" t="n">
-        <v>28.3808893924118</v>
+        <v>29.9513992506052</v>
       </c>
       <c r="D107" t="n">
-        <v>148007.195727594</v>
+        <v>1071.55884276102</v>
       </c>
     </row>
     <row r="108">
@@ -8501,13 +8805,13 @@
         <v>114</v>
       </c>
       <c r="B108" t="n">
-        <v>678608.616871789</v>
+        <v>698045.135591818</v>
       </c>
       <c r="C108" t="n">
-        <v>28.3834805625193</v>
+        <v>29.9298713767341</v>
       </c>
       <c r="D108" t="n">
-        <v>148007.195727594</v>
+        <v>909.629656810143</v>
       </c>
     </row>
     <row r="109">
@@ -8515,13 +8819,13 @@
         <v>115</v>
       </c>
       <c r="B109" t="n">
-        <v>678555.906331269</v>
+        <v>698922.028684904</v>
       </c>
       <c r="C109" t="n">
-        <v>28.3809073201072</v>
+        <v>29.9719457030222</v>
       </c>
       <c r="D109" t="n">
-        <v>148007.195727594</v>
+        <v>760.804301342691</v>
       </c>
     </row>
     <row r="110">
@@ -8529,13 +8833,13 @@
         <v>116</v>
       </c>
       <c r="B110" t="n">
-        <v>678551.080651599</v>
+        <v>698738.025137637</v>
       </c>
       <c r="C110" t="n">
-        <v>28.3806717383152</v>
+        <v>29.9666341272814</v>
       </c>
       <c r="D110" t="n">
-        <v>148007.195727594</v>
+        <v>625.082776358668</v>
       </c>
     </row>
     <row r="111">
@@ -8543,13 +8847,13 @@
         <v>117</v>
       </c>
       <c r="B111" t="n">
-        <v>678566.978398977</v>
+        <v>698605.911536793</v>
       </c>
       <c r="C111" t="n">
-        <v>28.3814478403511</v>
+        <v>29.963192243507</v>
       </c>
       <c r="D111" t="n">
-        <v>148007.195727594</v>
+        <v>509.986845395232</v>
       </c>
     </row>
     <row r="112">
@@ -8557,13 +8861,13 @@
         <v>118</v>
       </c>
       <c r="B112" t="n">
-        <v>678565.259923414</v>
+        <v>698457.645994353</v>
       </c>
       <c r="C112" t="n">
-        <v>28.3813639471836</v>
+        <v>29.9585986048447</v>
       </c>
       <c r="D112" t="n">
-        <v>148007.195727594</v>
+        <v>415.516508452381</v>
       </c>
     </row>
     <row r="113">
@@ -8571,13 +8875,13 @@
         <v>119</v>
       </c>
       <c r="B113" t="n">
-        <v>678561.081616173</v>
+        <v>698624.790858626</v>
       </c>
       <c r="C113" t="n">
-        <v>28.3811599690552</v>
+        <v>29.967576465505</v>
       </c>
       <c r="D113" t="n">
-        <v>148007.195727594</v>
+        <v>341.671765530117</v>
       </c>
     </row>
     <row r="114">
@@ -8585,13 +8889,13 @@
         <v>120</v>
       </c>
       <c r="B114" t="n">
-        <v>678562.380983819</v>
+        <v>698574.019202</v>
       </c>
       <c r="C114" t="n">
-        <v>28.3812234020593</v>
+        <v>29.966443076308</v>
       </c>
       <c r="D114" t="n">
-        <v>148007.195727594</v>
+        <v>288.45261662844</v>
       </c>
     </row>
     <row r="115">
@@ -8599,13 +8903,13 @@
         <v>121</v>
       </c>
       <c r="B115" t="n">
-        <v>678563.314476407</v>
+        <v>698535.231480344</v>
       </c>
       <c r="C115" t="n">
-        <v>28.3812689736413</v>
+        <v>29.965708643801</v>
       </c>
       <c r="D115" t="n">
-        <v>148007.195727594</v>
+        <v>241.556104041553</v>
       </c>
     </row>
     <row r="116">
@@ -8613,13 +8917,13 @@
         <v>122</v>
       </c>
       <c r="B116" t="n">
-        <v>678562.764359251</v>
+        <v>698493.908849422</v>
       </c>
       <c r="C116" t="n">
-        <v>28.3812421178212</v>
+        <v>29.964728448716</v>
       </c>
       <c r="D116" t="n">
-        <v>148007.195727594</v>
+        <v>200.982227769461</v>
       </c>
     </row>
     <row r="117">
@@ -8627,13 +8931,237 @@
         <v>123</v>
       </c>
       <c r="B117" t="n">
-        <v>678562.606273428</v>
+        <v>698520.800405558</v>
       </c>
       <c r="C117" t="n">
-        <v>28.3812344003297</v>
+        <v>29.9666441533546</v>
       </c>
       <c r="D117" t="n">
-        <v>148007.195727594</v>
+        <v>166.73098781216</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118" t="n">
+        <v>698502.104330282</v>
+      </c>
+      <c r="C118" t="n">
+        <v>29.9664023096655</v>
+      </c>
+      <c r="D118" t="n">
+        <v>138.802384169653</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119" t="n">
+        <v>698487.140370516</v>
+      </c>
+      <c r="C119" t="n">
+        <v>29.9662455957429</v>
+      </c>
+      <c r="D119" t="n">
+        <v>114.699568226528</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>126</v>
+      </c>
+      <c r="B120" t="n">
+        <v>698472.810481158</v>
+      </c>
+      <c r="C120" t="n">
+        <v>29.9660364407624</v>
+      </c>
+      <c r="D120" t="n">
+        <v>94.4225399827848</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121" t="n">
+        <v>698474.211173185</v>
+      </c>
+      <c r="C121" t="n">
+        <v>29.9664452156812</v>
+      </c>
+      <c r="D121" t="n">
+        <v>77.9712994384226</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>128</v>
+      </c>
+      <c r="B122" t="n">
+        <v>698467.0593039</v>
+      </c>
+      <c r="C122" t="n">
+        <v>29.9663936108396</v>
+      </c>
+      <c r="D122" t="n">
+        <v>65.3458465934425</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123" t="n">
+        <v>698461.095601251</v>
+      </c>
+      <c r="C123" t="n">
+        <v>29.9663601710704</v>
+      </c>
+      <c r="D123" t="n">
+        <v>54.3626062217547</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124" t="n">
+        <v>698455.659001361</v>
+      </c>
+      <c r="C124" t="n">
+        <v>29.9663155413773</v>
+      </c>
+      <c r="D124" t="n">
+        <v>45.0215783233587</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>131</v>
+      </c>
+      <c r="B125" t="n">
+        <v>698453.970812424</v>
+      </c>
+      <c r="C125" t="n">
+        <v>29.966402766167</v>
+      </c>
+      <c r="D125" t="n">
+        <v>37.3227628982538</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>132</v>
+      </c>
+      <c r="B126" t="n">
+        <v>698450.849473837</v>
+      </c>
+      <c r="C126" t="n">
+        <v>29.9663917546757</v>
+      </c>
+      <c r="D126" t="n">
+        <v>31.2661599464412</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>133</v>
+      </c>
+      <c r="B127" t="n">
+        <v>698448.153803914</v>
+      </c>
+      <c r="C127" t="n">
+        <v>29.9663846192653</v>
+      </c>
+      <c r="D127" t="n">
+        <v>25.9228108247546</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>134</v>
+      </c>
+      <c r="B128" t="n">
+        <v>698445.742744205</v>
+      </c>
+      <c r="C128" t="n">
+        <v>29.9663750961379</v>
+      </c>
+      <c r="D128" t="n">
+        <v>21.2927155331948</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>135</v>
+      </c>
+      <c r="B129" t="n">
+        <v>698444.303660583</v>
+      </c>
+      <c r="C129" t="n">
+        <v>29.9663937082484</v>
+      </c>
+      <c r="D129" t="n">
+        <v>17.3758740717608</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>136</v>
+      </c>
+      <c r="B130" t="n">
+        <v>698442.730906608</v>
+      </c>
+      <c r="C130" t="n">
+        <v>29.9663913586057</v>
+      </c>
+      <c r="D130" t="n">
+        <v>14.1722864404533</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>137</v>
+      </c>
+      <c r="B131" t="n">
+        <v>698441.556738436</v>
+      </c>
+      <c r="C131" t="n">
+        <v>29.9663898360449</v>
+      </c>
+      <c r="D131" t="n">
+        <v>11.7695957169724</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>138</v>
+      </c>
+      <c r="B132" t="n">
+        <v>698440.751056876</v>
+      </c>
+      <c r="C132" t="n">
+        <v>29.9663878039907</v>
+      </c>
+      <c r="D132" t="n">
+        <v>10.1678019013187</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>139</v>
+      </c>
+      <c r="B133" t="n">
+        <v>698440.460532728</v>
+      </c>
+      <c r="C133" t="n">
+        <v>29.9663917754609</v>
+      </c>
+      <c r="D133" t="n">
+        <v>9.36690499349179</v>
       </c>
     </row>
   </sheetData>
@@ -8655,7 +9183,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2">
@@ -8663,7 +9191,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>693675.035522825</v>
+        <v>696819.590611492</v>
       </c>
     </row>
     <row r="3">
@@ -8671,7 +9199,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="n">
-        <v>713877.265285386</v>
+        <v>716806.113619821</v>
       </c>
     </row>
     <row r="4">
@@ -8679,7 +9207,7 @@
         <v>33</v>
       </c>
       <c r="B4" t="n">
-        <v>741351.451231908</v>
+        <v>742563.980362702</v>
       </c>
     </row>
     <row r="5">
@@ -8687,7 +9215,7 @@
         <v>34</v>
       </c>
       <c r="B5" t="n">
-        <v>722948.456831144</v>
+        <v>715662.524277247</v>
       </c>
     </row>
     <row r="6">
@@ -8695,7 +9223,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>785226.027262072</v>
+        <v>773251.236675916</v>
       </c>
     </row>
     <row r="7">
@@ -8703,7 +9231,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>776784.938712929</v>
+        <v>764340.535946852</v>
       </c>
     </row>
     <row r="8">
@@ -8711,7 +9239,7 @@
         <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>801395.003930102</v>
+        <v>801027.501105215</v>
       </c>
     </row>
     <row r="9">
@@ -8719,7 +9247,7 @@
         <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>864152.467001964</v>
+        <v>888914.799635087</v>
       </c>
     </row>
     <row r="10">
@@ -8727,7 +9255,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>857526.002300734</v>
+        <v>906067.359933994</v>
       </c>
     </row>
     <row r="11">
@@ -8735,7 +9263,7 @@
         <v>38</v>
       </c>
       <c r="B11" t="n">
-        <v>820801.71880142</v>
+        <v>877995.378962088</v>
       </c>
     </row>
     <row r="12">
@@ -8743,7 +9271,7 @@
         <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>1045278.44104351</v>
+        <v>900668.662417283</v>
       </c>
     </row>
     <row r="13">
@@ -8751,7 +9279,7 @@
         <v>40</v>
       </c>
       <c r="B13" t="n">
-        <v>867243.332292606</v>
+        <v>906093.309419353</v>
       </c>
     </row>
     <row r="14">
@@ -8759,7 +9287,7 @@
         <v>6</v>
       </c>
       <c r="B14" t="n">
-        <v>825037.71740596</v>
+        <v>846795.099715253</v>
       </c>
     </row>
     <row r="15">
@@ -8767,7 +9295,7 @@
         <v>41</v>
       </c>
       <c r="B15" t="n">
-        <v>850177.07865135</v>
+        <v>852784.558288095</v>
       </c>
     </row>
     <row r="16">
@@ -8775,7 +9303,7 @@
         <v>42</v>
       </c>
       <c r="B16" t="n">
-        <v>789266.313452307</v>
+        <v>777785.216194774</v>
       </c>
     </row>
     <row r="17">
@@ -8783,7 +9311,7 @@
         <v>43</v>
       </c>
       <c r="B17" t="n">
-        <v>718672.878571776</v>
+        <v>705753.308542663</v>
       </c>
     </row>
     <row r="18">
@@ -8791,7 +9319,7 @@
         <v>7</v>
       </c>
       <c r="B18" t="n">
-        <v>779594.118689264</v>
+        <v>770019.645914344</v>
       </c>
     </row>
     <row r="19">
@@ -8799,7 +9327,7 @@
         <v>44</v>
       </c>
       <c r="B19" t="n">
-        <v>838014.192134304</v>
+        <v>844747.648350224</v>
       </c>
     </row>
     <row r="20">
@@ -8807,7 +9335,7 @@
         <v>45</v>
       </c>
       <c r="B20" t="n">
-        <v>831378.301622772</v>
+        <v>839268.7494806</v>
       </c>
     </row>
     <row r="21">
@@ -8815,7 +9343,7 @@
         <v>46</v>
       </c>
       <c r="B21" t="n">
-        <v>770044.859831604</v>
+        <v>764970.697004647</v>
       </c>
     </row>
     <row r="22">
@@ -8823,7 +9351,7 @@
         <v>8</v>
       </c>
       <c r="B22" t="n">
-        <v>791380.972373993</v>
+        <v>772495.989000272</v>
       </c>
     </row>
     <row r="23">
@@ -8831,7 +9359,7 @@
         <v>47</v>
       </c>
       <c r="B23" t="n">
-        <v>766155.787902843</v>
+        <v>738650.266151332</v>
       </c>
     </row>
     <row r="24">
@@ -8839,7 +9367,7 @@
         <v>48</v>
       </c>
       <c r="B24" t="n">
-        <v>700777.116787707</v>
+        <v>670103.058899786</v>
       </c>
     </row>
     <row r="25">
@@ -8847,7 +9375,7 @@
         <v>49</v>
       </c>
       <c r="B25" t="n">
-        <v>532005.192374694</v>
+        <v>609044.981544835</v>
       </c>
     </row>
     <row r="26">
@@ -8855,7 +9383,7 @@
         <v>9</v>
       </c>
       <c r="B26" t="n">
-        <v>556380.52732517</v>
+        <v>537571.741922916</v>
       </c>
     </row>
     <row r="27">
@@ -8863,7 +9391,7 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>610553.243471822</v>
+        <v>611261.54289922</v>
       </c>
     </row>
     <row r="28">
@@ -8871,7 +9399,7 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>610431.86452135</v>
+        <v>617183.255957023</v>
       </c>
     </row>
     <row r="29">
@@ -8879,7 +9407,7 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>676872.522089451</v>
+        <v>688202.714661951</v>
       </c>
     </row>
     <row r="30">
@@ -8887,7 +9415,7 @@
         <v>10</v>
       </c>
       <c r="B30" t="n">
-        <v>519902.175308407</v>
+        <v>522294.596851805</v>
       </c>
     </row>
     <row r="31">
@@ -8895,7 +9423,7 @@
         <v>53</v>
       </c>
       <c r="B31" t="n">
-        <v>586603.095546674</v>
+        <v>589323.389639892</v>
       </c>
     </row>
     <row r="32">
@@ -8903,7 +9431,7 @@
         <v>54</v>
       </c>
       <c r="B32" t="n">
-        <v>597154.294347256</v>
+        <v>598424.651887758</v>
       </c>
     </row>
     <row r="33">
@@ -8911,7 +9439,7 @@
         <v>55</v>
       </c>
       <c r="B33" t="n">
-        <v>506778.971593518</v>
+        <v>500372.028321877</v>
       </c>
     </row>
     <row r="34">
@@ -8919,7 +9447,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="n">
-        <v>434971.985759493</v>
+        <v>429083.200805299</v>
       </c>
     </row>
     <row r="35">
@@ -8927,7 +9455,7 @@
         <v>56</v>
       </c>
       <c r="B35" t="n">
-        <v>482344.266189979</v>
+        <v>484350.141175357</v>
       </c>
     </row>
     <row r="36">
@@ -8935,7 +9463,7 @@
         <v>57</v>
       </c>
       <c r="B36" t="n">
-        <v>487154.864865582</v>
+        <v>490907.791795631</v>
       </c>
     </row>
     <row r="37">
@@ -8943,7 +9471,7 @@
         <v>58</v>
       </c>
       <c r="B37" t="n">
-        <v>456991.743636593</v>
+        <v>457098.144609971</v>
       </c>
     </row>
     <row r="38">
@@ -8951,7 +9479,7 @@
         <v>12</v>
       </c>
       <c r="B38" t="n">
-        <v>462758.371176576</v>
+        <v>464518.203847399</v>
       </c>
     </row>
     <row r="39">
@@ -8959,7 +9487,7 @@
         <v>59</v>
       </c>
       <c r="B39" t="n">
-        <v>489513.670710112</v>
+        <v>492235.06757152</v>
       </c>
     </row>
     <row r="40">
@@ -8967,7 +9495,7 @@
         <v>60</v>
       </c>
       <c r="B40" t="n">
-        <v>457105.958310463</v>
+        <v>455779.951736406</v>
       </c>
     </row>
     <row r="41">
@@ -8975,7 +9503,7 @@
         <v>61</v>
       </c>
       <c r="B41" t="n">
-        <v>438030.436665605</v>
+        <v>434852.044177024</v>
       </c>
     </row>
     <row r="42">
@@ -8983,7 +9511,7 @@
         <v>13</v>
       </c>
       <c r="B42" t="n">
-        <v>434095.159923189</v>
+        <v>431585.986310396</v>
       </c>
     </row>
     <row r="43">
@@ -8991,7 +9519,7 @@
         <v>62</v>
       </c>
       <c r="B43" t="n">
-        <v>459757.073303568</v>
+        <v>460793.163171117</v>
       </c>
     </row>
     <row r="44">
@@ -8999,7 +9527,7 @@
         <v>63</v>
       </c>
       <c r="B44" t="n">
-        <v>436370.524385156</v>
+        <v>436159.672905301</v>
       </c>
     </row>
     <row r="45">
@@ -9007,7 +9535,7 @@
         <v>64</v>
       </c>
       <c r="B45" t="n">
-        <v>443543.338793358</v>
+        <v>445204.121053786</v>
       </c>
     </row>
     <row r="46">
@@ -9015,7 +9543,7 @@
         <v>14</v>
       </c>
       <c r="B46" t="n">
-        <v>430987.258682219</v>
+        <v>433410.772420481</v>
       </c>
     </row>
     <row r="47">
@@ -9023,7 +9551,7 @@
         <v>65</v>
       </c>
       <c r="B47" t="n">
-        <v>442196.925539342</v>
+        <v>445673.717761448</v>
       </c>
     </row>
     <row r="48">
@@ -9031,7 +9559,7 @@
         <v>66</v>
       </c>
       <c r="B48" t="n">
-        <v>420757.513695116</v>
+        <v>420741.845446614</v>
       </c>
     </row>
     <row r="49">
@@ -9039,7 +9567,7 @@
         <v>67</v>
       </c>
       <c r="B49" t="n">
-        <v>388266.318762908</v>
+        <v>382358.615125655</v>
       </c>
     </row>
     <row r="50">
@@ -9047,7 +9575,7 @@
         <v>15</v>
       </c>
       <c r="B50" t="n">
-        <v>395880.354201184</v>
+        <v>387721.647784265</v>
       </c>
     </row>
     <row r="51">
@@ -9055,7 +9583,7 @@
         <v>68</v>
       </c>
       <c r="B51" t="n">
-        <v>456200.57084995</v>
+        <v>453584.99976735</v>
       </c>
     </row>
     <row r="52">
@@ -9063,7 +9591,7 @@
         <v>69</v>
       </c>
       <c r="B52" t="n">
-        <v>468989.345608107</v>
+        <v>470707.284664486</v>
       </c>
     </row>
     <row r="53">
@@ -9071,7 +9599,7 @@
         <v>70</v>
       </c>
       <c r="B53" t="n">
-        <v>476427.186325712</v>
+        <v>485460.567018827</v>
       </c>
     </row>
     <row r="54">
@@ -9079,7 +9607,7 @@
         <v>16</v>
       </c>
       <c r="B54" t="n">
-        <v>454061.247472605</v>
+        <v>469756.996400795</v>
       </c>
     </row>
     <row r="55">
@@ -9087,7 +9615,7 @@
         <v>71</v>
       </c>
       <c r="B55" t="n">
-        <v>469431.607950309</v>
+        <v>483841.653859849</v>
       </c>
     </row>
     <row r="56">
@@ -9095,7 +9623,7 @@
         <v>72</v>
       </c>
       <c r="B56" t="n">
-        <v>482935.646583826</v>
+        <v>482971.451516115</v>
       </c>
     </row>
     <row r="57">
@@ -9103,7 +9631,7 @@
         <v>73</v>
       </c>
       <c r="B57" t="n">
-        <v>467023.118818239</v>
+        <v>436858.425004113</v>
       </c>
     </row>
     <row r="58">
@@ -9111,7 +9639,7 @@
         <v>17</v>
       </c>
       <c r="B58" t="n">
-        <v>338963.820463888</v>
+        <v>419893.697606549</v>
       </c>
     </row>
     <row r="59">
@@ -9119,7 +9647,7 @@
         <v>74</v>
       </c>
       <c r="B59" t="n">
-        <v>372180.268593558</v>
+        <v>423718.275415919</v>
       </c>
     </row>
     <row r="60">
@@ -9127,7 +9655,7 @@
         <v>75</v>
       </c>
       <c r="B60" t="n">
-        <v>477865.716217026</v>
+        <v>396518.186926182</v>
       </c>
     </row>
     <row r="61">
@@ -9135,7 +9663,7 @@
         <v>76</v>
       </c>
       <c r="B61" t="n">
-        <v>468041.028595298</v>
+        <v>416895.704731334</v>
       </c>
     </row>
     <row r="62">
@@ -9143,7 +9671,7 @@
         <v>18</v>
       </c>
       <c r="B62" t="n">
-        <v>461799.797852037</v>
+        <v>432120.697831689</v>
       </c>
     </row>
     <row r="63">
@@ -9151,7 +9679,7 @@
         <v>77</v>
       </c>
       <c r="B63" t="n">
-        <v>452797.466261432</v>
+        <v>456687.597362378</v>
       </c>
     </row>
     <row r="64">
@@ -9159,7 +9687,7 @@
         <v>78</v>
       </c>
       <c r="B64" t="n">
-        <v>423012.970280704</v>
+        <v>437458.868871804</v>
       </c>
     </row>
     <row r="65">
@@ -9167,7 +9695,7 @@
         <v>79</v>
       </c>
       <c r="B65" t="n">
-        <v>466404.977254312</v>
+        <v>477730.029852894</v>
       </c>
     </row>
     <row r="66">
@@ -9175,7 +9703,7 @@
         <v>19</v>
       </c>
       <c r="B66" t="n">
-        <v>478995.247712644</v>
+        <v>495383.210742571</v>
       </c>
     </row>
     <row r="67">
@@ -9183,7 +9711,7 @@
         <v>80</v>
       </c>
       <c r="B67" t="n">
-        <v>529106.851610032</v>
+        <v>530772.37242372</v>
       </c>
     </row>
     <row r="68">
@@ -9191,7 +9719,7 @@
         <v>81</v>
       </c>
       <c r="B68" t="n">
-        <v>535940.716198014</v>
+        <v>527262.169608948</v>
       </c>
     </row>
     <row r="69">
@@ -9199,7 +9727,7 @@
         <v>82</v>
       </c>
       <c r="B69" t="n">
-        <v>552356.007981801</v>
+        <v>542964.483966215</v>
       </c>
     </row>
     <row r="70">
@@ -9207,7 +9735,7 @@
         <v>20</v>
       </c>
       <c r="B70" t="n">
-        <v>564454.023672474</v>
+        <v>561260.030751199</v>
       </c>
     </row>
     <row r="71">
@@ -9215,7 +9743,7 @@
         <v>83</v>
       </c>
       <c r="B71" t="n">
-        <v>567562.698286858</v>
+        <v>568211.127048203</v>
       </c>
     </row>
     <row r="72">
@@ -9223,7 +9751,7 @@
         <v>84</v>
       </c>
       <c r="B72" t="n">
-        <v>580434.199142568</v>
+        <v>583093.937369673</v>
       </c>
     </row>
     <row r="73">
@@ -9231,7 +9759,7 @@
         <v>85</v>
       </c>
       <c r="B73" t="n">
-        <v>573093.159448575</v>
+        <v>572954.386139285</v>
       </c>
     </row>
     <row r="74">
@@ -9239,7 +9767,7 @@
         <v>21</v>
       </c>
       <c r="B74" t="n">
-        <v>653291.419136382</v>
+        <v>655832.50488039</v>
       </c>
     </row>
     <row r="75">
@@ -9247,7 +9775,7 @@
         <v>86</v>
       </c>
       <c r="B75" t="n">
-        <v>685404.606384254</v>
+        <v>687009.488314169</v>
       </c>
     </row>
     <row r="76">
@@ -9255,7 +9783,7 @@
         <v>87</v>
       </c>
       <c r="B76" t="n">
-        <v>688831.595358702</v>
+        <v>687392.601198864</v>
       </c>
     </row>
     <row r="77">
@@ -9263,7 +9791,7 @@
         <v>88</v>
       </c>
       <c r="B77" t="n">
-        <v>702333.744080665</v>
+        <v>699594.990875346</v>
       </c>
     </row>
     <row r="78">
@@ -9271,7 +9799,7 @@
         <v>22</v>
       </c>
       <c r="B78" t="n">
-        <v>793233.240504466</v>
+        <v>795381.610150238</v>
       </c>
     </row>
     <row r="79">
@@ -9279,7 +9807,7 @@
         <v>89</v>
       </c>
       <c r="B79" t="n">
-        <v>790819.691471664</v>
+        <v>792578.355391299</v>
       </c>
     </row>
     <row r="80">
@@ -9287,7 +9815,7 @@
         <v>90</v>
       </c>
       <c r="B80" t="n">
-        <v>730014.663034939</v>
+        <v>727329.846539497</v>
       </c>
     </row>
     <row r="81">
@@ -9295,7 +9823,7 @@
         <v>91</v>
       </c>
       <c r="B81" t="n">
-        <v>710613.423200079</v>
+        <v>709348.195775094</v>
       </c>
     </row>
     <row r="82">
@@ -9303,7 +9831,7 @@
         <v>23</v>
       </c>
       <c r="B82" t="n">
-        <v>685499.887304651</v>
+        <v>685340.72982436</v>
       </c>
     </row>
     <row r="83">
@@ -9311,7 +9839,7 @@
         <v>92</v>
       </c>
       <c r="B83" t="n">
-        <v>638783.151206106</v>
+        <v>637453.008716306</v>
       </c>
     </row>
     <row r="84">
@@ -9319,7 +9847,7 @@
         <v>93</v>
       </c>
       <c r="B84" t="n">
-        <v>629576.610845039</v>
+        <v>629178.063806949</v>
       </c>
     </row>
     <row r="85">
@@ -9327,7 +9855,7 @@
         <v>94</v>
       </c>
       <c r="B85" t="n">
-        <v>649847.526393251</v>
+        <v>651684.92674722</v>
       </c>
     </row>
     <row r="86">
@@ -9335,7 +9863,7 @@
         <v>24</v>
       </c>
       <c r="B86" t="n">
-        <v>629394.507074777</v>
+        <v>626539.951314996</v>
       </c>
     </row>
     <row r="87">
@@ -9343,7 +9871,7 @@
         <v>95</v>
       </c>
       <c r="B87" t="n">
-        <v>652043.234392542</v>
+        <v>651040.241816664</v>
       </c>
     </row>
     <row r="88">
@@ -9351,7 +9879,7 @@
         <v>96</v>
       </c>
       <c r="B88" t="n">
-        <v>650973.586431011</v>
+        <v>650469.423960331</v>
       </c>
     </row>
     <row r="89">
@@ -9359,7 +9887,7 @@
         <v>97</v>
       </c>
       <c r="B89" t="n">
-        <v>683496.427734598</v>
+        <v>687833.451091196</v>
       </c>
     </row>
     <row r="90">
@@ -9367,7 +9895,7 @@
         <v>25</v>
       </c>
       <c r="B90" t="n">
-        <v>660613.54832085</v>
+        <v>662780.674904005</v>
       </c>
     </row>
     <row r="91">
@@ -9375,7 +9903,7 @@
         <v>98</v>
       </c>
       <c r="B91" t="n">
-        <v>672389.190048278</v>
+        <v>674707.390089486</v>
       </c>
     </row>
     <row r="92">
@@ -9383,7 +9911,7 @@
         <v>99</v>
       </c>
       <c r="B92" t="n">
-        <v>713350.94127962</v>
+        <v>715087.862948494</v>
       </c>
     </row>
     <row r="93">
@@ -9391,7 +9919,7 @@
         <v>100</v>
       </c>
       <c r="B93" t="n">
-        <v>716481.822231148</v>
+        <v>710245.509902057</v>
       </c>
     </row>
     <row r="94">
@@ -9399,7 +9927,7 @@
         <v>26</v>
       </c>
       <c r="B94" t="n">
-        <v>699805.636729281</v>
+        <v>677862.167347616</v>
       </c>
     </row>
     <row r="95">
@@ -9407,7 +9935,7 @@
         <v>101</v>
       </c>
       <c r="B95" t="n">
-        <v>569423.887157314</v>
+        <v>664164.964979467</v>
       </c>
     </row>
     <row r="96">
@@ -9415,7 +9943,7 @@
         <v>102</v>
       </c>
       <c r="B96" t="n">
-        <v>669873.66200158</v>
+        <v>630059.563063778</v>
       </c>
     </row>
     <row r="97">
@@ -9423,7 +9951,7 @@
         <v>103</v>
       </c>
       <c r="B97" t="n">
-        <v>768475.648187403</v>
+        <v>735480.568212538</v>
       </c>
     </row>
     <row r="98">
@@ -9431,7 +9959,7 @@
         <v>104</v>
       </c>
       <c r="B98" t="n">
-        <v>682618.509218078</v>
+        <v>701339.181489187</v>
       </c>
     </row>
     <row r="99">
@@ -9439,7 +9967,7 @@
         <v>105</v>
       </c>
       <c r="B99" t="n">
-        <v>665235.363495713</v>
+        <v>693265.891534752</v>
       </c>
     </row>
     <row r="100">
@@ -9447,7 +9975,7 @@
         <v>106</v>
       </c>
       <c r="B100" t="n">
-        <v>680000.477103644</v>
+        <v>682427.596854815</v>
       </c>
     </row>
     <row r="101">
@@ -9455,7 +9983,7 @@
         <v>107</v>
       </c>
       <c r="B101" t="n">
-        <v>682066.088442725</v>
+        <v>702951.299343297</v>
       </c>
     </row>
     <row r="102">
@@ -9463,7 +9991,7 @@
         <v>108</v>
       </c>
       <c r="B102" t="n">
-        <v>677474.195334591</v>
+        <v>699942.801388586</v>
       </c>
     </row>
     <row r="103">
@@ -9471,7 +9999,7 @@
         <v>109</v>
       </c>
       <c r="B103" t="n">
-        <v>677779.897136095</v>
+        <v>697932.084806625</v>
       </c>
     </row>
     <row r="104">
@@ -9479,7 +10007,7 @@
         <v>110</v>
       </c>
       <c r="B104" t="n">
-        <v>679023.791770127</v>
+        <v>695424.756077559</v>
       </c>
     </row>
     <row r="105">
@@ -9487,7 +10015,7 @@
         <v>111</v>
       </c>
       <c r="B105" t="n">
-        <v>678695.403065164</v>
+        <v>699702.868053735</v>
       </c>
     </row>
     <row r="106">
@@ -9495,7 +10023,7 @@
         <v>112</v>
       </c>
       <c r="B106" t="n">
-        <v>678406.148252323</v>
+        <v>699053.043464642</v>
       </c>
     </row>
     <row r="107">
@@ -9503,7 +10031,7 @@
         <v>113</v>
       </c>
       <c r="B107" t="n">
-        <v>678555.539098665</v>
+        <v>698606.75769152</v>
       </c>
     </row>
     <row r="108">
@@ -9511,7 +10039,7 @@
         <v>114</v>
       </c>
       <c r="B108" t="n">
-        <v>678608.616871789</v>
+        <v>698045.135591818</v>
       </c>
     </row>
     <row r="109">
@@ -9519,7 +10047,7 @@
         <v>115</v>
       </c>
       <c r="B109" t="n">
-        <v>678555.906331269</v>
+        <v>698922.028684904</v>
       </c>
     </row>
     <row r="110">
@@ -9527,7 +10055,7 @@
         <v>116</v>
       </c>
       <c r="B110" t="n">
-        <v>678551.080651599</v>
+        <v>698738.025137637</v>
       </c>
     </row>
     <row r="111">
@@ -9535,7 +10063,7 @@
         <v>117</v>
       </c>
       <c r="B111" t="n">
-        <v>678566.978398977</v>
+        <v>698605.911536793</v>
       </c>
     </row>
     <row r="112">
@@ -9543,7 +10071,7 @@
         <v>118</v>
       </c>
       <c r="B112" t="n">
-        <v>678565.259923414</v>
+        <v>698457.645994353</v>
       </c>
     </row>
     <row r="113">
@@ -9551,7 +10079,7 @@
         <v>119</v>
       </c>
       <c r="B113" t="n">
-        <v>678561.081616173</v>
+        <v>698624.790858626</v>
       </c>
     </row>
     <row r="114">
@@ -9559,7 +10087,7 @@
         <v>120</v>
       </c>
       <c r="B114" t="n">
-        <v>678562.380983819</v>
+        <v>698574.019202</v>
       </c>
     </row>
     <row r="115">
@@ -9567,7 +10095,7 @@
         <v>121</v>
       </c>
       <c r="B115" t="n">
-        <v>678563.314476407</v>
+        <v>698535.231480344</v>
       </c>
     </row>
     <row r="116">
@@ -9575,7 +10103,7 @@
         <v>122</v>
       </c>
       <c r="B116" t="n">
-        <v>678562.764359251</v>
+        <v>698493.908849422</v>
       </c>
     </row>
     <row r="117">
@@ -9583,7 +10111,135 @@
         <v>123</v>
       </c>
       <c r="B117" t="n">
-        <v>678562.606273428</v>
+        <v>698520.800405558</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118" t="n">
+        <v>698502.104330282</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119" t="n">
+        <v>698487.140370516</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>126</v>
+      </c>
+      <c r="B120" t="n">
+        <v>698472.810481158</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121" t="n">
+        <v>698474.211173185</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>128</v>
+      </c>
+      <c r="B122" t="n">
+        <v>698467.0593039</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123" t="n">
+        <v>698461.095601251</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124" t="n">
+        <v>698455.659001361</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>131</v>
+      </c>
+      <c r="B125" t="n">
+        <v>698453.970812424</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>132</v>
+      </c>
+      <c r="B126" t="n">
+        <v>698450.849473837</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>133</v>
+      </c>
+      <c r="B127" t="n">
+        <v>698448.153803914</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>134</v>
+      </c>
+      <c r="B128" t="n">
+        <v>698445.742744205</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>135</v>
+      </c>
+      <c r="B129" t="n">
+        <v>698444.303660583</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>136</v>
+      </c>
+      <c r="B130" t="n">
+        <v>698442.730906608</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>137</v>
+      </c>
+      <c r="B131" t="n">
+        <v>698441.556738436</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>138</v>
+      </c>
+      <c r="B132" t="n">
+        <v>698440.751056876</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>139</v>
+      </c>
+      <c r="B133" t="n">
+        <v>698440.460532728</v>
       </c>
     </row>
   </sheetData>
